--- a/Weapons4Pentesters.xlsx
+++ b/Weapons4Pentesters.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eahasls\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB7B4E7-F962-4B1E-A09C-14265B07FFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE3E9F-479F-4F4E-BEFF-0B2B9F5B347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15970" tabRatio="644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Weaponization" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Weaponization-MyYourTools" sheetId="3" r:id="rId1"/>
+    <sheet name="BlackArch  Tools" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weaponization!$B$4:$C$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BlackArch  Tools'!$D$1:$D$2813</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weaponization-MyYourTools'!$A$4:$B$222</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8904" uniqueCount="6058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8907" uniqueCount="6060">
   <si>
     <t>anonymos</t>
   </si>
@@ -18237,12 +18238,18 @@
   <si>
     <t>WEAPONIZATION</t>
   </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18297,6 +18304,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -18318,7 +18333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -18380,12 +18395,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18434,12 +18464,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18721,2122 +18753,2121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C239"/>
+  <dimension ref="A1:B239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="4"/>
-    <col min="2" max="2" width="40.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="144.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="40.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>6057</v>
       </c>
-      <c r="C1" s="23"/>
-    </row>
-    <row r="2" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-    </row>
-    <row r="3" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="B4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>327</v>
+      </c>
       <c r="B10" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="B19" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
+    <row r="26" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>433</v>
+      </c>
       <c r="B27" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C27" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+    <row r="28" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="22" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="22" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="22" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="22" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="B36" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
+    <row r="37" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
+    <row r="48" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="B49" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
+    <row r="50" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="15" t="s">
+    <row r="54" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="B55" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
+    <row r="56" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="13" t="s">
+    <row r="61" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="B62" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="19" t="s">
+    <row r="63" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="19" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="15" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="15" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="15" t="s">
+    <row r="71" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="B72" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="14" t="s">
+    <row r="73" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="14" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="14" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="14" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="14" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="14" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="14" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="15" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="15" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="15" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="15" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="15" t="s">
+    <row r="85" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="B86" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="16" t="s">
+    <row r="87" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="B87" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="20" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="B88" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="15" t="s">
+    <row r="89" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="B89" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="B90" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C90" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="16" t="s">
+    <row r="91" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="13" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="13" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="13" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="13" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="13" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="13" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="13" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="13" t="s">
+    <row r="99" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>297</v>
+      </c>
       <c r="B100" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C100" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="13" t="s">
+    <row r="101" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="13" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="13" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="13" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="13" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="13" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="13" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="13" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="13" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="13" t="s">
+    <row r="110" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="B111" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C111" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="13" t="s">
+    <row r="112" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="17" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="13" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="13" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="B115" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="13" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="13" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="13" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="13" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="13" t="s">
+    <row r="120" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="B121" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C121" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="20" t="s">
+    <row r="122" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="20" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="20" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="20" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="20" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="20" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="20" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="13" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="13" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="13" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="13" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="13" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="13" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="135" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="13" t="s">
+    <row r="135" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="136" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="B136" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C136" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="13" t="s">
+    <row r="137" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="13" t="s">
+    <row r="138" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="B138" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>235</v>
+      </c>
       <c r="B139" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C139" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="13" t="s">
+    <row r="140" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="13" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="13" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="20" t="s">
+    <row r="143" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>230</v>
+      </c>
       <c r="B144" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C144" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="13" t="s">
+    <row r="145" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="13" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="13" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="13" t="s">
+    <row r="148" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>234</v>
+      </c>
       <c r="B149" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C149" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="150" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="13" t="s">
+    <row r="150" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="13" t="s">
+    <row r="151" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="B152" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C152" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="21" t="s">
+    <row r="153" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="13" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="13" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="13" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="13" t="s">
+    <row r="157" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="B158" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C158" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="159" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="13" t="s">
+    <row r="159" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>290</v>
+      </c>
       <c r="B160" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C160" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="13" t="s">
+    <row r="161" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="13" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="13" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="13" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="13" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="166" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="13" t="s">
+    <row r="166" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="10" t="s">
+        <v>231</v>
+      </c>
       <c r="B167" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C167" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="13" t="s">
+    <row r="168" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="13" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="13" t="s">
+    <row r="170" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="171" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="10" t="s">
+        <v>233</v>
+      </c>
       <c r="B171" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C171" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="13" t="s">
+    <row r="172" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="13" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="13" t="s">
+    <row r="174" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="B174" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="10" t="s">
+        <v>377</v>
+      </c>
       <c r="B175" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C175" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="176" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="13" t="s">
+    <row r="176" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="13" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="13" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="13" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="13" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="13" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="13" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="13" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="13" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="B184" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="13" t="s">
+    <row r="185" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="10" t="s">
+        <v>240</v>
+      </c>
       <c r="B186" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C186" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="13" t="s">
+    <row r="187" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="B188" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C188" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="18" t="s">
+    <row r="189" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="B189" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="13" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="191" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="13" t="s">
+    <row r="191" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="B192" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C192" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="13" t="s">
+    <row r="193" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="B193" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="13" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="13" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="13" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="197" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="13" t="s">
+    <row r="197" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="198" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="B198" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C198" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="199" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="13" t="s">
+    <row r="199" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="B199" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="13" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="13" t="s">
+    <row r="201" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="B201" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="202" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="B202" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C202" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="13" t="s">
+    <row r="203" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="B203" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="13" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="B204" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="13" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="13" t="s">
+    <row r="206" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="207" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="B207" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C207" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="13" t="s">
+    <row r="208" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="13" t="s">
+    <row r="209" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="B210" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C210" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="13" t="s">
+    <row r="211" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="13" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="13" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="13" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="13" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="13" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="13" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="13" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="18" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="B219" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="13" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="13" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="B221" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="13" t="s">
+    <row r="222" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="223" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="B223" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C223" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="224" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="13" t="s">
+    <row r="224" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="13" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="18" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="B226" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="18" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="B227" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="228" spans="2:3" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="18" t="s">
+    <row r="228" spans="1:2" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="B228" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="229" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="10" t="s">
+        <v>392</v>
+      </c>
       <c r="B229" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C229" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="230" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="18" t="s">
+    <row r="230" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="B230" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="231" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="10" t="s">
+        <v>407</v>
+      </c>
       <c r="B231" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C231" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="232" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="18" t="s">
+    <row r="232" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="B232" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="233" spans="2:3" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="11.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="10" t="s">
+        <v>416</v>
+      </c>
       <c r="B233" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C233" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="2:3" ht="11" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="18" t="s">
+    <row r="234" spans="1:2" ht="11" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="B234" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="18" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="B235" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="18" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="B236" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="18" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="B237" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="18" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="B238" s="4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="18" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="B239" s="4" t="s">
         <v>422</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:C222" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:B222" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B176" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B209" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B212" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B213" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B214" r:id="rId5" display="https://github.com/UKHO/ADM-PSmodule" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B216" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B218" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B220" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B221" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B222" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B211" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B208" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B206" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B205" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B204" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B203" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B201" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B200" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B199" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B196" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B197" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B195" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B194" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B193" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B190" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B191" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B187" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B185" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B184" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B180" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B179" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B172" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B173" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B174" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B170" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B169" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B168" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B224" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B166" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B162" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B159" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B157" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B156" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B155" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B154" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B11" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B17" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B18" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B20" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B22" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B23" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B25" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B26" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B91" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B92" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B94" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B95" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B96" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B85" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B84" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B81" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B145" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B147" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B148" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B151" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B33" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B34" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B35" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B142" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B143" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B141" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B140" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B137" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B138" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B37" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B39" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B44" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B45" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B47" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B46" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B48" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B131" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B133" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B132" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B134" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B135" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B130" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B129" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B128" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B123" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B122" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B56" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B57" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B58" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B59" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B60" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B61" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B63" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B65" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B68" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B67" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B69" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B70" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B71" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B89" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B88" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B87" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B97" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B98" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B99" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B73" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B80" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B82" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B83" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B50" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B52" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B53" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B54" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B101" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B109" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B110" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B112" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B113" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B114" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B115" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B116" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B117" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B118" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B119" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B120" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B225" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B38" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B64" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B102" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B215" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B219" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B51" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B41" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B189" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B226" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B150" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B42" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B16" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B161" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B13" r:id="rId151" display="SubEvil:" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B227" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B79" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B6" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B177" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B43" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B126" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B24" r:id="rId158" display="https://github.com/absolomb/WindowsEnum" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B21" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B66" r:id="rId160" xr:uid="{C488CECD-5F45-4FC1-8181-1DFA6FFBBDEE}"/>
-    <hyperlink ref="B153" r:id="rId161" xr:uid="{4852662C-4F75-41AC-B165-9C55F5CA35FF}"/>
-    <hyperlink ref="B40" r:id="rId162" xr:uid="{D1679489-F732-424B-B36F-F41D7D94240E}"/>
-    <hyperlink ref="B93" r:id="rId163" xr:uid="{BF66A44B-9EF5-4466-8B8C-626DE4204BA9}"/>
-    <hyperlink ref="B146" r:id="rId164" xr:uid="{2DE6AA5E-4A3E-43B4-986C-A67632FD9F38}"/>
-    <hyperlink ref="B105" r:id="rId165" xr:uid="{9F4632E4-68A6-432C-A906-429C824E20EF}"/>
-    <hyperlink ref="B107" r:id="rId166" xr:uid="{F75BBAE8-902A-4D3F-A8BE-2FF8F65385B4}"/>
-    <hyperlink ref="B106" r:id="rId167" xr:uid="{DD06CAC9-0E06-48B6-9330-FFF6796CDA63}"/>
-    <hyperlink ref="B75" r:id="rId168" xr:uid="{51AAE316-C083-465E-BDA0-DC020AB1F64C}"/>
-    <hyperlink ref="B103" r:id="rId169" xr:uid="{48989104-6B43-4C50-B804-8ED8B482A5E0}"/>
-    <hyperlink ref="B104" r:id="rId170" xr:uid="{E5C4D736-A18B-4BE3-A0F6-68AFA61F7426}"/>
-    <hyperlink ref="B183" r:id="rId171" xr:uid="{581A4BEE-CB10-494E-97FA-1F03EED19007}"/>
-    <hyperlink ref="B182" r:id="rId172" xr:uid="{CDC83227-83C1-4AC0-8ED2-BCDE523C4580}"/>
-    <hyperlink ref="B181" r:id="rId173" xr:uid="{BBADD89B-4111-48F5-A341-CD884F74FE2C}"/>
-    <hyperlink ref="B165" r:id="rId174" xr:uid="{821068BA-395B-4478-BA08-4F6290E8B9C0}"/>
-    <hyperlink ref="B164" r:id="rId175" xr:uid="{2024E90E-B5F7-4DB0-BCDF-3C7A2BA61CEC}"/>
-    <hyperlink ref="B163" r:id="rId176" xr:uid="{D71F3205-EAC1-4CF1-B65A-94CD2BFD1F28}"/>
-    <hyperlink ref="B32" r:id="rId177" xr:uid="{E328485F-827E-445C-A28B-AB69146548FD}"/>
-    <hyperlink ref="B228" r:id="rId178" xr:uid="{4A9C46F1-F24A-4CD9-94FF-FCF8ECB7B19D}"/>
-    <hyperlink ref="B230" r:id="rId179" xr:uid="{73E56A2B-DC24-4C56-A8EC-B75DC2A1139E}"/>
-    <hyperlink ref="B29" r:id="rId180" xr:uid="{35212652-4DDF-45FB-AF9F-17228DE4EA8C}"/>
-    <hyperlink ref="B124" r:id="rId181" xr:uid="{B5F5EDFC-C19C-42C0-869D-A41C4ECFF524}"/>
-    <hyperlink ref="B125" r:id="rId182" xr:uid="{E238BB07-7E5C-4F77-956F-5EA9EC076D1E}"/>
-    <hyperlink ref="B127" r:id="rId183" xr:uid="{FBF99131-062B-4FC8-8987-97A67E98C619}"/>
-    <hyperlink ref="B30" r:id="rId184" xr:uid="{137BBD49-53AE-476B-9E22-1AC125901991}"/>
-    <hyperlink ref="B14" r:id="rId185" xr:uid="{349EA170-71E3-4D54-B911-9DC44D3F50A9}"/>
-    <hyperlink ref="B232" r:id="rId186" xr:uid="{31C24D22-0610-4277-A289-3DD3293521AE}"/>
-    <hyperlink ref="B12" r:id="rId187" xr:uid="{3B6E78C0-FC59-48BE-908B-47EE3F9474EA}"/>
-    <hyperlink ref="B234" r:id="rId188" xr:uid="{092A5B8C-43C1-4187-90E3-2906E4A6DE2A}"/>
-    <hyperlink ref="B235" r:id="rId189" xr:uid="{2D31EA16-80A5-49A5-8464-07C33BADDF11}"/>
-    <hyperlink ref="B236" r:id="rId190" xr:uid="{D7069FB7-DDF3-4982-ACC5-0B006299F93A}"/>
-    <hyperlink ref="B237" r:id="rId191" xr:uid="{0C977FA4-E945-4888-A3CB-A065069427F3}"/>
-    <hyperlink ref="B238" r:id="rId192" xr:uid="{E9FD4CEF-AC9D-43C0-87D1-D669B87092C6}"/>
-    <hyperlink ref="B239" r:id="rId193" xr:uid="{961CA71E-910A-436D-A5C7-DB63AE0EEDCC}"/>
-    <hyperlink ref="B78" r:id="rId194" xr:uid="{42CB5026-4ABF-4B66-B592-EF37247AB3B1}"/>
-    <hyperlink ref="B77" r:id="rId195" xr:uid="{197DFEF0-FC11-4F5B-94C5-33D4A2E43038}"/>
-    <hyperlink ref="B76" r:id="rId196" xr:uid="{11531100-5C71-43BC-BD74-C9470E8291F9}"/>
-    <hyperlink ref="B31" r:id="rId197" xr:uid="{7C4DF2F8-1742-4978-8E23-8A9CE40211D4}"/>
+    <hyperlink ref="A176" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A209" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A212" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A213" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A214" r:id="rId5" display="https://github.com/UKHO/ADM-PSmodule" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A216" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A218" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A220" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A221" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A222" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A211" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A208" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A206" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A205" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A204" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A203" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A201" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A200" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A199" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A196" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A197" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A195" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A194" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A193" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A190" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A191" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A187" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A185" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A184" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A180" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A179" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A172" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A173" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A174" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A170" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A169" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A168" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A224" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A166" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A162" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A159" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A157" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A156" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A155" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A154" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A11" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A17" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A18" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A20" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A22" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A23" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A25" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A26" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A91" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A92" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A94" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A95" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A96" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A85" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A84" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A81" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A145" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A147" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A148" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A151" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A33" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A34" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A35" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A142" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A143" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A141" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A140" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A137" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A138" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A37" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A39" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A44" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A45" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A47" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A46" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A48" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A131" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A133" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A132" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A134" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A135" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A130" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A129" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A128" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A123" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A122" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A56" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A57" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A58" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A59" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A60" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A61" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A63" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A65" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A68" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A67" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A69" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A70" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A71" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A89" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A88" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A87" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A97" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A98" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A99" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A73" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A80" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A82" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A83" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A50" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A52" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A53" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A54" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A101" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A109" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A110" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A112" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A113" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A114" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A115" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A116" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A117" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A118" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A119" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A120" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A225" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A38" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A64" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A102" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A215" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A219" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A51" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A41" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A189" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A226" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A150" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A42" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A16" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A161" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A13" r:id="rId151" display="SubEvil:" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="A227" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A79" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="A6" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A177" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A43" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A126" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="A24" r:id="rId158" display="https://github.com/absolomb/WindowsEnum" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A21" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="A66" r:id="rId160" xr:uid="{C488CECD-5F45-4FC1-8181-1DFA6FFBBDEE}"/>
+    <hyperlink ref="A153" r:id="rId161" xr:uid="{4852662C-4F75-41AC-B165-9C55F5CA35FF}"/>
+    <hyperlink ref="A40" r:id="rId162" xr:uid="{D1679489-F732-424B-B36F-F41D7D94240E}"/>
+    <hyperlink ref="A93" r:id="rId163" xr:uid="{BF66A44B-9EF5-4466-8B8C-626DE4204BA9}"/>
+    <hyperlink ref="A146" r:id="rId164" xr:uid="{2DE6AA5E-4A3E-43B4-986C-A67632FD9F38}"/>
+    <hyperlink ref="A105" r:id="rId165" xr:uid="{9F4632E4-68A6-432C-A906-429C824E20EF}"/>
+    <hyperlink ref="A107" r:id="rId166" xr:uid="{F75BBAE8-902A-4D3F-A8BE-2FF8F65385B4}"/>
+    <hyperlink ref="A106" r:id="rId167" xr:uid="{DD06CAC9-0E06-48B6-9330-FFF6796CDA63}"/>
+    <hyperlink ref="A75" r:id="rId168" xr:uid="{51AAE316-C083-465E-BDA0-DC020AB1F64C}"/>
+    <hyperlink ref="A103" r:id="rId169" xr:uid="{48989104-6B43-4C50-B804-8ED8B482A5E0}"/>
+    <hyperlink ref="A104" r:id="rId170" xr:uid="{E5C4D736-A18B-4BE3-A0F6-68AFA61F7426}"/>
+    <hyperlink ref="A183" r:id="rId171" xr:uid="{581A4BEE-CB10-494E-97FA-1F03EED19007}"/>
+    <hyperlink ref="A182" r:id="rId172" xr:uid="{CDC83227-83C1-4AC0-8ED2-BCDE523C4580}"/>
+    <hyperlink ref="A181" r:id="rId173" xr:uid="{BBADD89B-4111-48F5-A341-CD884F74FE2C}"/>
+    <hyperlink ref="A165" r:id="rId174" xr:uid="{821068BA-395B-4478-BA08-4F6290E8B9C0}"/>
+    <hyperlink ref="A164" r:id="rId175" xr:uid="{2024E90E-B5F7-4DB0-BCDF-3C7A2BA61CEC}"/>
+    <hyperlink ref="A163" r:id="rId176" xr:uid="{D71F3205-EAC1-4CF1-B65A-94CD2BFD1F28}"/>
+    <hyperlink ref="A32" r:id="rId177" xr:uid="{E328485F-827E-445C-A28B-AB69146548FD}"/>
+    <hyperlink ref="A228" r:id="rId178" xr:uid="{4A9C46F1-F24A-4CD9-94FF-FCF8ECB7B19D}"/>
+    <hyperlink ref="A230" r:id="rId179" xr:uid="{73E56A2B-DC24-4C56-A8EC-B75DC2A1139E}"/>
+    <hyperlink ref="A29" r:id="rId180" xr:uid="{35212652-4DDF-45FB-AF9F-17228DE4EA8C}"/>
+    <hyperlink ref="A124" r:id="rId181" xr:uid="{B5F5EDFC-C19C-42C0-869D-A41C4ECFF524}"/>
+    <hyperlink ref="A125" r:id="rId182" xr:uid="{E238BB07-7E5C-4F77-956F-5EA9EC076D1E}"/>
+    <hyperlink ref="A127" r:id="rId183" xr:uid="{FBF99131-062B-4FC8-8987-97A67E98C619}"/>
+    <hyperlink ref="A30" r:id="rId184" xr:uid="{137BBD49-53AE-476B-9E22-1AC125901991}"/>
+    <hyperlink ref="A14" r:id="rId185" xr:uid="{349EA170-71E3-4D54-B911-9DC44D3F50A9}"/>
+    <hyperlink ref="A232" r:id="rId186" xr:uid="{31C24D22-0610-4277-A289-3DD3293521AE}"/>
+    <hyperlink ref="A12" r:id="rId187" xr:uid="{3B6E78C0-FC59-48BE-908B-47EE3F9474EA}"/>
+    <hyperlink ref="A234" r:id="rId188" xr:uid="{092A5B8C-43C1-4187-90E3-2906E4A6DE2A}"/>
+    <hyperlink ref="A235" r:id="rId189" xr:uid="{2D31EA16-80A5-49A5-8464-07C33BADDF11}"/>
+    <hyperlink ref="A236" r:id="rId190" xr:uid="{D7069FB7-DDF3-4982-ACC5-0B006299F93A}"/>
+    <hyperlink ref="A237" r:id="rId191" xr:uid="{0C977FA4-E945-4888-A3CB-A065069427F3}"/>
+    <hyperlink ref="A238" r:id="rId192" xr:uid="{E9FD4CEF-AC9D-43C0-87D1-D669B87092C6}"/>
+    <hyperlink ref="A239" r:id="rId193" xr:uid="{961CA71E-910A-436D-A5C7-DB63AE0EEDCC}"/>
+    <hyperlink ref="A78" r:id="rId194" xr:uid="{42CB5026-4ABF-4B66-B592-EF37247AB3B1}"/>
+    <hyperlink ref="A77" r:id="rId195" xr:uid="{197DFEF0-FC11-4F5B-94C5-33D4A2E43038}"/>
+    <hyperlink ref="A76" r:id="rId196" xr:uid="{11531100-5C71-43BC-BD74-C9470E8291F9}"/>
+    <hyperlink ref="A31" r:id="rId197" xr:uid="{7C4DF2F8-1742-4978-8E23-8A9CE40211D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId198"/>
@@ -20845,19 +20876,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8488A96F-5C62-438A-8324-DE4167F660F2}">
-  <dimension ref="B2:D2813"/>
+  <dimension ref="B1:D2813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.36328125" customWidth="1"/>
-    <col min="3" max="3" width="158.54296875" customWidth="1"/>
-    <col min="4" max="4" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="157" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="27" t="s">
+        <v>6058</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>6059</v>
+      </c>
+    </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>436</v>
@@ -20957,7 +20999,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>460</v>
       </c>
@@ -21177,7 +21219,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="24" t="s">
         <v>508</v>
       </c>
@@ -21881,7 +21923,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95" s="24" t="s">
         <v>643</v>
       </c>
@@ -24552,7 +24594,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="338" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B338" s="24" t="s">
         <v>1139</v>
       </c>
@@ -25025,7 +25067,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="381" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B381" s="24" t="s">
         <v>1225</v>
       </c>
@@ -27872,7 +27914,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="640" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B640" s="24" t="s">
         <v>1741</v>
       </c>
@@ -29049,7 +29091,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="747" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="747" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B747" s="24" t="s">
         <v>1954</v>
       </c>
@@ -29126,7 +29168,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="754" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="754" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B754" s="24" t="s">
         <v>1968</v>
       </c>
@@ -29137,7 +29179,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="755" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="755" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B755" s="24" t="s">
         <v>1970</v>
       </c>
@@ -29258,7 +29300,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="766" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="766" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B766" s="24" t="s">
         <v>1990</v>
       </c>
@@ -29489,7 +29531,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="787" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="787" spans="2:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B787" s="24" t="s">
         <v>2032</v>
       </c>
@@ -29555,7 +29597,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="793" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="793" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B793" s="24" t="s">
         <v>2044</v>
       </c>
@@ -29665,7 +29707,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="803" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="803" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B803" s="24" t="s">
         <v>2064</v>
       </c>
@@ -31106,7 +31148,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="934" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="934" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B934" s="24" t="s">
         <v>2326</v>
       </c>
@@ -31513,7 +31555,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="971" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="971" spans="2:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B971" s="24" t="s">
         <v>2399</v>
       </c>
@@ -31535,7 +31577,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="973" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="973" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B973" s="24" t="s">
         <v>2403</v>
       </c>
@@ -31821,7 +31863,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="999" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="999" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B999" s="24" t="s">
         <v>2455</v>
       </c>
@@ -32008,7 +32050,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="1016" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1016" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1016" s="24" t="s">
         <v>2489</v>
       </c>
@@ -32723,7 +32765,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="1081" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1081" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1081" s="24" t="s">
         <v>2618</v>
       </c>
@@ -32866,7 +32908,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="1094" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1094" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1094" s="24" t="s">
         <v>2644</v>
       </c>
@@ -33383,7 +33425,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="1141" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1141" spans="2:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B1141" s="24" t="s">
         <v>2738</v>
       </c>
@@ -33482,7 +33524,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="1150" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1150" s="24" t="s">
         <v>2756</v>
       </c>
@@ -34747,7 +34789,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="1265" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1265" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1265" s="24" t="s">
         <v>2984</v>
       </c>
@@ -35946,7 +35988,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="1374" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1374" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1374" s="24" t="s">
         <v>3202</v>
       </c>
@@ -36045,7 +36087,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="1383" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1383" spans="2:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B1383" s="24" t="s">
         <v>3220</v>
       </c>
@@ -36617,7 +36659,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="1435" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1435" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1435" s="24" t="s">
         <v>3321</v>
       </c>
@@ -37057,7 +37099,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="1475" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1475" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1475" s="24" t="s">
         <v>3401</v>
       </c>
@@ -37420,7 +37462,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="1508" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1508" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1508" s="24" t="s">
         <v>3467</v>
       </c>
@@ -38619,7 +38661,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="1617" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1617" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1617" s="24" t="s">
         <v>3686</v>
       </c>
@@ -39081,7 +39123,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="1659" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1659" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1659" s="24" t="s">
         <v>3770</v>
       </c>
@@ -39312,7 +39354,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="1680" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1680" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1680" s="24" t="s">
         <v>3812</v>
       </c>
@@ -39367,7 +39409,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="1685" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1685" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1685" s="24" t="s">
         <v>3822</v>
       </c>
@@ -40258,7 +40300,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="1766" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1766" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1766" s="24" t="s">
         <v>3983</v>
       </c>
@@ -40434,7 +40476,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="1782" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1782" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1782" s="24" t="s">
         <v>4015</v>
       </c>
@@ -41061,7 +41103,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="1839" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1839" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1839" s="24" t="s">
         <v>4130</v>
       </c>
@@ -42201,7 +42243,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="1943" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1943" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1943" s="24" t="s">
         <v>4322</v>
       </c>
@@ -43235,7 +43277,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2037" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2037" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2037" s="24" t="s">
         <v>4510</v>
       </c>
@@ -43829,7 +43871,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2091" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2091" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2091" s="24" t="s">
         <v>4619</v>
       </c>
@@ -43884,7 +43926,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="2096" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2096" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2096" s="24" t="s">
         <v>4630</v>
       </c>
@@ -45039,7 +45081,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2201" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2201" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2201" s="24" t="s">
         <v>4840</v>
       </c>
@@ -45655,7 +45697,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2257" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2257" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2257" s="24" t="s">
         <v>4952</v>
       </c>
@@ -47250,7 +47292,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="2402" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2402" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2402" s="24" t="s">
         <v>5239</v>
       </c>
@@ -47547,7 +47589,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2429" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2429" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2429" s="24" t="s">
         <v>5293</v>
       </c>
@@ -47613,7 +47655,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2435" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2435" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2435" s="24" t="s">
         <v>5305</v>
       </c>
@@ -47965,7 +48007,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2467" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2467" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2467" s="24" t="s">
         <v>5369</v>
       </c>
@@ -47987,7 +48029,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2469" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2469" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2469" s="24" t="s">
         <v>5373</v>
       </c>
@@ -48053,7 +48095,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2475" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2475" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2475" s="24" t="s">
         <v>5385</v>
       </c>
@@ -48317,7 +48359,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2499" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2499" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2499" s="24" t="s">
         <v>5433</v>
       </c>
@@ -48845,7 +48887,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="2547" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2547" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2547" s="24" t="s">
         <v>5529</v>
       </c>
@@ -50176,7 +50218,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2668" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2668" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2668" s="24" t="s">
         <v>5767</v>
       </c>
@@ -50440,7 +50482,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="2692" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2692" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2692" s="24" t="s">
         <v>5814</v>
       </c>
@@ -50682,7 +50724,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="2714" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2714" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2714" s="24" t="s">
         <v>5858</v>
       </c>
@@ -51778,8 +51820,10 @@
       <c r="C2813" s="24" t="s">
         <v>6056</v>
       </c>
+      <c r="D2813" s="26"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D2813" xr:uid="{8488A96F-5C62-438A-8324-DE4167F660F2}"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" tooltip=" blackarch-webapp " display="https://www.blackarch.org/webapp.html" xr:uid="{AC94DBBE-A51E-4ADB-8987-F29DE4760623}"/>
     <hyperlink ref="D3" r:id="rId2" tooltip=" blackarch-scanner " display="https://www.blackarch.org/scanner.html" xr:uid="{8A81AF13-126A-4C2E-9D6B-7E17DC8A762B}"/>
@@ -54594,5 +54638,6 @@
     <hyperlink ref="D2812" r:id="rId2811" tooltip=" blackarch-wireless " display="https://www.blackarch.org/wireless.html" xr:uid="{444FAEAF-5FE6-4A5B-809C-C0E9B613A63A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2812"/>
 </worksheet>
 </file>
--- a/Weapons4Pentesters.xlsx
+++ b/Weapons4Pentesters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="440"/>
   </bookViews>
   <sheets>
     <sheet name="Weaponization-MyYourTools" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BlackArch  Tools (2000 tools)'!$B$1:$F$2813</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weaponization-MyYourTools'!$A$4:$B$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weaponization-MyYourTools'!$A$4:$B$246</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8933" uniqueCount="6082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9002" uniqueCount="6141">
   <si>
     <t>anonymos</t>
   </si>
@@ -18309,6 +18309,183 @@
   </si>
   <si>
     <t>Winpayloads</t>
+  </si>
+  <si>
+    <t>Dorking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python Tool that gives you the ability to run Advanced Google Queries (Known as Google Dorks - Google Dorking) </t>
+  </si>
+  <si>
+    <t>https://www.runcmd.team/hacker-tools/</t>
+  </si>
+  <si>
+    <t>offensive-azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection of offensive tools targeting Microsoft Azure </t>
+  </si>
+  <si>
+    <t>Pretender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your MitM sidekick for relaying attacks featuring DHCPv6 DNS takeover as well as mDNS, LLMNR and NetBIOS-NS spoofing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DDoS-Layer7-bheh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDoS Tool by Black Hat Ethical Hacking </t>
+  </si>
+  <si>
+    <t>Mobile-Security-Framework-MobSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Security Framework (MobSF) is an automated, all-in-one mobile application (Android/iOS/Windows) pen-testing, malware analysis and security assessment framework capable of performing static and dynamic analysis. </t>
+  </si>
+  <si>
+    <t>domain_analyzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyze the security of any domain by finding all the information possible. Made in python. </t>
+  </si>
+  <si>
+    <t>Dorks-collections-list</t>
+  </si>
+  <si>
+    <t>List of Github repositories and articles with list of dorks for different search engines</t>
+  </si>
+  <si>
+    <t>PSRecon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSRecon gathers data from a remote Windows host using PowerShell (v2 or later), organizes the data into folders, hashes all extracted data, hashes PowerShell and various system properties, and sends the data off to the security team. The data can be pushed to a share, sent over email, or retained locally. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scapy: the Python-based interactive packet manipulation program &amp; library. Supports Python 2 &amp; Python 3. </t>
+  </si>
+  <si>
+    <t>Search Google and download specific file types</t>
+  </si>
+  <si>
+    <t>stratus-red-team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granular, Actionable Adversary Emulation for the Cloud </t>
+  </si>
+  <si>
+    <t>RFID</t>
+  </si>
+  <si>
+    <t>proxmark3 is a powerful general purpose RFID tool</t>
+  </si>
+  <si>
+    <t>malicious-pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate a bunch of malicious pdf files with phone-home functionality. Can be used with Burp Collaborator or Interact.sh </t>
+  </si>
+  <si>
+    <t>LFITester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFITester is a Python3 program that automates the detection and exploitation of Local File Inclusion (LFI) vulnerabilities on a server. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection(-BIGGEST-) of malware, ransomware, RATs, botnets, stealers, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malware-collection</t>
+  </si>
+  <si>
+    <t>Another meterpreter injection technique using C# that attempts to bypass WD</t>
+  </si>
+  <si>
+    <t>ZombieThread</t>
+  </si>
+  <si>
+    <t>hoaxshell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An unconventional Windows reverse shell, currently undetected by Microsoft Defender and various other AV solutions, solely based on http(s) traffic. </t>
+  </si>
+  <si>
+    <t>bypass-url-parser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAC bypass for x64 Windows 7 - 11 </t>
+  </si>
+  <si>
+    <t>iscsicpl_bypassUAC</t>
+  </si>
+  <si>
+    <t>pamspy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credentials Dumper for Linux using eBPF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pagodo (Passive Google Dork) - Automate Google Hacking Database scraping and searching </t>
+  </si>
+  <si>
+    <t>A python script to automatically coerce a Windows server to authenticate on an arbitrary machine through 9 methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coercer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Bypass Anti-virus Software Lateral Movement Command Execution Tool </t>
+  </si>
+  <si>
+    <t>WMIHACKER</t>
+  </si>
+  <si>
+    <t>Embedded</t>
+  </si>
+  <si>
+    <t>BinWalk</t>
+  </si>
+  <si>
+    <t>Firmware-mod-kit</t>
+  </si>
+  <si>
+    <t>Qemu</t>
+  </si>
+  <si>
+    <t>minicom</t>
+  </si>
+  <si>
+    <t>Openocd</t>
+  </si>
+  <si>
+    <t>Flashrom</t>
+  </si>
+  <si>
+    <t>KillerBee</t>
+  </si>
+  <si>
+    <t>Attify OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attify OS - Distro for pentesting IoT devices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE 802.15.4/ZigBee Security Research Toolkit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send patches to review.coreboot.org: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">automatically exported from code.google.com/p/firmware-mod-kit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmware Analysis Tool </t>
+  </si>
+  <si>
+    <t>Hardware-hacking-Roadmap</t>
+  </si>
+  <si>
+    <t>RedAlert, or N13V</t>
   </si>
 </sst>
 </file>
@@ -18509,7 +18686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18564,14 +18741,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -18855,28 +19037,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A211" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="153.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="114.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="197.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6057</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18944,7 +19126,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="10" t="s">
         <v>6078</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -18953,2148 +19135,2477 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>410</v>
+        <v>6093</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>411</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>326</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>328</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="20" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+    <row r="22" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="28" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="29" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+    <row r="30" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="37" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+    <row r="38" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+    <row r="39" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>6110</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>6070</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6071</v>
-      </c>
-    </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>359</v>
+      <c r="A42" s="15" t="s">
+        <v>6117</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>360</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="A43" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="A44" s="30" t="s">
+        <v>6140</v>
+      </c>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>341</v>
+        <v>6112</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>342</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
-        <v>6068</v>
+      <c r="A46" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>6069</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>19</v>
+      <c r="A47" s="12" t="s">
+        <v>6105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>245</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>100</v>
+        <v>6070</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>252</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>237</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>39</v>
+      <c r="A50" s="14" t="s">
+        <v>316</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>40</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>324</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>156</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>6068</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6069</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>315</v>
+      <c r="A54" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>157</v>
+      <c r="A55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>161</v>
+    <row r="60" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>162</v>
+      <c r="A61" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>163</v>
+      <c r="A62" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>164</v>
+        <v>51</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>165</v>
+      <c r="A64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
-        <v>6064</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>6065</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
-        <v>6066</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>6067</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>110</v>
+        <v>6064</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>139</v>
+        <v>6065</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
+        <v>6066</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
+        <v>6091</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+    <row r="84" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+    <row r="85" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B85" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
+    <row r="86" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+    <row r="98" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+    <row r="99" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B99" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
+    <row r="100" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="s">
+        <v>6087</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
+    <row r="103" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+    <row r="104" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B104" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="15" t="s">
+    <row r="105" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>373</v>
+        <v>54</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>374</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>375</v>
+        <v>55</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>376</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>365</v>
+        <v>56</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>366</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>369</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>370</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>367</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>186</v>
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="16" t="s">
-        <v>97</v>
+      <c r="A119" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>200</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>193</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>195</v>
+        <v>369</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>197</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="12" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+    <row r="135" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+    <row r="136" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B136" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="19" t="s">
+    <row r="137" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="19" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B138" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="19" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="19" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="19" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="19" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="19" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="12" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="12" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="12" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="12" t="s">
+        <v>6115</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="19" t="s">
+    <row r="159" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
+    <row r="160" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B160" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="12" t="s">
+    <row r="161" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>72</v>
+        <v>364</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B164" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B166" s="9" t="s">
+    <row r="166" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="27" t="s">
-        <v>6072</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>6073</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="12" t="s">
-        <v>101</v>
+    <row r="169" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>226</v>
+        <v>358</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>384</v>
+        <v>70</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>385</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>386</v>
+        <v>71</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>412</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>387</v>
+        <v>72</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>413</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="12" t="s">
+        <v>6072</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>95</v>
+        <v>6107</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="B182" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B185" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
-        <v>379</v>
+        <v>124</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>383</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>240</v>
+        <v>377</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="17" t="s">
-        <v>6081</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>6080</v>
+        <v>305</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="17" t="s">
-        <v>318</v>
+      <c r="A197" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>319</v>
+        <v>246</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
-        <v>32</v>
+        <v>379</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>260</v>
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>2</v>
+        <v>244</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="12" t="s">
+      <c r="A207" s="17" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="17" t="s">
+        <v>6113</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="12" t="s">
+        <v>6124</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A224" s="12" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="12" t="s">
-        <v>302</v>
+        <v>6118</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>303</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="12" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A230" s="12" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B231" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B232" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A233" s="12" t="s">
-        <v>293</v>
+        <v>7</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="17" t="s">
-        <v>320</v>
+      <c r="A234" s="12" t="s">
+        <v>6122</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>321</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="12" t="s">
-        <v>6074</v>
+        <v>8</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>6075</v>
+        <v>278</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="17" t="s">
-        <v>333</v>
+      <c r="A236" s="12" t="s">
+        <v>6097</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="17" t="s">
-        <v>390</v>
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="12" t="s">
-        <v>6076</v>
+        <v>310</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>6077</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="12" t="s">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="12" t="s">
-        <v>408</v>
+        <v>86</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="17" t="s">
-        <v>414</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>415</v>
+        <v>284</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>6101</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>6085</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="12" t="s">
+        <v>6074</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="12" t="s">
+        <v>6076</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>6077</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="28" t="s">
+        <v>4597</v>
+      </c>
+      <c r="B261" s="29" t="s">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="17" t="s">
+        <v>6089</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B265" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="12" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B266" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="12" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B267" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="12" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B268" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="12" t="s">
+    <row r="269" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B269" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="9" t="s">
+    <row r="270" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
         <v>6061</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B270" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="12" t="s">
+    <row r="271" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>6062</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B271" s="2" t="s">
         <v>6063</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="17"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="17"/>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="17"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="17"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="17"/>
+    <row r="272" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="9" t="s">
+        <v>6082</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>6095</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="9" t="s">
+        <v>6103</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="17" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="9" t="s">
+        <v>6125</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="26" t="s">
+        <v>6126</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>6138</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="26" t="s">
+        <v>6127</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>6137</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="26" t="s">
+        <v>6128</v>
+      </c>
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="26" t="s">
+        <v>6129</v>
+      </c>
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="26" t="s">
+        <v>6130</v>
+      </c>
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>6131</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>6132</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>6135</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>6133</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>6139</v>
+      </c>
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="29"/>
+      <c r="B289" s="29"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="29"/>
+      <c r="B290" s="29"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="17"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="17" t="s">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="17"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="17"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:B230"/>
+  <autoFilter ref="A4:B246"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A183" r:id="rId1"/>
-    <hyperlink ref="A217" r:id="rId2"/>
-    <hyperlink ref="A220" r:id="rId3"/>
-    <hyperlink ref="A221" r:id="rId4"/>
-    <hyperlink ref="A222" r:id="rId5" display="https://github.com/UKHO/ADM-PSmodule"/>
-    <hyperlink ref="A224" r:id="rId6"/>
-    <hyperlink ref="A226" r:id="rId7"/>
-    <hyperlink ref="A228" r:id="rId8"/>
-    <hyperlink ref="A229" r:id="rId9"/>
-    <hyperlink ref="A230" r:id="rId10"/>
-    <hyperlink ref="A219" r:id="rId11"/>
-    <hyperlink ref="A216" r:id="rId12"/>
+    <hyperlink ref="A194" r:id="rId1"/>
+    <hyperlink ref="A231" r:id="rId2"/>
+    <hyperlink ref="A235" r:id="rId3"/>
+    <hyperlink ref="A237" r:id="rId4"/>
+    <hyperlink ref="A238" r:id="rId5" display="https://github.com/UKHO/ADM-PSmodule"/>
+    <hyperlink ref="A240" r:id="rId6"/>
+    <hyperlink ref="A242" r:id="rId7"/>
+    <hyperlink ref="A244" r:id="rId8"/>
+    <hyperlink ref="A245" r:id="rId9"/>
+    <hyperlink ref="A246" r:id="rId10"/>
+    <hyperlink ref="A233" r:id="rId11"/>
+    <hyperlink ref="A230" r:id="rId12"/>
     <hyperlink ref="A5" r:id="rId13"/>
     <hyperlink ref="A7" r:id="rId14"/>
     <hyperlink ref="A8" r:id="rId15"/>
     <hyperlink ref="A9" r:id="rId16"/>
-    <hyperlink ref="A214" r:id="rId17"/>
-    <hyperlink ref="A213" r:id="rId18"/>
-    <hyperlink ref="A212" r:id="rId19"/>
-    <hyperlink ref="A211" r:id="rId20"/>
-    <hyperlink ref="A209" r:id="rId21"/>
-    <hyperlink ref="A208" r:id="rId22"/>
-    <hyperlink ref="A207" r:id="rId23"/>
-    <hyperlink ref="A204" r:id="rId24"/>
-    <hyperlink ref="A205" r:id="rId25"/>
-    <hyperlink ref="A203" r:id="rId26"/>
-    <hyperlink ref="A202" r:id="rId27"/>
-    <hyperlink ref="A201" r:id="rId28"/>
-    <hyperlink ref="A198" r:id="rId29"/>
-    <hyperlink ref="A199" r:id="rId30"/>
-    <hyperlink ref="A194" r:id="rId31"/>
-    <hyperlink ref="A192" r:id="rId32"/>
-    <hyperlink ref="A191" r:id="rId33"/>
-    <hyperlink ref="A187" r:id="rId34"/>
-    <hyperlink ref="A186" r:id="rId35"/>
-    <hyperlink ref="A179" r:id="rId36"/>
-    <hyperlink ref="A180" r:id="rId37"/>
-    <hyperlink ref="A181" r:id="rId38"/>
-    <hyperlink ref="A177" r:id="rId39"/>
-    <hyperlink ref="A176" r:id="rId40"/>
-    <hyperlink ref="A175" r:id="rId41"/>
-    <hyperlink ref="A232" r:id="rId42"/>
-    <hyperlink ref="A173" r:id="rId43"/>
-    <hyperlink ref="A169" r:id="rId44"/>
-    <hyperlink ref="A165" r:id="rId45"/>
-    <hyperlink ref="A163" r:id="rId46"/>
-    <hyperlink ref="A162" r:id="rId47"/>
-    <hyperlink ref="A161" r:id="rId48"/>
-    <hyperlink ref="A160" r:id="rId49"/>
+    <hyperlink ref="A228" r:id="rId17"/>
+    <hyperlink ref="A227" r:id="rId18"/>
+    <hyperlink ref="A226" r:id="rId19"/>
+    <hyperlink ref="A224" r:id="rId20"/>
+    <hyperlink ref="A222" r:id="rId21"/>
+    <hyperlink ref="A221" r:id="rId22"/>
+    <hyperlink ref="A220" r:id="rId23"/>
+    <hyperlink ref="A217" r:id="rId24"/>
+    <hyperlink ref="A218" r:id="rId25"/>
+    <hyperlink ref="A216" r:id="rId26"/>
+    <hyperlink ref="A214" r:id="rId27"/>
+    <hyperlink ref="A213" r:id="rId28"/>
+    <hyperlink ref="A210" r:id="rId29"/>
+    <hyperlink ref="A211" r:id="rId30"/>
+    <hyperlink ref="A205" r:id="rId31"/>
+    <hyperlink ref="A203" r:id="rId32"/>
+    <hyperlink ref="A202" r:id="rId33"/>
+    <hyperlink ref="A198" r:id="rId34"/>
+    <hyperlink ref="A197" r:id="rId35"/>
+    <hyperlink ref="A190" r:id="rId36"/>
+    <hyperlink ref="A191" r:id="rId37"/>
+    <hyperlink ref="A192" r:id="rId38"/>
+    <hyperlink ref="A188" r:id="rId39"/>
+    <hyperlink ref="A187" r:id="rId40"/>
+    <hyperlink ref="A186" r:id="rId41"/>
+    <hyperlink ref="A248" r:id="rId42"/>
+    <hyperlink ref="A184" r:id="rId43"/>
+    <hyperlink ref="A179" r:id="rId44"/>
+    <hyperlink ref="A175" r:id="rId45"/>
+    <hyperlink ref="A173" r:id="rId46"/>
+    <hyperlink ref="A172" r:id="rId47"/>
+    <hyperlink ref="A171" r:id="rId48"/>
+    <hyperlink ref="A170" r:id="rId49"/>
     <hyperlink ref="A11" r:id="rId50"/>
-    <hyperlink ref="A16" r:id="rId51"/>
-    <hyperlink ref="A18" r:id="rId52"/>
-    <hyperlink ref="A19" r:id="rId53"/>
-    <hyperlink ref="A21" r:id="rId54"/>
-    <hyperlink ref="A23" r:id="rId55"/>
-    <hyperlink ref="A24" r:id="rId56"/>
-    <hyperlink ref="A26" r:id="rId57"/>
-    <hyperlink ref="A27" r:id="rId58"/>
-    <hyperlink ref="A96" r:id="rId59"/>
-    <hyperlink ref="A98" r:id="rId60"/>
-    <hyperlink ref="A100" r:id="rId61"/>
-    <hyperlink ref="A101" r:id="rId62"/>
-    <hyperlink ref="A102" r:id="rId63"/>
-    <hyperlink ref="A90" r:id="rId64"/>
-    <hyperlink ref="A89" r:id="rId65"/>
-    <hyperlink ref="A86" r:id="rId66"/>
-    <hyperlink ref="A151" r:id="rId67"/>
-    <hyperlink ref="A153" r:id="rId68"/>
-    <hyperlink ref="A154" r:id="rId69"/>
-    <hyperlink ref="A157" r:id="rId70"/>
-    <hyperlink ref="A29" r:id="rId71"/>
-    <hyperlink ref="A34" r:id="rId72"/>
-    <hyperlink ref="A35" r:id="rId73"/>
-    <hyperlink ref="A36" r:id="rId74"/>
-    <hyperlink ref="A148" r:id="rId75"/>
-    <hyperlink ref="A149" r:id="rId76"/>
-    <hyperlink ref="A147" r:id="rId77"/>
-    <hyperlink ref="A146" r:id="rId78"/>
-    <hyperlink ref="A143" r:id="rId79"/>
-    <hyperlink ref="A144" r:id="rId80"/>
-    <hyperlink ref="A38" r:id="rId81"/>
-    <hyperlink ref="A40" r:id="rId82"/>
-    <hyperlink ref="A47" r:id="rId83"/>
-    <hyperlink ref="A48" r:id="rId84"/>
-    <hyperlink ref="A50" r:id="rId85"/>
-    <hyperlink ref="A49" r:id="rId86"/>
-    <hyperlink ref="A51" r:id="rId87"/>
-    <hyperlink ref="A137" r:id="rId88"/>
-    <hyperlink ref="A139" r:id="rId89"/>
-    <hyperlink ref="A138" r:id="rId90"/>
-    <hyperlink ref="A140" r:id="rId91"/>
-    <hyperlink ref="A141" r:id="rId92"/>
-    <hyperlink ref="A136" r:id="rId93"/>
-    <hyperlink ref="A135" r:id="rId94"/>
-    <hyperlink ref="A134" r:id="rId95"/>
-    <hyperlink ref="A129" r:id="rId96"/>
-    <hyperlink ref="A128" r:id="rId97"/>
-    <hyperlink ref="A59" r:id="rId98"/>
-    <hyperlink ref="A60" r:id="rId99"/>
-    <hyperlink ref="A61" r:id="rId100"/>
-    <hyperlink ref="A62" r:id="rId101"/>
-    <hyperlink ref="A63" r:id="rId102"/>
-    <hyperlink ref="A64" r:id="rId103"/>
-    <hyperlink ref="A66" r:id="rId104"/>
-    <hyperlink ref="A70" r:id="rId105"/>
-    <hyperlink ref="A73" r:id="rId106"/>
-    <hyperlink ref="A72" r:id="rId107"/>
-    <hyperlink ref="A74" r:id="rId108"/>
-    <hyperlink ref="A75" r:id="rId109"/>
-    <hyperlink ref="A76" r:id="rId110"/>
-    <hyperlink ref="A94" r:id="rId111"/>
-    <hyperlink ref="A93" r:id="rId112"/>
-    <hyperlink ref="A92" r:id="rId113"/>
-    <hyperlink ref="A103" r:id="rId114"/>
-    <hyperlink ref="A104" r:id="rId115"/>
-    <hyperlink ref="A105" r:id="rId116"/>
-    <hyperlink ref="A78" r:id="rId117"/>
-    <hyperlink ref="A85" r:id="rId118"/>
-    <hyperlink ref="A87" r:id="rId119"/>
-    <hyperlink ref="A88" r:id="rId120"/>
-    <hyperlink ref="A53" r:id="rId121"/>
-    <hyperlink ref="A55" r:id="rId122"/>
-    <hyperlink ref="A56" r:id="rId123"/>
-    <hyperlink ref="A57" r:id="rId124"/>
-    <hyperlink ref="A107" r:id="rId125"/>
-    <hyperlink ref="A115" r:id="rId126"/>
-    <hyperlink ref="A116" r:id="rId127"/>
-    <hyperlink ref="A118" r:id="rId128"/>
-    <hyperlink ref="A119" r:id="rId129"/>
-    <hyperlink ref="A120" r:id="rId130"/>
-    <hyperlink ref="A121" r:id="rId131"/>
-    <hyperlink ref="A122" r:id="rId132"/>
-    <hyperlink ref="A123" r:id="rId133"/>
-    <hyperlink ref="A124" r:id="rId134"/>
-    <hyperlink ref="A125" r:id="rId135"/>
-    <hyperlink ref="A126" r:id="rId136"/>
-    <hyperlink ref="A233" r:id="rId137"/>
-    <hyperlink ref="A39" r:id="rId138"/>
-    <hyperlink ref="A69" r:id="rId139"/>
-    <hyperlink ref="A108" r:id="rId140"/>
-    <hyperlink ref="A223" r:id="rId141"/>
-    <hyperlink ref="A227" r:id="rId142"/>
-    <hyperlink ref="A54" r:id="rId143"/>
-    <hyperlink ref="A43" r:id="rId144"/>
-    <hyperlink ref="A197" r:id="rId145"/>
-    <hyperlink ref="A234" r:id="rId146"/>
-    <hyperlink ref="A156" r:id="rId147"/>
-    <hyperlink ref="A44" r:id="rId148"/>
-    <hyperlink ref="A17" r:id="rId149"/>
-    <hyperlink ref="A167" r:id="rId150"/>
-    <hyperlink ref="A14" r:id="rId151" display="SubEvil:"/>
-    <hyperlink ref="A236" r:id="rId152"/>
-    <hyperlink ref="A84" r:id="rId153"/>
+    <hyperlink ref="A17" r:id="rId51"/>
+    <hyperlink ref="A19" r:id="rId52"/>
+    <hyperlink ref="A20" r:id="rId53"/>
+    <hyperlink ref="A22" r:id="rId54"/>
+    <hyperlink ref="A24" r:id="rId55"/>
+    <hyperlink ref="A25" r:id="rId56"/>
+    <hyperlink ref="A27" r:id="rId57"/>
+    <hyperlink ref="A28" r:id="rId58"/>
+    <hyperlink ref="A105" r:id="rId59"/>
+    <hyperlink ref="A107" r:id="rId60"/>
+    <hyperlink ref="A109" r:id="rId61"/>
+    <hyperlink ref="A110" r:id="rId62"/>
+    <hyperlink ref="A111" r:id="rId63"/>
+    <hyperlink ref="A98" r:id="rId64"/>
+    <hyperlink ref="A97" r:id="rId65"/>
+    <hyperlink ref="A94" r:id="rId66"/>
+    <hyperlink ref="A161" r:id="rId67"/>
+    <hyperlink ref="A163" r:id="rId68"/>
+    <hyperlink ref="A164" r:id="rId69"/>
+    <hyperlink ref="A167" r:id="rId70"/>
+    <hyperlink ref="A30" r:id="rId71"/>
+    <hyperlink ref="A35" r:id="rId72"/>
+    <hyperlink ref="A36" r:id="rId73"/>
+    <hyperlink ref="A37" r:id="rId74"/>
+    <hyperlink ref="A158" r:id="rId75"/>
+    <hyperlink ref="A159" r:id="rId76"/>
+    <hyperlink ref="A157" r:id="rId77"/>
+    <hyperlink ref="A155" r:id="rId78"/>
+    <hyperlink ref="A152" r:id="rId79"/>
+    <hyperlink ref="A153" r:id="rId80"/>
+    <hyperlink ref="A39" r:id="rId81"/>
+    <hyperlink ref="A46" r:id="rId82"/>
+    <hyperlink ref="A54" r:id="rId83"/>
+    <hyperlink ref="A55" r:id="rId84"/>
+    <hyperlink ref="A57" r:id="rId85"/>
+    <hyperlink ref="A56" r:id="rId86"/>
+    <hyperlink ref="A58" r:id="rId87"/>
+    <hyperlink ref="A146" r:id="rId88"/>
+    <hyperlink ref="A148" r:id="rId89"/>
+    <hyperlink ref="A147" r:id="rId90"/>
+    <hyperlink ref="A149" r:id="rId91"/>
+    <hyperlink ref="A150" r:id="rId92"/>
+    <hyperlink ref="A145" r:id="rId93"/>
+    <hyperlink ref="A144" r:id="rId94"/>
+    <hyperlink ref="A143" r:id="rId95"/>
+    <hyperlink ref="A138" r:id="rId96"/>
+    <hyperlink ref="A137" r:id="rId97"/>
+    <hyperlink ref="A66" r:id="rId98"/>
+    <hyperlink ref="A67" r:id="rId99"/>
+    <hyperlink ref="A68" r:id="rId100"/>
+    <hyperlink ref="A69" r:id="rId101"/>
+    <hyperlink ref="A70" r:id="rId102"/>
+    <hyperlink ref="A71" r:id="rId103"/>
+    <hyperlink ref="A73" r:id="rId104"/>
+    <hyperlink ref="A78" r:id="rId105"/>
+    <hyperlink ref="A81" r:id="rId106"/>
+    <hyperlink ref="A80" r:id="rId107"/>
+    <hyperlink ref="A82" r:id="rId108"/>
+    <hyperlink ref="A83" r:id="rId109"/>
+    <hyperlink ref="A84" r:id="rId110"/>
+    <hyperlink ref="A103" r:id="rId111"/>
+    <hyperlink ref="A102" r:id="rId112"/>
+    <hyperlink ref="A100" r:id="rId113"/>
+    <hyperlink ref="A112" r:id="rId114"/>
+    <hyperlink ref="A113" r:id="rId115"/>
+    <hyperlink ref="A114" r:id="rId116"/>
+    <hyperlink ref="A86" r:id="rId117"/>
+    <hyperlink ref="A93" r:id="rId118"/>
+    <hyperlink ref="A95" r:id="rId119"/>
+    <hyperlink ref="A96" r:id="rId120"/>
+    <hyperlink ref="A60" r:id="rId121"/>
+    <hyperlink ref="A62" r:id="rId122"/>
+    <hyperlink ref="A63" r:id="rId123"/>
+    <hyperlink ref="A64" r:id="rId124"/>
+    <hyperlink ref="A116" r:id="rId125"/>
+    <hyperlink ref="A124" r:id="rId126"/>
+    <hyperlink ref="A125" r:id="rId127"/>
+    <hyperlink ref="A127" r:id="rId128"/>
+    <hyperlink ref="A128" r:id="rId129"/>
+    <hyperlink ref="A129" r:id="rId130"/>
+    <hyperlink ref="A130" r:id="rId131"/>
+    <hyperlink ref="A131" r:id="rId132"/>
+    <hyperlink ref="A132" r:id="rId133"/>
+    <hyperlink ref="A133" r:id="rId134"/>
+    <hyperlink ref="A134" r:id="rId135"/>
+    <hyperlink ref="A135" r:id="rId136"/>
+    <hyperlink ref="A249" r:id="rId137"/>
+    <hyperlink ref="A41" r:id="rId138"/>
+    <hyperlink ref="A77" r:id="rId139"/>
+    <hyperlink ref="A117" r:id="rId140"/>
+    <hyperlink ref="A239" r:id="rId141"/>
+    <hyperlink ref="A243" r:id="rId142"/>
+    <hyperlink ref="A61" r:id="rId143"/>
+    <hyperlink ref="A50" r:id="rId144"/>
+    <hyperlink ref="A209" r:id="rId145"/>
+    <hyperlink ref="A251" r:id="rId146"/>
+    <hyperlink ref="A166" r:id="rId147"/>
+    <hyperlink ref="A51" r:id="rId148"/>
+    <hyperlink ref="A18" r:id="rId149"/>
+    <hyperlink ref="A177" r:id="rId150"/>
+    <hyperlink ref="A15" r:id="rId151" display="SubEvil:"/>
+    <hyperlink ref="A254" r:id="rId152"/>
+    <hyperlink ref="A92" r:id="rId153"/>
     <hyperlink ref="A6" r:id="rId154"/>
-    <hyperlink ref="A184" r:id="rId155"/>
-    <hyperlink ref="A45" r:id="rId156"/>
-    <hyperlink ref="A132" r:id="rId157"/>
-    <hyperlink ref="A25" r:id="rId158" display="https://github.com/absolomb/WindowsEnum"/>
-    <hyperlink ref="A22" r:id="rId159"/>
-    <hyperlink ref="A71" r:id="rId160"/>
-    <hyperlink ref="A159" r:id="rId161"/>
-    <hyperlink ref="A42" r:id="rId162"/>
-    <hyperlink ref="A99" r:id="rId163"/>
-    <hyperlink ref="A152" r:id="rId164"/>
-    <hyperlink ref="A111" r:id="rId165"/>
-    <hyperlink ref="A113" r:id="rId166"/>
-    <hyperlink ref="A112" r:id="rId167"/>
-    <hyperlink ref="A80" r:id="rId168"/>
-    <hyperlink ref="A109" r:id="rId169"/>
-    <hyperlink ref="A110" r:id="rId170"/>
-    <hyperlink ref="A190" r:id="rId171"/>
-    <hyperlink ref="A189" r:id="rId172"/>
-    <hyperlink ref="A188" r:id="rId173"/>
-    <hyperlink ref="A172" r:id="rId174"/>
-    <hyperlink ref="A171" r:id="rId175"/>
-    <hyperlink ref="A170" r:id="rId176"/>
-    <hyperlink ref="A33" r:id="rId177"/>
-    <hyperlink ref="A237" r:id="rId178"/>
-    <hyperlink ref="A240" r:id="rId179"/>
-    <hyperlink ref="A30" r:id="rId180"/>
-    <hyperlink ref="A130" r:id="rId181"/>
-    <hyperlink ref="A131" r:id="rId182"/>
-    <hyperlink ref="A133" r:id="rId183"/>
-    <hyperlink ref="A31" r:id="rId184"/>
-    <hyperlink ref="A15" r:id="rId185"/>
-    <hyperlink ref="A242" r:id="rId186"/>
-    <hyperlink ref="A13" r:id="rId187"/>
-    <hyperlink ref="A244" r:id="rId188"/>
-    <hyperlink ref="A245" r:id="rId189"/>
-    <hyperlink ref="A246" r:id="rId190"/>
-    <hyperlink ref="A247" r:id="rId191"/>
-    <hyperlink ref="A248" r:id="rId192"/>
-    <hyperlink ref="A249" r:id="rId193"/>
-    <hyperlink ref="A83" r:id="rId194"/>
-    <hyperlink ref="A82" r:id="rId195"/>
-    <hyperlink ref="A81" r:id="rId196"/>
-    <hyperlink ref="A32" r:id="rId197"/>
-    <hyperlink ref="A251" r:id="rId198"/>
-    <hyperlink ref="A67" r:id="rId199" display="https://github.com/urbanadventurer/Android-PIN-Bruteforce"/>
-    <hyperlink ref="A68" r:id="rId200"/>
-    <hyperlink ref="A46" r:id="rId201"/>
-    <hyperlink ref="A41" r:id="rId202"/>
-    <hyperlink ref="A168" r:id="rId203"/>
-    <hyperlink ref="A235" r:id="rId204"/>
-    <hyperlink ref="A239" r:id="rId205"/>
+    <hyperlink ref="A195" r:id="rId155"/>
+    <hyperlink ref="A52" r:id="rId156"/>
+    <hyperlink ref="A141" r:id="rId157"/>
+    <hyperlink ref="A26" r:id="rId158" display="https://github.com/absolomb/WindowsEnum"/>
+    <hyperlink ref="A23" r:id="rId159"/>
+    <hyperlink ref="A79" r:id="rId160"/>
+    <hyperlink ref="A169" r:id="rId161"/>
+    <hyperlink ref="A49" r:id="rId162"/>
+    <hyperlink ref="A108" r:id="rId163"/>
+    <hyperlink ref="A162" r:id="rId164"/>
+    <hyperlink ref="A120" r:id="rId165"/>
+    <hyperlink ref="A122" r:id="rId166"/>
+    <hyperlink ref="A121" r:id="rId167"/>
+    <hyperlink ref="A88" r:id="rId168"/>
+    <hyperlink ref="A118" r:id="rId169"/>
+    <hyperlink ref="A119" r:id="rId170"/>
+    <hyperlink ref="A201" r:id="rId171"/>
+    <hyperlink ref="A200" r:id="rId172"/>
+    <hyperlink ref="A199" r:id="rId173"/>
+    <hyperlink ref="A183" r:id="rId174"/>
+    <hyperlink ref="A182" r:id="rId175"/>
+    <hyperlink ref="A181" r:id="rId176"/>
+    <hyperlink ref="A34" r:id="rId177"/>
+    <hyperlink ref="A255" r:id="rId178"/>
+    <hyperlink ref="A258" r:id="rId179"/>
+    <hyperlink ref="A31" r:id="rId180"/>
+    <hyperlink ref="A139" r:id="rId181"/>
+    <hyperlink ref="A140" r:id="rId182"/>
+    <hyperlink ref="A142" r:id="rId183"/>
+    <hyperlink ref="A32" r:id="rId184"/>
+    <hyperlink ref="A16" r:id="rId185"/>
+    <hyperlink ref="A260" r:id="rId186"/>
+    <hyperlink ref="A14" r:id="rId187"/>
+    <hyperlink ref="A263" r:id="rId188"/>
+    <hyperlink ref="A265" r:id="rId189"/>
+    <hyperlink ref="A266" r:id="rId190"/>
+    <hyperlink ref="A267" r:id="rId191"/>
+    <hyperlink ref="A268" r:id="rId192"/>
+    <hyperlink ref="A269" r:id="rId193"/>
+    <hyperlink ref="A91" r:id="rId194"/>
+    <hyperlink ref="A90" r:id="rId195"/>
+    <hyperlink ref="A89" r:id="rId196"/>
+    <hyperlink ref="A33" r:id="rId197"/>
+    <hyperlink ref="A271" r:id="rId198"/>
+    <hyperlink ref="A74" r:id="rId199" display="https://github.com/urbanadventurer/Android-PIN-Bruteforce"/>
+    <hyperlink ref="A75" r:id="rId200"/>
+    <hyperlink ref="A53" r:id="rId201"/>
+    <hyperlink ref="A48" r:id="rId202"/>
+    <hyperlink ref="A178" r:id="rId203"/>
+    <hyperlink ref="A253" r:id="rId204"/>
+    <hyperlink ref="A257" r:id="rId205"/>
     <hyperlink ref="A12" r:id="rId206"/>
-    <hyperlink ref="A196" r:id="rId207"/>
-    <hyperlink ref="A97" r:id="rId208"/>
+    <hyperlink ref="A207" r:id="rId207"/>
+    <hyperlink ref="A106" r:id="rId208"/>
+    <hyperlink ref="A273" r:id="rId209"/>
+    <hyperlink ref="A292" r:id="rId210"/>
+    <hyperlink ref="A252" r:id="rId211"/>
+    <hyperlink ref="A101" r:id="rId212"/>
+    <hyperlink ref="A264" r:id="rId213"/>
+    <hyperlink ref="A76" r:id="rId214"/>
+    <hyperlink ref="A13" r:id="rId215"/>
+    <hyperlink ref="A276" r:id="rId216" display="https://github.com/cipher387/Dorks-collections-list"/>
+    <hyperlink ref="A236" r:id="rId217"/>
+    <hyperlink ref="A261" r:id="rId218"/>
+    <hyperlink ref="A275" r:id="rId219"/>
+    <hyperlink ref="A250" r:id="rId220"/>
+    <hyperlink ref="A278" r:id="rId221"/>
+    <hyperlink ref="A47" r:id="rId222"/>
+    <hyperlink ref="A43" r:id="rId223"/>
+    <hyperlink ref="A180" r:id="rId224"/>
+    <hyperlink ref="A40" r:id="rId225"/>
+    <hyperlink ref="A45" r:id="rId226"/>
+    <hyperlink ref="A208" r:id="rId227"/>
+    <hyperlink ref="A156" r:id="rId228"/>
+    <hyperlink ref="A42" r:id="rId229"/>
+    <hyperlink ref="A225" r:id="rId230"/>
+    <hyperlink ref="A274" r:id="rId231"/>
+    <hyperlink ref="A234" r:id="rId232"/>
+    <hyperlink ref="A215" r:id="rId233"/>
+    <hyperlink ref="A287" r:id="rId234"/>
+    <hyperlink ref="A286" r:id="rId235"/>
+    <hyperlink ref="A285" r:id="rId236"/>
+    <hyperlink ref="A281" r:id="rId237"/>
+    <hyperlink ref="A280" r:id="rId238"/>
+    <hyperlink ref="A282" r:id="rId239"/>
+    <hyperlink ref="A283" r:id="rId240"/>
+    <hyperlink ref="A284" r:id="rId241"/>
+    <hyperlink ref="A288" r:id="rId242"/>
+    <hyperlink ref="A44" r:id="rId243"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId209"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId244"/>
 </worksheet>
 </file>
 
@@ -21102,7 +21613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E2813"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C693" sqref="C693"/>
     </sheetView>
   </sheetViews>

--- a/Weapons4Pentesters.xlsx
+++ b/Weapons4Pentesters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="440"/>
   </bookViews>
   <sheets>
     <sheet name="Weaponization-MyYourTools" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BlackArch  Tools (2000 tools)'!$B$1:$F$2813</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weaponization-MyYourTools'!$A$4:$B$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weaponization-MyYourTools'!$A$4:$B$317</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9160" uniqueCount="6289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9180" uniqueCount="6308">
   <si>
     <t>anonymos</t>
   </si>
@@ -18930,6 +18930,63 @@
   </si>
   <si>
     <t>Let’s you spy on SSH session like it is your tty.</t>
+  </si>
+  <si>
+    <t>archerysec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automate Your Application Security Orchestration And Correlation (ASOC) Using ArcherySec. </t>
+  </si>
+  <si>
+    <t>gotestwaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An open-source project in Golang to asess different API Security tools and WAF for detection logic and bypasses </t>
+  </si>
+  <si>
+    <t>smbeagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMBeagle - Fileshare auditing tool. </t>
+  </si>
+  <si>
+    <t>stegowiper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A powerful and flexible tool to apply active attacks for disrupting stegomalware </t>
+  </si>
+  <si>
+    <t>Vajra</t>
+  </si>
+  <si>
+    <t>Vajra is a UI-based tool with multiple techniques for attacking and enumerating in the target's Azure and AWS environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stratus-red-team</t>
+  </si>
+  <si>
+    <t>emba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMBA - The firmware security analyzer </t>
+  </si>
+  <si>
+    <t>kubescape</t>
+  </si>
+  <si>
+    <t>Kubescape is a K8s open-source tool providing a multi-cloud K8s single pane of glass, including risk analysis, security compliance, RBAC visualizer and image vulnerabilities scanning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recon.cloud-cli</t>
+  </si>
+  <si>
+    <t>A bash script for scanning AWS public cloud footprint and getting suddomains, service name, cname and region from recon.cloud</t>
+  </si>
+  <si>
+    <t>recon.cloud</t>
+  </si>
+  <si>
+    <t>Fully scan your cloud environment [Check for malware, vulnerabilities, misconfigurations and more with Lightspin's full platform]</t>
   </si>
 </sst>
 </file>
@@ -19130,7 +19187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19197,9 +19254,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -19207,6 +19261,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -19488,10 +19548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B374"/>
+  <dimension ref="A1:B384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="B313" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -19502,14 +19562,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>6053</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -19529,7 +19589,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>6169</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -19537,7 +19597,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>6260</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -19545,7 +19605,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>6262</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -19553,7 +19613,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>6170</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -19561,7 +19621,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>6172</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -19569,7 +19629,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>6174</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -19641,7 +19701,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>6266</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -20365,7 +20425,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="34" t="s">
+      <c r="A111" s="33" t="s">
         <v>6250</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -20717,1780 +20777,1860 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="35" t="s">
+      <c r="A155" s="34" t="s">
+        <v>6293</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>6294</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="34" t="s">
         <v>2698</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>2699</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>194</v>
+        <v>44</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>196</v>
+        <v>45</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="12" t="s">
+    <row r="163" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
+    <row r="164" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B164" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="19" t="s">
+    <row r="165" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="19" t="s">
-        <v>394</v>
+        <v>48</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>393</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="19" t="s">
-        <v>396</v>
+      <c r="A167" s="36" t="s">
+        <v>6289</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>395</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="12" t="s">
+    <row r="179" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="9" t="s">
+    <row r="180" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B180" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="12" t="s">
+    <row r="181" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="26" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="26" t="s">
         <v>6150</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>2903</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
+    <row r="183" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="s">
+    <row r="184" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B184" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="12" t="s">
+    <row r="185" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="12" t="s">
-        <v>6110</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>6110</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
+        <v>6110</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="19" t="s">
+    <row r="189" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="9" t="s">
+    <row r="190" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B190" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="12" t="s">
+    <row r="191" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="26" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="26" t="s">
         <v>6264</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>6265</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="12" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B193" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="12" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
+    <row r="195" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="9" t="s">
+    <row r="196" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B196" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="12" t="s">
+    <row r="197" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="12" t="s">
+    <row r="198" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="9" t="s">
+    <row r="199" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B199" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="20" t="s">
+    <row r="200" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B203" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="12" t="s">
+    <row r="204" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B204" s="2" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="B205" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="12" t="s">
-        <v>6068</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>6069</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
-        <v>6102</v>
+        <v>6068</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>6103</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
-        <v>382</v>
+        <v>100</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>383</v>
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
-        <v>384</v>
+        <v>6102</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>408</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="12" t="s">
+    <row r="215" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="9" t="s">
+    <row r="216" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B216" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="12" t="s">
+    <row r="217" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="12" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
+    <row r="219" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="9" t="s">
+    <row r="220" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B220" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="12" t="s">
+    <row r="221" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B221" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="12" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="12" t="s">
+    <row r="223" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B223" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="9" t="s">
+    <row r="224" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B224" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="12" t="s">
+    <row r="225" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="26" t="s">
-        <v>6285</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>6286</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="12" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="12" t="s">
-        <v>14</v>
+      <c r="A227" s="26" t="s">
+        <v>6285</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>245</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="12" t="s">
-        <v>378</v>
+      <c r="A229" s="26" t="s">
+        <v>6295</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>379</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="12" t="s">
-        <v>376</v>
+        <v>14</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>380</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="12" t="s">
-        <v>377</v>
+        <v>15</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>381</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B235" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="12" t="s">
+    <row r="236" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="9" t="s">
+    <row r="237" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B237" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="12" t="s">
+    <row r="238" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="9" t="s">
+    <row r="239" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B239" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="17" t="s">
+    <row r="240" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="17" t="s">
         <v>6077</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>6076</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="32" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="31" t="s">
         <v>6248</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>6249</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="32" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="31" t="s">
         <v>6256</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>6257</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="32" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="31" t="s">
         <v>6258</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>6259</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="32" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="31" t="s">
         <v>6244</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>6245</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="32" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="31" t="s">
         <v>6235</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>6236</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="17" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="17" t="s">
         <v>6108</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>6109</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="17" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="12" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B248" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="12" t="s">
+    <row r="249" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B249" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="9" t="s">
+    <row r="250" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B250" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="12" t="s">
+    <row r="251" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B251" s="2" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="26" t="s">
-        <v>6287</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>6288</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="12" t="s">
-        <v>6119</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>6118</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="26" t="s">
+        <v>6287</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>6288</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="12" t="s">
+        <v>6119</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B255" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="12" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B256" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="12" t="s">
+    <row r="257" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B257" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="9" t="s">
+    <row r="258" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B258" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="12" t="s">
+    <row r="259" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B259" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" s="12" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="12" t="s">
+    <row r="261" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B261" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="9" t="s">
+    <row r="262" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B262" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="12" t="s">
+    <row r="263" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B263" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" s="26" t="s">
-        <v>6186</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>6187</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="26" t="s">
-        <v>6184</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>6185</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" s="26" t="s">
-        <v>6177</v>
-      </c>
-      <c r="B263" s="2"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="26" t="s">
-        <v>6178</v>
+        <v>6186</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>6181</v>
+        <v>6187</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="26" t="s">
-        <v>6179</v>
+        <v>6184</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>6180</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="26" t="s">
-        <v>6182</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>6183</v>
-      </c>
+        <v>6177</v>
+      </c>
+      <c r="B266" s="2"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="26" t="s">
-        <v>6188</v>
+        <v>6178</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1578</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="26" t="s">
+        <v>6179</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="26" t="s">
+        <v>6182</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="26" t="s">
+        <v>6188</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="26" t="s">
         <v>6153</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B271" s="2" t="s">
         <v>6154</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="12" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="12" t="s">
         <v>6113</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B272" s="2" t="s">
         <v>6114</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="12" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B273" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" s="12" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B274" s="2" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B273" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>6253</v>
+        <v>0</v>
       </c>
       <c r="B276" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="26" t="s">
+      <c r="A277" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="9" t="s">
+        <v>6253</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="26" t="s">
         <v>6220</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B280" s="2" t="s">
         <v>6221</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="26" t="s">
-        <v>6269</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>6268</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" s="26" t="s">
-        <v>6222</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>6223</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" s="26" t="s">
-        <v>6251</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>6252</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="26" t="s">
-        <v>6270</v>
+        <v>6269</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>6271</v>
+        <v>6268</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="26" t="s">
-        <v>6272</v>
+        <v>6222</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>6273</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="26" t="s">
-        <v>6274</v>
+        <v>6251</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>6275</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="26" t="s">
-        <v>6276</v>
+        <v>6270</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>6277</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="26" t="s">
-        <v>6279</v>
+        <v>6272</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>6278</v>
+        <v>6273</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="26" t="s">
-        <v>6280</v>
+        <v>6274</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>6281</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" s="12" t="s">
-        <v>6066</v>
+      <c r="A287" s="26" t="s">
+        <v>6276</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>6067</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="26" t="s">
-        <v>6254</v>
+        <v>6279</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>6255</v>
+        <v>6278</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="26" t="s">
-        <v>310</v>
+        <v>6280</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>311</v>
+        <v>6281</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="26" t="s">
-        <v>6224</v>
+      <c r="A290" s="12" t="s">
+        <v>6066</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>6225</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="26" t="s">
-        <v>6226</v>
+        <v>6254</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>6227</v>
+        <v>6255</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="26" t="s">
-        <v>6228</v>
+        <v>310</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>6229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="26" t="s">
-        <v>6230</v>
+        <v>6224</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>6231</v>
+        <v>6225</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="26" t="s">
-        <v>4136</v>
+        <v>6226</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>6232</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="32" t="s">
-        <v>6233</v>
+      <c r="A295" s="26" t="s">
+        <v>6228</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>6234</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="26" t="s">
-        <v>6237</v>
+        <v>6230</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>6238</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="26" t="s">
-        <v>6239</v>
+        <v>4136</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>6240</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="26" t="s">
-        <v>6242</v>
+      <c r="A298" s="31" t="s">
+        <v>6233</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>6243</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="26" t="s">
+        <v>6237</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="26" t="s">
+        <v>6239</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="26" t="s">
+        <v>6242</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>6243</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="26" t="s">
         <v>4112</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B302" s="2" t="s">
         <v>6241</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="12" t="s">
-        <v>6117</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>6116</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="12" t="s">
-        <v>6092</v>
+        <v>7</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>6093</v>
+        <v>275</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="12" t="s">
-        <v>9</v>
+        <v>6117</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>277</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="12" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="12" t="s">
-        <v>308</v>
+        <v>6092</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>309</v>
+        <v>6093</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="12" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="12" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="12" t="s">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="31" t="s">
-        <v>6148</v>
-      </c>
-      <c r="B310" s="28" t="s">
-        <v>6149</v>
+      <c r="A310" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>311</v>
+      <c r="A311" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="30" t="s">
+        <v>6148</v>
+      </c>
+      <c r="B313" s="28" t="s">
+        <v>6149</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B315" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="12" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B316" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="12" t="s">
+    <row r="317" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B317" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="9" t="s">
+    <row r="318" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B315" s="9" t="s">
+      <c r="B318" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="12" t="s">
+    <row r="319" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B319" s="2" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="26" t="s">
-        <v>6151</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="26" t="s">
-        <v>6246</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>6247</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="26" t="s">
+        <v>6306</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>6307</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="26" t="s">
+        <v>6304</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>6305</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="26" t="s">
+        <v>6299</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>6097</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="26" t="s">
+        <v>6302</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="26" t="s">
+        <v>6297</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="26" t="s">
+        <v>6151</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="26" t="s">
+        <v>6246</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>6247</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="12" t="s">
         <v>6096</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B328" s="2" t="s">
         <v>6097</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="12" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B329" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="12" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="12" t="s">
         <v>6080</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B330" s="2" t="s">
         <v>6081</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="12" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="12" t="s">
         <v>6070</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B331" s="2" t="s">
         <v>6071</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="17" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B332" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="17" t="s">
+    <row r="333" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B333" s="2" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="B326" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="31" t="s">
-        <v>6216</v>
-      </c>
-      <c r="B328" s="28" t="s">
-        <v>6217</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="31" t="s">
-        <v>6218</v>
-      </c>
-      <c r="B329" s="28" t="s">
-        <v>6219</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" s="31" t="s">
-        <v>6215</v>
-      </c>
-      <c r="B330" s="28" t="s">
-        <v>5178</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" s="31" t="s">
-        <v>6213</v>
-      </c>
-      <c r="B331" s="28" t="s">
-        <v>6214</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="31" t="s">
-        <v>6211</v>
-      </c>
-      <c r="B332" s="28" t="s">
-        <v>6212</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="27" t="s">
-        <v>4593</v>
-      </c>
-      <c r="B333" s="28" t="s">
-        <v>6094</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B334" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="17" t="s">
+      <c r="A335" s="30" t="s">
+        <v>6291</v>
+      </c>
+      <c r="B335" s="28" t="s">
+        <v>6292</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="30" t="s">
+        <v>6216</v>
+      </c>
+      <c r="B337" s="28" t="s">
+        <v>6217</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="30" t="s">
+        <v>6218</v>
+      </c>
+      <c r="B338" s="28" t="s">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="30" t="s">
+        <v>6215</v>
+      </c>
+      <c r="B339" s="28" t="s">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="30" t="s">
+        <v>6213</v>
+      </c>
+      <c r="B340" s="28" t="s">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="30" t="s">
+        <v>6211</v>
+      </c>
+      <c r="B341" s="28" t="s">
+        <v>6212</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="27" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B342" s="28" t="s">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B344" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="17" t="s">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="17" t="s">
         <v>6084</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B345" s="2" t="s">
         <v>6085</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="12" t="s">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B346" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="12" t="s">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B347" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="12" t="s">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B348" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" s="12" t="s">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B349" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="12" t="s">
+    <row r="350" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B350" s="2" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="9" t="s">
-        <v>6057</v>
-      </c>
-      <c r="B342" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="26" t="s">
-        <v>6058</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>6059</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="9" t="s">
-        <v>6078</v>
-      </c>
-      <c r="B344" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="26" t="s">
-        <v>2843</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>6079</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" s="26" t="s">
-        <v>3750</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>6115</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" s="26" t="s">
-        <v>3235</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>6095</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="26" t="s">
-        <v>6090</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>6091</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="9" t="s">
-        <v>6098</v>
-      </c>
-      <c r="B349" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="17" t="s">
-        <v>4073</v>
-      </c>
-      <c r="B350" s="4" t="s">
-        <v>6099</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
-        <v>6120</v>
+        <v>6057</v>
       </c>
       <c r="B351" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="26" t="s">
-        <v>6121</v>
+        <v>6058</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>6133</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353" s="26" t="s">
-        <v>6122</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>6132</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6059</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="9" t="s">
+        <v>6078</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A354" s="26" t="s">
-        <v>6123</v>
-      </c>
-      <c r="B354" s="2"/>
+        <v>2843</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>6079</v>
+      </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="26" t="s">
-        <v>6124</v>
-      </c>
-      <c r="B355" s="2"/>
+        <v>3750</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>6115</v>
+      </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="26" t="s">
-        <v>6125</v>
-      </c>
-      <c r="B356" s="2"/>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3235</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="26" t="s">
-        <v>6126</v>
+        <v>6090</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>6131</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" s="26" t="s">
-        <v>6127</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>6130</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="26" t="s">
-        <v>6128</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>6129</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" s="26" t="s">
-        <v>6134</v>
-      </c>
-      <c r="B360" s="2"/>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="9" t="s">
+        <v>6098</v>
+      </c>
+      <c r="B358" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="17" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="9" t="s">
+        <v>6120</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A361" s="26" t="s">
-        <v>6156</v>
+        <v>6121</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>6155</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="26" t="s">
-        <v>6157</v>
+        <v>6122</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>6158</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="26" t="s">
-        <v>6159</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>6160</v>
-      </c>
+        <v>6123</v>
+      </c>
+      <c r="B363" s="2"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="26" t="s">
-        <v>6161</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>6162</v>
-      </c>
+        <v>6124</v>
+      </c>
+      <c r="B364" s="2"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="26" t="s">
-        <v>6163</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>6164</v>
-      </c>
+        <v>6125</v>
+      </c>
+      <c r="B365" s="2"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="26" t="s">
-        <v>6165</v>
+        <v>6126</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>6166</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="26" t="s">
+        <v>6127</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="26" t="s">
+        <v>6128</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="26" t="s">
+        <v>6134</v>
+      </c>
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="26" t="s">
+        <v>6156</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="26" t="s">
+        <v>6157</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>6158</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="26" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="26" t="s">
+        <v>6161</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="26" t="s">
+        <v>6163</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="26" t="s">
+        <v>6300</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>6301</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="26" t="s">
+        <v>6165</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="26" t="s">
         <v>6167</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B377" s="2" t="s">
         <v>6168</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" s="12" t="s">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="12" t="s">
         <v>6072</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B378" s="2" t="s">
         <v>6073</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="32"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" s="17"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" s="17"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="17"/>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" s="17"/>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" s="17"/>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="31"/>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="17"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="17"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="17"/>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="17"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:B314"/>
+  <autoFilter ref="A4:B317"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A223" r:id="rId1"/>
-    <hyperlink ref="A275" r:id="rId2"/>
-    <hyperlink ref="A302" r:id="rId3"/>
-    <hyperlink ref="A304" r:id="rId4"/>
-    <hyperlink ref="A305" r:id="rId5" display="https://github.com/UKHO/ADM-PSmodule"/>
-    <hyperlink ref="A307" r:id="rId6"/>
-    <hyperlink ref="A309" r:id="rId7"/>
-    <hyperlink ref="A312" r:id="rId8"/>
-    <hyperlink ref="A313" r:id="rId9"/>
-    <hyperlink ref="A314" r:id="rId10"/>
-    <hyperlink ref="A300" r:id="rId11"/>
-    <hyperlink ref="A274" r:id="rId12"/>
+    <hyperlink ref="A225" r:id="rId1"/>
+    <hyperlink ref="A278" r:id="rId2"/>
+    <hyperlink ref="A305" r:id="rId3"/>
+    <hyperlink ref="A307" r:id="rId4"/>
+    <hyperlink ref="A308" r:id="rId5" display="https://github.com/UKHO/ADM-PSmodule"/>
+    <hyperlink ref="A310" r:id="rId6"/>
+    <hyperlink ref="A312" r:id="rId7"/>
+    <hyperlink ref="A315" r:id="rId8"/>
+    <hyperlink ref="A316" r:id="rId9"/>
+    <hyperlink ref="A317" r:id="rId10"/>
+    <hyperlink ref="A303" r:id="rId11"/>
+    <hyperlink ref="A277" r:id="rId12"/>
     <hyperlink ref="A5" r:id="rId13"/>
     <hyperlink ref="A13" r:id="rId14"/>
     <hyperlink ref="A14" r:id="rId15"/>
     <hyperlink ref="A15" r:id="rId16"/>
-    <hyperlink ref="A272" r:id="rId17"/>
-    <hyperlink ref="A271" r:id="rId18"/>
-    <hyperlink ref="A270" r:id="rId19"/>
-    <hyperlink ref="A260" r:id="rId20"/>
-    <hyperlink ref="A258" r:id="rId21"/>
-    <hyperlink ref="A257" r:id="rId22"/>
-    <hyperlink ref="A256" r:id="rId23"/>
-    <hyperlink ref="A253" r:id="rId24"/>
-    <hyperlink ref="A254" r:id="rId25"/>
-    <hyperlink ref="A252" r:id="rId26"/>
-    <hyperlink ref="A249" r:id="rId27"/>
-    <hyperlink ref="A248" r:id="rId28"/>
-    <hyperlink ref="A245" r:id="rId29"/>
-    <hyperlink ref="A246" r:id="rId30"/>
-    <hyperlink ref="A235" r:id="rId31"/>
-    <hyperlink ref="A233" r:id="rId32"/>
-    <hyperlink ref="A232" r:id="rId33"/>
-    <hyperlink ref="A228" r:id="rId34"/>
-    <hyperlink ref="A227" r:id="rId35"/>
-    <hyperlink ref="A219" r:id="rId36"/>
-    <hyperlink ref="A220" r:id="rId37"/>
-    <hyperlink ref="A221" r:id="rId38"/>
-    <hyperlink ref="A217" r:id="rId39"/>
-    <hyperlink ref="A216" r:id="rId40"/>
-    <hyperlink ref="A215" r:id="rId41"/>
-    <hyperlink ref="A316" r:id="rId42"/>
-    <hyperlink ref="A213" r:id="rId43"/>
-    <hyperlink ref="A208" r:id="rId44"/>
-    <hyperlink ref="A204" r:id="rId45"/>
-    <hyperlink ref="A202" r:id="rId46"/>
-    <hyperlink ref="A201" r:id="rId47"/>
-    <hyperlink ref="A200" r:id="rId48"/>
-    <hyperlink ref="A199" r:id="rId49"/>
+    <hyperlink ref="A275" r:id="rId17"/>
+    <hyperlink ref="A274" r:id="rId18"/>
+    <hyperlink ref="A273" r:id="rId19"/>
+    <hyperlink ref="A263" r:id="rId20"/>
+    <hyperlink ref="A261" r:id="rId21"/>
+    <hyperlink ref="A260" r:id="rId22"/>
+    <hyperlink ref="A259" r:id="rId23"/>
+    <hyperlink ref="A256" r:id="rId24"/>
+    <hyperlink ref="A257" r:id="rId25"/>
+    <hyperlink ref="A255" r:id="rId26"/>
+    <hyperlink ref="A252" r:id="rId27"/>
+    <hyperlink ref="A251" r:id="rId28"/>
+    <hyperlink ref="A248" r:id="rId29"/>
+    <hyperlink ref="A249" r:id="rId30"/>
+    <hyperlink ref="A238" r:id="rId31"/>
+    <hyperlink ref="A236" r:id="rId32"/>
+    <hyperlink ref="A235" r:id="rId33"/>
+    <hyperlink ref="A231" r:id="rId34"/>
+    <hyperlink ref="A230" r:id="rId35"/>
+    <hyperlink ref="A221" r:id="rId36"/>
+    <hyperlink ref="A222" r:id="rId37"/>
+    <hyperlink ref="A223" r:id="rId38"/>
+    <hyperlink ref="A219" r:id="rId39"/>
+    <hyperlink ref="A218" r:id="rId40"/>
+    <hyperlink ref="A217" r:id="rId41"/>
+    <hyperlink ref="A319" r:id="rId42"/>
+    <hyperlink ref="A215" r:id="rId43"/>
+    <hyperlink ref="A210" r:id="rId44"/>
+    <hyperlink ref="A206" r:id="rId45"/>
+    <hyperlink ref="A204" r:id="rId46"/>
+    <hyperlink ref="A203" r:id="rId47"/>
+    <hyperlink ref="A202" r:id="rId48"/>
+    <hyperlink ref="A201" r:id="rId49"/>
     <hyperlink ref="A17" r:id="rId50"/>
     <hyperlink ref="A24" r:id="rId51"/>
     <hyperlink ref="A26" r:id="rId52"/>
@@ -22508,20 +22648,20 @@
     <hyperlink ref="A113" r:id="rId64"/>
     <hyperlink ref="A112" r:id="rId65"/>
     <hyperlink ref="A108" r:id="rId66"/>
-    <hyperlink ref="A189" r:id="rId67"/>
-    <hyperlink ref="A192" r:id="rId68"/>
-    <hyperlink ref="A193" r:id="rId69"/>
-    <hyperlink ref="A196" r:id="rId70"/>
+    <hyperlink ref="A191" r:id="rId67"/>
+    <hyperlink ref="A194" r:id="rId68"/>
+    <hyperlink ref="A195" r:id="rId69"/>
+    <hyperlink ref="A198" r:id="rId70"/>
     <hyperlink ref="A37" r:id="rId71"/>
     <hyperlink ref="A43" r:id="rId72"/>
     <hyperlink ref="A44" r:id="rId73"/>
     <hyperlink ref="A45" r:id="rId74"/>
-    <hyperlink ref="A186" r:id="rId75"/>
-    <hyperlink ref="A187" r:id="rId76"/>
-    <hyperlink ref="A185" r:id="rId77"/>
-    <hyperlink ref="A183" r:id="rId78"/>
-    <hyperlink ref="A179" r:id="rId79"/>
-    <hyperlink ref="A181" r:id="rId80"/>
+    <hyperlink ref="A188" r:id="rId75"/>
+    <hyperlink ref="A189" r:id="rId76"/>
+    <hyperlink ref="A187" r:id="rId77"/>
+    <hyperlink ref="A185" r:id="rId78"/>
+    <hyperlink ref="A181" r:id="rId79"/>
+    <hyperlink ref="A183" r:id="rId80"/>
     <hyperlink ref="A47" r:id="rId81"/>
     <hyperlink ref="A60" r:id="rId82"/>
     <hyperlink ref="A67" r:id="rId83"/>
@@ -22529,16 +22669,16 @@
     <hyperlink ref="A70" r:id="rId85"/>
     <hyperlink ref="A69" r:id="rId86"/>
     <hyperlink ref="A71" r:id="rId87"/>
-    <hyperlink ref="A173" r:id="rId88"/>
-    <hyperlink ref="A175" r:id="rId89"/>
-    <hyperlink ref="A174" r:id="rId90"/>
-    <hyperlink ref="A176" r:id="rId91"/>
-    <hyperlink ref="A177" r:id="rId92"/>
-    <hyperlink ref="A172" r:id="rId93"/>
-    <hyperlink ref="A171" r:id="rId94"/>
-    <hyperlink ref="A170" r:id="rId95"/>
-    <hyperlink ref="A165" r:id="rId96"/>
-    <hyperlink ref="A164" r:id="rId97"/>
+    <hyperlink ref="A175" r:id="rId88"/>
+    <hyperlink ref="A177" r:id="rId89"/>
+    <hyperlink ref="A176" r:id="rId90"/>
+    <hyperlink ref="A178" r:id="rId91"/>
+    <hyperlink ref="A179" r:id="rId92"/>
+    <hyperlink ref="A174" r:id="rId93"/>
+    <hyperlink ref="A173" r:id="rId94"/>
+    <hyperlink ref="A172" r:id="rId95"/>
+    <hyperlink ref="A166" r:id="rId96"/>
+    <hyperlink ref="A165" r:id="rId97"/>
     <hyperlink ref="A79" r:id="rId98"/>
     <hyperlink ref="A80" r:id="rId99"/>
     <hyperlink ref="A81" r:id="rId100"/>
@@ -22571,116 +22711,116 @@
     <hyperlink ref="A151" r:id="rId127"/>
     <hyperlink ref="A153" r:id="rId128"/>
     <hyperlink ref="A154" r:id="rId129"/>
-    <hyperlink ref="A156" r:id="rId130"/>
-    <hyperlink ref="A157" r:id="rId131"/>
-    <hyperlink ref="A158" r:id="rId132"/>
-    <hyperlink ref="A159" r:id="rId133"/>
-    <hyperlink ref="A160" r:id="rId134"/>
-    <hyperlink ref="A161" r:id="rId135"/>
-    <hyperlink ref="A162" r:id="rId136"/>
-    <hyperlink ref="A317" r:id="rId137"/>
+    <hyperlink ref="A157" r:id="rId130"/>
+    <hyperlink ref="A158" r:id="rId131"/>
+    <hyperlink ref="A159" r:id="rId132"/>
+    <hyperlink ref="A160" r:id="rId133"/>
+    <hyperlink ref="A161" r:id="rId134"/>
+    <hyperlink ref="A162" r:id="rId135"/>
+    <hyperlink ref="A163" r:id="rId136"/>
+    <hyperlink ref="A320" r:id="rId137"/>
     <hyperlink ref="A55" r:id="rId138"/>
     <hyperlink ref="A91" r:id="rId139"/>
     <hyperlink ref="A133" r:id="rId140"/>
-    <hyperlink ref="A306" r:id="rId141"/>
-    <hyperlink ref="A311" r:id="rId142"/>
+    <hyperlink ref="A309" r:id="rId141"/>
+    <hyperlink ref="A314" r:id="rId142"/>
     <hyperlink ref="A74" r:id="rId143"/>
     <hyperlink ref="A63" r:id="rId144"/>
-    <hyperlink ref="A244" r:id="rId145"/>
-    <hyperlink ref="A321" r:id="rId146"/>
-    <hyperlink ref="A195" r:id="rId147"/>
+    <hyperlink ref="A247" r:id="rId145"/>
+    <hyperlink ref="A329" r:id="rId146"/>
+    <hyperlink ref="A197" r:id="rId147"/>
     <hyperlink ref="A64" r:id="rId148"/>
     <hyperlink ref="A25" r:id="rId149"/>
-    <hyperlink ref="A206" r:id="rId150"/>
+    <hyperlink ref="A208" r:id="rId150"/>
     <hyperlink ref="A22" r:id="rId151" display="SubEvil:"/>
-    <hyperlink ref="A324" r:id="rId152"/>
+    <hyperlink ref="A332" r:id="rId152"/>
     <hyperlink ref="A106" r:id="rId153"/>
     <hyperlink ref="A12" r:id="rId154"/>
-    <hyperlink ref="A224" r:id="rId155"/>
+    <hyperlink ref="A226" r:id="rId155"/>
     <hyperlink ref="A65" r:id="rId156"/>
-    <hyperlink ref="A168" r:id="rId157"/>
+    <hyperlink ref="A170" r:id="rId157"/>
     <hyperlink ref="A33" r:id="rId158" display="https://github.com/absolomb/WindowsEnum"/>
     <hyperlink ref="A30" r:id="rId159"/>
     <hyperlink ref="A93" r:id="rId160"/>
-    <hyperlink ref="A198" r:id="rId161"/>
+    <hyperlink ref="A200" r:id="rId161"/>
     <hyperlink ref="A62" r:id="rId162"/>
     <hyperlink ref="A124" r:id="rId163"/>
-    <hyperlink ref="A191" r:id="rId164"/>
+    <hyperlink ref="A193" r:id="rId164"/>
     <hyperlink ref="A136" r:id="rId165"/>
     <hyperlink ref="A138" r:id="rId166"/>
     <hyperlink ref="A137" r:id="rId167"/>
     <hyperlink ref="A102" r:id="rId168"/>
     <hyperlink ref="A134" r:id="rId169"/>
     <hyperlink ref="A135" r:id="rId170"/>
-    <hyperlink ref="A231" r:id="rId171"/>
-    <hyperlink ref="A230" r:id="rId172"/>
-    <hyperlink ref="A229" r:id="rId173"/>
-    <hyperlink ref="A212" r:id="rId174"/>
-    <hyperlink ref="A211" r:id="rId175"/>
-    <hyperlink ref="A210" r:id="rId176"/>
+    <hyperlink ref="A234" r:id="rId171"/>
+    <hyperlink ref="A233" r:id="rId172"/>
+    <hyperlink ref="A232" r:id="rId173"/>
+    <hyperlink ref="A214" r:id="rId174"/>
+    <hyperlink ref="A213" r:id="rId175"/>
+    <hyperlink ref="A212" r:id="rId176"/>
     <hyperlink ref="A42" r:id="rId177"/>
-    <hyperlink ref="A325" r:id="rId178"/>
+    <hyperlink ref="A333" r:id="rId178"/>
     <hyperlink ref="A38" r:id="rId179"/>
-    <hyperlink ref="A166" r:id="rId180"/>
-    <hyperlink ref="A167" r:id="rId181"/>
-    <hyperlink ref="A169" r:id="rId182"/>
+    <hyperlink ref="A168" r:id="rId180"/>
+    <hyperlink ref="A169" r:id="rId181"/>
+    <hyperlink ref="A171" r:id="rId182"/>
     <hyperlink ref="A39" r:id="rId183"/>
     <hyperlink ref="A23" r:id="rId184"/>
-    <hyperlink ref="A327" r:id="rId185"/>
+    <hyperlink ref="A336" r:id="rId185"/>
     <hyperlink ref="A21" r:id="rId186"/>
-    <hyperlink ref="A335" r:id="rId187"/>
-    <hyperlink ref="A337" r:id="rId188"/>
-    <hyperlink ref="A338" r:id="rId189"/>
-    <hyperlink ref="A339" r:id="rId190"/>
-    <hyperlink ref="A340" r:id="rId191"/>
-    <hyperlink ref="A341" r:id="rId192"/>
+    <hyperlink ref="A344" r:id="rId187"/>
+    <hyperlink ref="A346" r:id="rId188"/>
+    <hyperlink ref="A347" r:id="rId189"/>
+    <hyperlink ref="A348" r:id="rId190"/>
+    <hyperlink ref="A349" r:id="rId191"/>
+    <hyperlink ref="A350" r:id="rId192"/>
     <hyperlink ref="A105" r:id="rId193"/>
     <hyperlink ref="A104" r:id="rId194"/>
     <hyperlink ref="A103" r:id="rId195"/>
     <hyperlink ref="A41" r:id="rId196"/>
-    <hyperlink ref="A343" r:id="rId197"/>
+    <hyperlink ref="A352" r:id="rId197"/>
     <hyperlink ref="A88" r:id="rId198" display="https://github.com/urbanadventurer/Android-PIN-Bruteforce"/>
     <hyperlink ref="A89" r:id="rId199"/>
     <hyperlink ref="A66" r:id="rId200"/>
-    <hyperlink ref="A207" r:id="rId201"/>
-    <hyperlink ref="A323" r:id="rId202"/>
-    <hyperlink ref="A368" r:id="rId203"/>
+    <hyperlink ref="A209" r:id="rId201"/>
+    <hyperlink ref="A331" r:id="rId202"/>
+    <hyperlink ref="A378" r:id="rId203"/>
     <hyperlink ref="A18" r:id="rId204"/>
-    <hyperlink ref="A237" r:id="rId205"/>
+    <hyperlink ref="A240" r:id="rId205"/>
     <hyperlink ref="A122" r:id="rId206"/>
-    <hyperlink ref="A345" r:id="rId207"/>
-    <hyperlink ref="A322" r:id="rId208"/>
+    <hyperlink ref="A354" r:id="rId207"/>
+    <hyperlink ref="A330" r:id="rId208"/>
     <hyperlink ref="A117" r:id="rId209"/>
-    <hyperlink ref="A336" r:id="rId210"/>
+    <hyperlink ref="A345" r:id="rId210"/>
     <hyperlink ref="A90" r:id="rId211"/>
     <hyperlink ref="A19" r:id="rId212"/>
-    <hyperlink ref="A348" r:id="rId213" display="https://github.com/cipher387/Dorks-collections-list"/>
-    <hyperlink ref="A303" r:id="rId214"/>
-    <hyperlink ref="A333" r:id="rId215"/>
-    <hyperlink ref="A347" r:id="rId216"/>
-    <hyperlink ref="A320" r:id="rId217"/>
-    <hyperlink ref="A350" r:id="rId218"/>
+    <hyperlink ref="A357" r:id="rId213" display="https://github.com/cipher387/Dorks-collections-list"/>
+    <hyperlink ref="A306" r:id="rId214"/>
+    <hyperlink ref="A342" r:id="rId215"/>
+    <hyperlink ref="A356" r:id="rId216"/>
+    <hyperlink ref="A328" r:id="rId217"/>
+    <hyperlink ref="A359" r:id="rId218"/>
     <hyperlink ref="A61" r:id="rId219"/>
     <hyperlink ref="A57" r:id="rId220"/>
-    <hyperlink ref="A209" r:id="rId221"/>
+    <hyperlink ref="A211" r:id="rId221"/>
     <hyperlink ref="A54" r:id="rId222"/>
     <hyperlink ref="A59" r:id="rId223"/>
-    <hyperlink ref="A243" r:id="rId224"/>
-    <hyperlink ref="A184" r:id="rId225"/>
+    <hyperlink ref="A246" r:id="rId224"/>
+    <hyperlink ref="A186" r:id="rId225"/>
     <hyperlink ref="A56" r:id="rId226"/>
-    <hyperlink ref="A269" r:id="rId227"/>
-    <hyperlink ref="A346" r:id="rId228"/>
-    <hyperlink ref="A301" r:id="rId229"/>
-    <hyperlink ref="A251" r:id="rId230"/>
-    <hyperlink ref="A359" r:id="rId231"/>
-    <hyperlink ref="A358" r:id="rId232"/>
-    <hyperlink ref="A357" r:id="rId233"/>
-    <hyperlink ref="A353" r:id="rId234"/>
-    <hyperlink ref="A352" r:id="rId235"/>
-    <hyperlink ref="A354" r:id="rId236"/>
-    <hyperlink ref="A355" r:id="rId237"/>
-    <hyperlink ref="A356" r:id="rId238"/>
-    <hyperlink ref="A360" r:id="rId239"/>
+    <hyperlink ref="A272" r:id="rId227"/>
+    <hyperlink ref="A355" r:id="rId228"/>
+    <hyperlink ref="A304" r:id="rId229"/>
+    <hyperlink ref="A254" r:id="rId230"/>
+    <hyperlink ref="A368" r:id="rId231"/>
+    <hyperlink ref="A367" r:id="rId232"/>
+    <hyperlink ref="A366" r:id="rId233"/>
+    <hyperlink ref="A362" r:id="rId234"/>
+    <hyperlink ref="A361" r:id="rId235"/>
+    <hyperlink ref="A363" r:id="rId236"/>
+    <hyperlink ref="A364" r:id="rId237"/>
+    <hyperlink ref="A365" r:id="rId238"/>
+    <hyperlink ref="A369" r:id="rId239"/>
     <hyperlink ref="A58" r:id="rId240"/>
     <hyperlink ref="A53" r:id="rId241"/>
     <hyperlink ref="A51" r:id="rId242"/>
@@ -22688,28 +22828,28 @@
     <hyperlink ref="A48" r:id="rId244"/>
     <hyperlink ref="A49" r:id="rId245"/>
     <hyperlink ref="A50" r:id="rId246"/>
-    <hyperlink ref="A310" r:id="rId247"/>
-    <hyperlink ref="A180" r:id="rId248"/>
-    <hyperlink ref="A318" r:id="rId249"/>
-    <hyperlink ref="A268" r:id="rId250"/>
-    <hyperlink ref="A361" r:id="rId251"/>
-    <hyperlink ref="A362" r:id="rId252"/>
-    <hyperlink ref="A363" r:id="rId253"/>
-    <hyperlink ref="A364" r:id="rId254"/>
-    <hyperlink ref="A365" r:id="rId255"/>
-    <hyperlink ref="A366" r:id="rId256"/>
-    <hyperlink ref="A367" r:id="rId257"/>
+    <hyperlink ref="A313" r:id="rId247"/>
+    <hyperlink ref="A182" r:id="rId248"/>
+    <hyperlink ref="A326" r:id="rId249"/>
+    <hyperlink ref="A271" r:id="rId250"/>
+    <hyperlink ref="A370" r:id="rId251"/>
+    <hyperlink ref="A371" r:id="rId252"/>
+    <hyperlink ref="A372" r:id="rId253"/>
+    <hyperlink ref="A373" r:id="rId254"/>
+    <hyperlink ref="A374" r:id="rId255"/>
+    <hyperlink ref="A376" r:id="rId256"/>
+    <hyperlink ref="A377" r:id="rId257"/>
     <hyperlink ref="A9" r:id="rId258"/>
     <hyperlink ref="A6" r:id="rId259"/>
     <hyperlink ref="A11" r:id="rId260"/>
     <hyperlink ref="A10" r:id="rId261"/>
-    <hyperlink ref="A266" r:id="rId262"/>
-    <hyperlink ref="A265" r:id="rId263"/>
-    <hyperlink ref="A264" r:id="rId264"/>
-    <hyperlink ref="A263" r:id="rId265"/>
-    <hyperlink ref="A262" r:id="rId266"/>
-    <hyperlink ref="A261" r:id="rId267"/>
-    <hyperlink ref="A267" r:id="rId268"/>
+    <hyperlink ref="A269" r:id="rId262"/>
+    <hyperlink ref="A268" r:id="rId263"/>
+    <hyperlink ref="A267" r:id="rId264"/>
+    <hyperlink ref="A266" r:id="rId265"/>
+    <hyperlink ref="A265" r:id="rId266"/>
+    <hyperlink ref="A264" r:id="rId267"/>
+    <hyperlink ref="A270" r:id="rId268"/>
     <hyperlink ref="A141" r:id="rId269"/>
     <hyperlink ref="A142" r:id="rId270"/>
     <hyperlink ref="A143" r:id="rId271"/>
@@ -22721,53 +22861,63 @@
     <hyperlink ref="A149" r:id="rId277"/>
     <hyperlink ref="A150" r:id="rId278"/>
     <hyperlink ref="A87" r:id="rId279"/>
-    <hyperlink ref="A332" r:id="rId280"/>
-    <hyperlink ref="A331" r:id="rId281"/>
-    <hyperlink ref="A330" r:id="rId282"/>
-    <hyperlink ref="A328" r:id="rId283"/>
-    <hyperlink ref="A329" r:id="rId284"/>
-    <hyperlink ref="A291" r:id="rId285"/>
-    <hyperlink ref="A277" r:id="rId286"/>
-    <hyperlink ref="A279" r:id="rId287"/>
-    <hyperlink ref="A290" r:id="rId288"/>
-    <hyperlink ref="A292" r:id="rId289"/>
-    <hyperlink ref="A293" r:id="rId290"/>
-    <hyperlink ref="A294" r:id="rId291"/>
-    <hyperlink ref="A295" r:id="rId292" display="https://support.microsoft.com/en-us/help/2693643/remote-server-administration-tools-rsat-for-windows-operating-systems"/>
-    <hyperlink ref="A242" r:id="rId293"/>
-    <hyperlink ref="A296" r:id="rId294"/>
-    <hyperlink ref="A297" r:id="rId295"/>
-    <hyperlink ref="A299" r:id="rId296"/>
-    <hyperlink ref="A298" r:id="rId297"/>
-    <hyperlink ref="A241" r:id="rId298"/>
-    <hyperlink ref="A319" r:id="rId299"/>
-    <hyperlink ref="A238" r:id="rId300"/>
+    <hyperlink ref="A341" r:id="rId280"/>
+    <hyperlink ref="A340" r:id="rId281"/>
+    <hyperlink ref="A339" r:id="rId282"/>
+    <hyperlink ref="A337" r:id="rId283"/>
+    <hyperlink ref="A338" r:id="rId284"/>
+    <hyperlink ref="A294" r:id="rId285"/>
+    <hyperlink ref="A280" r:id="rId286"/>
+    <hyperlink ref="A282" r:id="rId287"/>
+    <hyperlink ref="A293" r:id="rId288"/>
+    <hyperlink ref="A295" r:id="rId289"/>
+    <hyperlink ref="A296" r:id="rId290"/>
+    <hyperlink ref="A297" r:id="rId291"/>
+    <hyperlink ref="A298" r:id="rId292" display="https://support.microsoft.com/en-us/help/2693643/remote-server-administration-tools-rsat-for-windows-operating-systems"/>
+    <hyperlink ref="A245" r:id="rId293"/>
+    <hyperlink ref="A299" r:id="rId294"/>
+    <hyperlink ref="A300" r:id="rId295"/>
+    <hyperlink ref="A302" r:id="rId296"/>
+    <hyperlink ref="A301" r:id="rId297"/>
+    <hyperlink ref="A244" r:id="rId298"/>
+    <hyperlink ref="A327" r:id="rId299"/>
+    <hyperlink ref="A241" r:id="rId300"/>
     <hyperlink ref="A111" r:id="rId301"/>
-    <hyperlink ref="A280" r:id="rId302"/>
-    <hyperlink ref="A288" r:id="rId303"/>
-    <hyperlink ref="A289" r:id="rId304"/>
-    <hyperlink ref="A239" r:id="rId305"/>
-    <hyperlink ref="A240" r:id="rId306"/>
+    <hyperlink ref="A283" r:id="rId302"/>
+    <hyperlink ref="A291" r:id="rId303"/>
+    <hyperlink ref="A292" r:id="rId304"/>
+    <hyperlink ref="A242" r:id="rId305"/>
+    <hyperlink ref="A243" r:id="rId306"/>
     <hyperlink ref="A7" r:id="rId307"/>
     <hyperlink ref="A8" r:id="rId308"/>
-    <hyperlink ref="A190" r:id="rId309"/>
+    <hyperlink ref="A192" r:id="rId309"/>
     <hyperlink ref="A20" r:id="rId310"/>
-    <hyperlink ref="A278" r:id="rId311"/>
-    <hyperlink ref="A281" r:id="rId312"/>
-    <hyperlink ref="A282" r:id="rId313"/>
-    <hyperlink ref="A283" r:id="rId314"/>
-    <hyperlink ref="A284" r:id="rId315"/>
-    <hyperlink ref="A285" r:id="rId316"/>
-    <hyperlink ref="A286" r:id="rId317"/>
+    <hyperlink ref="A281" r:id="rId311"/>
+    <hyperlink ref="A284" r:id="rId312"/>
+    <hyperlink ref="A285" r:id="rId313"/>
+    <hyperlink ref="A286" r:id="rId314"/>
+    <hyperlink ref="A287" r:id="rId315"/>
+    <hyperlink ref="A288" r:id="rId316"/>
+    <hyperlink ref="A289" r:id="rId317"/>
     <hyperlink ref="A40" r:id="rId318"/>
     <hyperlink ref="A116" r:id="rId319"/>
-    <hyperlink ref="A225" r:id="rId320"/>
-    <hyperlink ref="A155" r:id="rId321"/>
-    <hyperlink ref="A250" r:id="rId322"/>
-    <hyperlink ref="A287" r:id="rId323"/>
+    <hyperlink ref="A227" r:id="rId320"/>
+    <hyperlink ref="A156" r:id="rId321"/>
+    <hyperlink ref="A253" r:id="rId322"/>
+    <hyperlink ref="A290" r:id="rId323"/>
+    <hyperlink ref="A167" r:id="rId324"/>
+    <hyperlink ref="A335" r:id="rId325" location="how-it-works"/>
+    <hyperlink ref="A155" r:id="rId326"/>
+    <hyperlink ref="A229" r:id="rId327"/>
+    <hyperlink ref="A325" r:id="rId328"/>
+    <hyperlink ref="A323" r:id="rId329"/>
+    <hyperlink ref="A375" r:id="rId330"/>
+    <hyperlink ref="A324" r:id="rId331"/>
+    <hyperlink ref="A322" r:id="rId332"/>
+    <hyperlink ref="A321" r:id="rId333"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId324"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId334"/>
 </worksheet>
 </file>
 

--- a/Weapons4Pentesters.xlsx
+++ b/Weapons4Pentesters.xlsx
@@ -17,7 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BlackArch  Tools (2000 tools)'!$B$1:$F$2813</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weaponization-MyYourTools'!$A$21:$B$411</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9252" uniqueCount="6374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9265" uniqueCount="6388">
   <si>
     <t>cracking</t>
   </si>
@@ -18515,9 +18514,6 @@
     <t xml:space="preserve">HTTP/S Beaconing Implant </t>
   </si>
   <si>
-    <t>Implants &amp; Backdoors</t>
-  </si>
-  <si>
     <t xml:space="preserve">rockyou2021.txt </t>
   </si>
   <si>
@@ -19152,6 +19148,51 @@
   </si>
   <si>
     <t>Active Directory-attack</t>
+  </si>
+  <si>
+    <t>Made by @VraiHack</t>
+  </si>
+  <si>
+    <t>Direct LINK toward Github Repo</t>
+  </si>
+  <si>
+    <t>LAZYPARIAH</t>
+  </si>
+  <si>
+    <t>A tool for generating reverse shell payloads on the fly.</t>
+  </si>
+  <si>
+    <t>monkey365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monkey365 provides a tool for security consultants to easily conduct not only Microsoft 365, but also Azure subscriptions and Azure Active Directory security configuration reviews. </t>
+  </si>
+  <si>
+    <t>Simple, fast web crawler designed for easy, quick discovery of endpoints and assets within a web application</t>
+  </si>
+  <si>
+    <t>bf_active_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subdomain Bruteforce - Bounty Quick Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crawls the website and finds broken social media links that can be hijacked </t>
+  </si>
+  <si>
+    <t>socialhunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnsReaper - subdomain takeover tool for attackers, bug bounty hunters and the blue team! </t>
+  </si>
+  <si>
+    <t>dnsReaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collect XSS vulnerable parameters from entire domain. </t>
+  </si>
+  <si>
+    <t>collector</t>
   </si>
 </sst>
 </file>
@@ -19227,7 +19268,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19243,6 +19284,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19572,7 +19625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -19603,9 +19656,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19643,9 +19693,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -19775,6 +19822,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20056,10 +20111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B400" sqref="B400"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20070,327 +20125,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="96" t="s">
         <v>6042</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>6362</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="B1" s="96"/>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+    </row>
+    <row r="3" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
+        <v>6374</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>6373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="94" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="93"/>
+    </row>
+    <row r="5" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>6361</v>
+      </c>
+      <c r="B5" s="73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>6338</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>6339</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>6340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>6312</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>6313</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>6314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>6349</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>6350</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>6351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
         <v>6154</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>6156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>6244</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>6245</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
+        <v>6243</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
         <v>6159</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>6160</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
         <v>6157</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>6158</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
         <v>4125</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>6217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
+      <c r="B17" s="22" t="s">
+        <v>6216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>6206</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>6207</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>6208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>6295</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>6294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>6155</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>6156</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="s">
-        <v>6161</v>
-      </c>
-      <c r="B21" s="77" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87" t="s">
+        <v>6362</v>
+      </c>
+      <c r="B23" s="73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>6296</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>6295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-    </row>
-    <row r="24" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
-        <v>6363</v>
-      </c>
-      <c r="B25" s="77" t="s">
-        <v>134</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
+        <v>6060</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>6061</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>142</v>
+        <v>6074</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>6075</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
-        <v>6060</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>6061</v>
+        <v>6249</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>6250</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
-        <v>6074</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>6075</v>
+        <v>6385</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>6384</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
-        <v>6250</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>6251</v>
+      <c r="A29" s="34" t="s">
+        <v>6380</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>6381</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
-        <v>6364</v>
-      </c>
-      <c r="B39" s="77" t="s">
+      <c r="A39" s="87" t="s">
+        <v>6363</v>
+      </c>
+      <c r="B39" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
-        <v>6333</v>
-      </c>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="27" t="s">
         <v>6332</v>
       </c>
+      <c r="B41" s="22" t="s">
+        <v>6331</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>338</v>
       </c>
     </row>
@@ -20400,106 +20468,106 @@
     </row>
     <row r="48" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="91" t="s">
+      <c r="A49" s="87" t="s">
         <v>418</v>
       </c>
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
-        <v>6334</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>6365</v>
+      <c r="A51" s="17" t="s">
+        <v>6333</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>6364</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="17" t="s">
+        <v>6265</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>6266</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>6267</v>
-      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="22" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="22" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="87" t="s">
+      <c r="A58" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="41" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="87" t="s">
+      <c r="A59" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="41" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>148</v>
       </c>
     </row>
@@ -20512,1438 +20580,1448 @@
       <c r="B63" s="11"/>
     </row>
     <row r="64" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="77" t="s">
+      <c r="B64" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="21" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="42" t="s">
+        <v>6245</v>
+      </c>
+      <c r="B66" s="43" t="s">
         <v>6246</v>
       </c>
-      <c r="B66" s="47" t="s">
-        <v>6247</v>
-      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="38" t="s">
         <v>6121</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="41" t="s">
         <v>6122</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="38" t="s">
         <v>6123</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="41" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="38" t="s">
+        <v>6354</v>
+      </c>
+      <c r="B69" s="41"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="38" t="s">
+        <v>6359</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="38" t="s">
         <v>6355</v>
       </c>
-      <c r="B69" s="45"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="42" t="s">
-        <v>6360</v>
-      </c>
-      <c r="B70" s="45" t="s">
-        <v>6361</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="42" t="s">
+      <c r="B71" s="41" t="s">
         <v>6356</v>
       </c>
-      <c r="B71" s="45" t="s">
-        <v>6357</v>
-      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="38" t="s">
+        <v>6292</v>
+      </c>
+      <c r="B72" s="41" t="s">
         <v>6293</v>
       </c>
-      <c r="B72" s="45" t="s">
-        <v>6294</v>
-      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="42" t="s">
-        <v>6331</v>
-      </c>
-      <c r="B73" s="45" t="s">
+      <c r="A73" s="38" t="s">
         <v>6330</v>
       </c>
+      <c r="B73" s="41" t="s">
+        <v>6329</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="42" t="s">
-        <v>6306</v>
-      </c>
-      <c r="B74" s="45"/>
+      <c r="A74" s="38" t="s">
+        <v>6305</v>
+      </c>
+      <c r="B74" s="41"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="38" t="s">
         <v>6125</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="41" t="s">
         <v>6126</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="38" t="s">
         <v>6127</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="41" t="s">
         <v>6128</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="38" t="s">
         <v>6129</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="41" t="s">
         <v>6130</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="38" t="s">
         <v>6131</v>
       </c>
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="41" t="s">
         <v>6132</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="39" t="s">
         <v>6090</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="41" t="s">
         <v>6089</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="41" t="s">
         <v>285</v>
       </c>
     </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="38" t="s">
+        <v>6120</v>
+      </c>
+      <c r="B81" s="41"/>
+    </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="B82" s="45"/>
+      <c r="A82" s="39" t="s">
+        <v>6092</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>6091</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="42" t="s">
-        <v>6120</v>
-      </c>
-      <c r="B83" s="45"/>
+      <c r="A83" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="43" t="s">
-        <v>6092</v>
-      </c>
-      <c r="B84" s="45" t="s">
-        <v>6091</v>
+      <c r="A84" s="18" t="s">
+        <v>6085</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>6086</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" s="45" t="s">
-        <v>243</v>
+      <c r="A85" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
-        <v>6085</v>
-      </c>
-      <c r="B86" s="45" t="s">
-        <v>6086</v>
+      <c r="A86" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86" s="41" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="B87" s="45" t="s">
-        <v>347</v>
+      <c r="A87" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="B88" s="45" t="s">
-        <v>305</v>
+      <c r="A88" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="B88" s="41" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="B89" s="45" t="s">
-        <v>313</v>
+      <c r="A89" s="39" t="s">
+        <v>6052</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>6053</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="B90" s="45" t="s">
-        <v>329</v>
+      <c r="A90" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="43" t="s">
-        <v>6052</v>
-      </c>
-      <c r="B91" s="45" t="s">
-        <v>6053</v>
+      <c r="A91" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" s="45" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="45" t="s">
-        <v>231</v>
+      <c r="A92" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" s="45" t="s">
-        <v>150</v>
-      </c>
+      <c r="A94" s="10"/>
+      <c r="B94" s="11"/>
     </row>
     <row r="95" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
-      <c r="B96" s="11"/>
-    </row>
-    <row r="97" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="11"/>
-    </row>
-    <row r="98" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="92" t="s">
+      <c r="A95" s="10"/>
+      <c r="B95" s="11"/>
+    </row>
+    <row r="96" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="93" t="s">
+      <c r="B96" s="89" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="44" t="s">
+        <v>6315</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>6314</v>
+      </c>
+    </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>152</v>
+      <c r="A99" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="48" t="s">
-        <v>6316</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>6315</v>
+      <c r="A100" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>153</v>
+      <c r="A101" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B103" s="45" t="s">
-        <v>176</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="91" t="s">
+      <c r="A104" s="3"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="B107" s="77" t="s">
+      <c r="B105" s="73" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="49" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B108" s="52" t="s">
-        <v>156</v>
+      <c r="A108" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" s="49" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B109" s="53" t="s">
-        <v>157</v>
+      <c r="A109" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" s="49" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B110" s="53" t="s">
-        <v>158</v>
+      <c r="A110" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" s="49" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B111" s="53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B112" s="53" t="s">
-        <v>160</v>
+      <c r="A111" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B112" s="50" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>178</v>
-      </c>
+      <c r="A113" s="10"/>
+      <c r="B113" s="11"/>
     </row>
     <row r="114" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B114" s="54" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
-      <c r="B115" s="11"/>
-    </row>
-    <row r="116" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-      <c r="B116" s="11"/>
-    </row>
-    <row r="117" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="91" t="s">
+      <c r="A114" s="10"/>
+      <c r="B114" s="11"/>
+    </row>
+    <row r="115" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="B117" s="77" t="s">
+      <c r="B115" s="73" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="17" t="s">
+        <v>6194</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>6193</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="25" t="s">
-        <v>135</v>
+        <v>6334</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>6335</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="18" t="s">
-        <v>6195</v>
-      </c>
-      <c r="B119" s="23" t="s">
-        <v>6194</v>
+      <c r="A119" s="40" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>6049</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="18" t="s">
-        <v>6335</v>
-      </c>
-      <c r="B120" s="23" t="s">
-        <v>6336</v>
+      <c r="A120" s="40" t="s">
+        <v>6050</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>6051</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="44" t="s">
-        <v>6048</v>
-      </c>
-      <c r="B121" s="23" t="s">
-        <v>6049</v>
+      <c r="A121" s="51" t="s">
+        <v>6072</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>6073</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="44" t="s">
-        <v>6050</v>
-      </c>
-      <c r="B122" s="23" t="s">
-        <v>6051</v>
+      <c r="A122" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="55" t="s">
-        <v>6072</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>6073</v>
+      <c r="A123" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>295</v>
+      <c r="A124" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" s="23" t="s">
-        <v>133</v>
+      <c r="A125" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>342</v>
+      <c r="A126" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" s="45" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>136</v>
+      <c r="A127" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="54" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B129" s="57" t="s">
-        <v>138</v>
-      </c>
+      <c r="A129" s="3"/>
+      <c r="B129" s="37"/>
     </row>
     <row r="130" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" s="58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="3"/>
-      <c r="B131" s="41"/>
-    </row>
-    <row r="132" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="41"/>
-    </row>
-    <row r="133" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="91" t="s">
+      <c r="A130" s="3"/>
+      <c r="B130" s="37"/>
+    </row>
+    <row r="131" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="77" t="s">
+      <c r="B131" s="73" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B134" s="25" t="s">
-        <v>162</v>
+      <c r="A134" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="B135" s="23" t="s">
-        <v>289</v>
+      <c r="A135" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>358</v>
+      <c r="A136" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="55" t="s">
-        <v>417</v>
-      </c>
-      <c r="B137" s="23" t="s">
-        <v>412</v>
+      <c r="A137" s="60" t="s">
+        <v>6383</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>6382</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="55" t="s">
-        <v>416</v>
-      </c>
-      <c r="B138" s="23" t="s">
-        <v>413</v>
+      <c r="A138" s="60" t="s">
+        <v>6300</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>6301</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="64" t="s">
-        <v>6301</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>6302</v>
+      <c r="A139" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="B140" s="23" t="s">
-        <v>323</v>
+      <c r="A140" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>163</v>
+      <c r="A141" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B142" s="23" t="s">
-        <v>165</v>
+      <c r="A142" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B143" s="23" t="s">
-        <v>166</v>
+      <c r="A143" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B144" s="23" t="s">
-        <v>169</v>
+      <c r="A144" s="63" t="s">
+        <v>6172</v>
+      </c>
+      <c r="B144" s="59" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="67" t="s">
-        <v>6173</v>
-      </c>
-      <c r="B145" s="63" t="s">
-        <v>1567</v>
+      <c r="A145" s="61" t="s">
+        <v>6234</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>2175</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="65" t="s">
-        <v>6235</v>
-      </c>
-      <c r="B146" s="23" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="44" t="s">
+      <c r="A146" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B146" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="51" t="s">
+    <row r="147" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B148" s="26" t="s">
+      <c r="B147" s="25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>134</v>
+        <v>39</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B152" s="22" t="s">
-        <v>173</v>
+      <c r="A152" s="38" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B152" s="41" t="s">
+        <v>6267</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="42" t="s">
-        <v>3279</v>
-      </c>
-      <c r="B153" s="45" t="s">
-        <v>6268</v>
+      <c r="A153" s="39" t="s">
+        <v>6068</v>
+      </c>
+      <c r="B153" s="41" t="s">
+        <v>6069</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="43" t="s">
-        <v>6068</v>
-      </c>
-      <c r="B154" s="45" t="s">
-        <v>6069</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="62" t="s">
+      <c r="A154" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B155" s="45" t="s">
+      <c r="B154" s="41" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="51" t="s">
+    <row r="155" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B156" s="24" t="s">
+      <c r="B155" s="23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="3"/>
+      <c r="B156" s="11"/>
+    </row>
+    <row r="157" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="11"/>
     </row>
     <row r="158" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="11"/>
-    </row>
-    <row r="159" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="91" t="s">
+      <c r="A158" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="B159" s="77" t="s">
+      <c r="B158" s="73" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B160" s="22" t="s">
-        <v>174</v>
+      <c r="A160" s="38" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B160" s="41" t="s">
+        <v>6328</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="42" t="s">
-        <v>3490</v>
-      </c>
-      <c r="B161" s="45" t="s">
-        <v>6329</v>
+      <c r="A161" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="B161" s="41" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="43" t="s">
+      <c r="A162" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B162" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="B162" s="45" t="s">
+      <c r="B163" s="41" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B163" s="45" t="s">
-        <v>177</v>
-      </c>
-    </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="B164" s="45" t="s">
-        <v>348</v>
+      <c r="A164" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B164" s="41" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B165" s="45" t="s">
-        <v>179</v>
+      <c r="A165" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" s="41" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B166" s="45" t="s">
-        <v>180</v>
+      <c r="A166" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B166" s="41" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B167" s="45" t="s">
-        <v>181</v>
+      <c r="A167" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B167" s="41" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B168" s="45" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="19" t="s">
+      <c r="A168" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B169" s="45" t="s">
+      <c r="B168" s="41" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
+    <row r="169" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B170" s="24" t="s">
+      <c r="B169" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="10"/>
+      <c r="B170" s="11"/>
+    </row>
+    <row r="171" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="11"/>
     </row>
     <row r="172" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="B172" s="11"/>
-    </row>
-    <row r="173" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="91" t="s">
-        <v>6367</v>
-      </c>
-      <c r="B173" s="77" t="s">
+      <c r="A172" s="87" t="s">
+        <v>6366</v>
+      </c>
+      <c r="B172" s="73" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B174" s="22" t="s">
-        <v>185</v>
+        <v>6343</v>
+      </c>
+      <c r="B174" s="41" t="s">
+        <v>6342</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="18" t="s">
-        <v>6344</v>
-      </c>
-      <c r="B175" s="45" t="s">
-        <v>6343</v>
+        <v>296</v>
+      </c>
+      <c r="B175" s="41" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="B176" s="45" t="s">
-        <v>297</v>
+      <c r="A176" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="B176" s="41" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="B177" s="45" t="s">
-        <v>361</v>
+      <c r="A177" s="18" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B177" s="41" t="s">
+        <v>6084</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="19" t="s">
-        <v>4062</v>
-      </c>
-      <c r="B178" s="45" t="s">
-        <v>6084</v>
+      <c r="A178" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" s="41" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="B179" s="45" t="s">
-        <v>363</v>
+      <c r="A179" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B179" s="41" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="B180" s="45" t="s">
-        <v>353</v>
+      <c r="A180" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" s="41" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="B181" s="45" t="s">
-        <v>357</v>
+      <c r="A181" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="B181" s="41" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="B182" s="45" t="s">
-        <v>355</v>
+      <c r="A182" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B182" s="41" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B183" s="45" t="s">
-        <v>287</v>
+      <c r="A183" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B183" s="41" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B184" s="45" t="s">
-        <v>186</v>
+      <c r="A184" s="17" t="s">
+        <v>6173</v>
+      </c>
+      <c r="B184" s="41" t="s">
+        <v>6174</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="18" t="s">
-        <v>6174</v>
-      </c>
-      <c r="B185" s="45" t="s">
+      <c r="A185" s="17" t="s">
         <v>6175</v>
       </c>
+      <c r="B185" s="41" t="s">
+        <v>6176</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="18" t="s">
-        <v>6176</v>
-      </c>
-      <c r="B186" s="45" t="s">
+      <c r="A186" s="17" t="s">
         <v>6177</v>
       </c>
+      <c r="B186" s="41" t="s">
+        <v>6178</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="18" t="s">
-        <v>6178</v>
-      </c>
-      <c r="B187" s="45" t="s">
+      <c r="A187" s="17" t="s">
         <v>6179</v>
       </c>
+      <c r="B187" s="41" t="s">
+        <v>6180</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="18" t="s">
-        <v>6180</v>
-      </c>
-      <c r="B188" s="45" t="s">
+      <c r="A188" s="17" t="s">
         <v>6181</v>
       </c>
+      <c r="B188" s="41" t="s">
+        <v>6182</v>
+      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="18" t="s">
-        <v>6182</v>
-      </c>
-      <c r="B189" s="45" t="s">
+      <c r="A189" s="17" t="s">
         <v>6183</v>
       </c>
+      <c r="B189" s="41" t="s">
+        <v>6184</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="18" t="s">
-        <v>6184</v>
-      </c>
-      <c r="B190" s="45" t="s">
+      <c r="A190" s="17" t="s">
+        <v>6188</v>
+      </c>
+      <c r="B190" s="41" t="s">
         <v>6185</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="18" t="s">
+      <c r="A191" s="17" t="s">
+        <v>6187</v>
+      </c>
+      <c r="B191" s="41" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="17" t="s">
         <v>6189</v>
       </c>
-      <c r="B191" s="45" t="s">
-        <v>6186</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="18" t="s">
-        <v>6188</v>
-      </c>
-      <c r="B192" s="45" t="s">
-        <v>6187</v>
+      <c r="B192" s="41" t="s">
+        <v>6190</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="18" t="s">
-        <v>6190</v>
-      </c>
-      <c r="B193" s="45" t="s">
+      <c r="A193" s="17" t="s">
         <v>6191</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="18" t="s">
+      <c r="B193" s="41" t="s">
         <v>6192</v>
       </c>
-      <c r="B194" s="45" t="s">
-        <v>6193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="21" t="s">
+    </row>
+    <row r="194" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B195" s="24" t="s">
+      <c r="B194" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="10"/>
+      <c r="B195" s="11"/>
+    </row>
+    <row r="196" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="11"/>
     </row>
     <row r="197" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
-      <c r="B197" s="11"/>
-    </row>
-    <row r="198" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="91" t="s">
+      <c r="A197" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="B198" s="77" t="s">
+      <c r="B197" s="73" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B198" s="21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B199" s="22" t="s">
-        <v>182</v>
+        <v>1116</v>
+      </c>
+      <c r="B199" s="41" t="s">
+        <v>6325</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="18" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B200" s="45" t="s">
-        <v>6326</v>
+      <c r="A200" s="58" t="s">
+        <v>6320</v>
+      </c>
+      <c r="B200" s="41" t="s">
+        <v>6321</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="62" t="s">
-        <v>6321</v>
-      </c>
-      <c r="B201" s="45" t="s">
+      <c r="A201" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="41" t="s">
         <v>6322</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="68" t="s">
+      <c r="A202" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B202" s="41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="44" t="s">
+        <v>6276</v>
+      </c>
+      <c r="B203" s="41" t="s">
+        <v>6277</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="44" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B204" s="41" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B205" s="41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B206" s="65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B208" s="41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B209" s="41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B202" s="45" t="s">
-        <v>6323</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B203" s="45" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="48" t="s">
-        <v>6277</v>
-      </c>
-      <c r="B204" s="45" t="s">
-        <v>6278</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="48" t="s">
-        <v>2687</v>
-      </c>
-      <c r="B205" s="45" t="s">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B206" s="45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B207" s="69" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B208" s="45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B209" s="45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B210" s="45" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B211" s="45" t="s">
+      <c r="B210" s="41" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="21" t="s">
+    <row r="211" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B212" s="24" t="s">
+      <c r="B211" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="10"/>
+      <c r="B212" s="11"/>
+    </row>
+    <row r="213" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="11"/>
     </row>
     <row r="214" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="10"/>
-      <c r="B214" s="11"/>
-    </row>
-    <row r="215" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="91" t="s">
+      <c r="A214" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="B215" s="77" t="s">
+      <c r="B214" s="73" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B215" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B216" s="22" t="s">
-        <v>192</v>
+      <c r="A216" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B216" s="41" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B217" s="45" t="s">
-        <v>194</v>
+      <c r="A217" s="63" t="s">
+        <v>6272</v>
+      </c>
+      <c r="B217" s="41" t="s">
+        <v>6273</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="67" t="s">
-        <v>6273</v>
-      </c>
-      <c r="B218" s="45" t="s">
-        <v>6274</v>
+      <c r="A218" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="B218" s="41" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="62" t="s">
+      <c r="A219" s="58" t="s">
+        <v>386</v>
+      </c>
+      <c r="B219" s="41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B220" s="41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B221" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B222" s="41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B223" s="41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B224" s="41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B225" s="41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B226" s="41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="63" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B227" s="84" t="s">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B228" s="41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="B219" s="45" t="s">
+      <c r="B229" s="59" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="62" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="B220" s="45" t="s">
+      <c r="B230" s="59" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="B221" s="45" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="62" t="s">
-        <v>386</v>
-      </c>
-      <c r="B222" s="45" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B223" s="45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="B224" s="45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B225" s="45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B226" s="45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="B227" s="45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B228" s="45" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B229" s="45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B230" s="45" t="s">
-        <v>221</v>
-      </c>
-    </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="62" t="s">
+      <c r="A231" s="58" t="s">
+        <v>6318</v>
+      </c>
+      <c r="B231" s="41" t="s">
         <v>6319</v>
       </c>
-      <c r="B231" s="45" t="s">
-        <v>6320</v>
-      </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="62" t="s">
+      <c r="A232" s="58" t="s">
         <v>6135</v>
       </c>
-      <c r="B232" s="45" t="s">
+      <c r="B232" s="41" t="s">
         <v>2892</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="45" t="s">
+      <c r="A233" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B233" s="72" t="s">
+      <c r="B233" s="68" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="45" t="s">
+      <c r="A234" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="B234" s="53" t="s">
+      <c r="B234" s="49" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="71" t="s">
+      <c r="A235" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B235" s="24" t="s">
+      <c r="B235" s="23" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="90"/>
-      <c r="B236" s="81"/>
+      <c r="A236" s="86"/>
+      <c r="B236" s="77"/>
     </row>
     <row r="237" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="89"/>
-      <c r="B237" s="81"/>
+      <c r="A237" s="85"/>
+      <c r="B237" s="77"/>
     </row>
     <row r="238" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="91" t="s">
+      <c r="A238" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="B238" s="77" t="s">
+      <c r="B238" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="74" t="s">
+      <c r="A239" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B239" s="53" t="s">
+      <c r="B239" s="49" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="62" t="s">
+      <c r="A240" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B240" s="88" t="s">
+      <c r="B240" s="84" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="19" t="s">
+      <c r="A241" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B241" s="45" t="s">
+      <c r="B241" s="41" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="45" t="s">
+      <c r="A242" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B242" s="45" t="s">
+      <c r="B242" s="41" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="45" t="s">
+      <c r="A243" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B243" s="45" t="s">
+      <c r="B243" s="41" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="62" t="s">
+      <c r="A244" s="58" t="s">
         <v>6095</v>
       </c>
-      <c r="B244" s="72" t="s">
+      <c r="B244" s="68" t="s">
         <v>6095</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="67" t="s">
-        <v>6167</v>
-      </c>
-      <c r="B245" s="63" t="s">
-        <v>6168</v>
+      <c r="A245" s="63" t="s">
+        <v>6138</v>
+      </c>
+      <c r="B245" s="59" t="s">
+        <v>6139</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="67" t="s">
-        <v>6138</v>
-      </c>
-      <c r="B246" s="63" t="s">
-        <v>6139</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="62" t="s">
+      <c r="A246" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B247" s="53" t="s">
+      <c r="B246" s="49" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="71" t="s">
+    <row r="247" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="B248" s="24" t="s">
+      <c r="B247" s="23" t="s">
         <v>211</v>
       </c>
     </row>
+    <row r="249" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="66"/>
+      <c r="B249" s="11"/>
+    </row>
     <row r="250" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="70"/>
-      <c r="B250" s="11"/>
-    </row>
-    <row r="251" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="91" t="s">
+      <c r="A250" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="B251" s="77" t="s">
+      <c r="B250" s="73" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B251" s="21" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B252" s="22" t="s">
-        <v>213</v>
+        <v>6247</v>
+      </c>
+      <c r="B252" s="41" t="s">
+        <v>6248</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="18" t="s">
-        <v>6248</v>
-      </c>
-      <c r="B253" s="45" t="s">
-        <v>6249</v>
+      <c r="A253" s="17" t="s">
+        <v>6387</v>
+      </c>
+      <c r="B253" s="41" t="s">
+        <v>6386</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="19" t="s">
+      <c r="A254" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="B254" s="45" t="s">
+      <c r="B254" s="41" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="19" t="s">
+      <c r="A255" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B255" s="45" t="s">
+      <c r="B255" s="41" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="21" t="s">
+      <c r="A256" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B256" s="24" t="s">
+      <c r="B256" s="23" t="s">
         <v>223</v>
       </c>
     </row>
@@ -21956,26 +22034,26 @@
       <c r="B258" s="11"/>
     </row>
     <row r="259" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="91" t="s">
+      <c r="A259" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="B259" s="77" t="s">
+      <c r="B259" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" s="17" t="s">
+      <c r="A260" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B260" s="22" t="s">
+      <c r="B260" s="21" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="21" t="s">
+      <c r="A261" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B261" s="24" t="s">
+      <c r="B261" s="23" t="s">
         <v>280</v>
       </c>
     </row>
@@ -21988,58 +22066,58 @@
       <c r="B263" s="11"/>
     </row>
     <row r="264" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="91" t="s">
+      <c r="A264" s="87" t="s">
         <v>343</v>
       </c>
-      <c r="B264" s="77" t="s">
+      <c r="B264" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" s="75" t="s">
+      <c r="A265" s="71" t="s">
         <v>344</v>
       </c>
-      <c r="B265" s="22" t="s">
+      <c r="B265" s="21" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" s="19" t="s">
+      <c r="A266" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B266" s="45" t="s">
+      <c r="B266" s="41" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" s="19" t="s">
+      <c r="A267" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B267" s="45" t="s">
+      <c r="B267" s="41" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="19" t="s">
+      <c r="A268" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B268" s="45" t="s">
+      <c r="B268" s="41" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="18" t="s">
+      <c r="A269" s="17" t="s">
+        <v>6323</v>
+      </c>
+      <c r="B269" s="41" t="s">
         <v>6324</v>
       </c>
-      <c r="B269" s="45" t="s">
-        <v>6325</v>
-      </c>
     </row>
     <row r="270" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="21" t="s">
+      <c r="A270" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B270" s="24" t="s">
+      <c r="B270" s="23" t="s">
         <v>217</v>
       </c>
     </row>
@@ -22052,18 +22130,18 @@
       <c r="B272" s="11"/>
     </row>
     <row r="273" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="91" t="s">
+      <c r="A273" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="B273" s="77" t="s">
+      <c r="B273" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="60" t="s">
+      <c r="A274" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="B274" s="61" t="s">
+      <c r="B274" s="57" t="s">
         <v>251</v>
       </c>
     </row>
@@ -22076,58 +22154,58 @@
       <c r="B276" s="11"/>
     </row>
     <row r="277" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="76" t="s">
-        <v>6366</v>
-      </c>
-      <c r="B277" s="77" t="s">
+      <c r="A277" s="72" t="s">
+        <v>6365</v>
+      </c>
+      <c r="B277" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="43" t="s">
+      <c r="A278" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B278" s="53" t="s">
+      <c r="B278" s="49" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" s="19" t="s">
+      <c r="A279" s="18" t="s">
         <v>6087</v>
       </c>
-      <c r="B279" s="45" t="s">
+      <c r="B279" s="41" t="s">
         <v>6088</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" s="19" t="s">
+      <c r="A280" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="B280" s="45" t="s">
+      <c r="B280" s="41" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" s="19" t="s">
+      <c r="A281" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B281" s="45" t="s">
+      <c r="B281" s="41" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" s="19" t="s">
+      <c r="A282" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="B282" s="45" t="s">
+      <c r="B282" s="41" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="21" t="s">
+      <c r="A283" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B283" s="24" t="s">
+      <c r="B283" s="23" t="s">
         <v>212</v>
       </c>
     </row>
@@ -22140,34 +22218,34 @@
       <c r="B285" s="11"/>
     </row>
     <row r="286" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="91" t="s">
+      <c r="A286" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="B286" s="77" t="s">
+      <c r="B286" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" s="17" t="s">
+      <c r="A287" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B287" s="22" t="s">
+      <c r="B287" s="21" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" s="19" t="s">
+      <c r="A288" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B288" s="45" t="s">
+      <c r="B288" s="41" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="21" t="s">
+      <c r="A289" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B289" s="24" t="s">
+      <c r="B289" s="23" t="s">
         <v>224</v>
       </c>
     </row>
@@ -22180,114 +22258,114 @@
       <c r="B291" s="11"/>
     </row>
     <row r="292" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="91" t="s">
+      <c r="A292" s="87" t="s">
         <v>364</v>
       </c>
-      <c r="B292" s="77" t="s">
+      <c r="B292" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="17" t="s">
+      <c r="A293" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B293" s="22" t="s">
+      <c r="B293" s="21" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="19" t="s">
+      <c r="A294" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="B294" s="45" t="s">
+      <c r="B294" s="41" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="18" t="s">
+      <c r="A295" s="17" t="s">
+        <v>6357</v>
+      </c>
+      <c r="B295" s="41" t="s">
         <v>6358</v>
       </c>
-      <c r="B295" s="45" t="s">
-        <v>6359</v>
-      </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="18" t="s">
+      <c r="A296" s="17" t="s">
+        <v>6268</v>
+      </c>
+      <c r="B296" s="41" t="s">
         <v>6269</v>
       </c>
-      <c r="B296" s="45" t="s">
-        <v>6270</v>
-      </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="19" t="s">
+      <c r="A297" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="B297" s="45" t="s">
+      <c r="B297" s="41" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="18" t="s">
+      <c r="A298" s="17" t="s">
+        <v>6278</v>
+      </c>
+      <c r="B298" s="41" t="s">
         <v>6279</v>
       </c>
-      <c r="B298" s="45" t="s">
-        <v>6280</v>
-      </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="19" t="s">
+      <c r="A299" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B299" s="45" t="s">
+      <c r="B299" s="41" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="19" t="s">
+      <c r="A300" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B300" s="45" t="s">
+      <c r="B300" s="41" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="19" t="s">
+      <c r="A301" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="B301" s="45" t="s">
+      <c r="B301" s="41" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="19" t="s">
+      <c r="A302" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B302" s="45" t="s">
+      <c r="B302" s="41" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="19" t="s">
+      <c r="A303" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="B303" s="45" t="s">
+      <c r="B303" s="41" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="19" t="s">
+      <c r="A304" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B304" s="45" t="s">
+      <c r="B304" s="41" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="21" t="s">
+      <c r="A305" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B305" s="24" t="s">
+      <c r="B305" s="23" t="s">
         <v>244</v>
       </c>
     </row>
@@ -22300,18 +22378,18 @@
       <c r="B307" s="11"/>
     </row>
     <row r="308" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="91" t="s">
+      <c r="A308" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="B308" s="77" t="s">
+      <c r="B308" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="60" t="s">
+      <c r="A309" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="B309" s="61" t="s">
+      <c r="B309" s="57" t="s">
         <v>235</v>
       </c>
     </row>
@@ -22324,1340 +22402,1363 @@
       <c r="B311" s="11"/>
     </row>
     <row r="312" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="91" t="s">
-        <v>6368</v>
-      </c>
-      <c r="B312" s="77" t="s">
+      <c r="A312" s="87" t="s">
+        <v>6367</v>
+      </c>
+      <c r="B312" s="73" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="59" t="s">
+      <c r="A313" s="55" t="s">
         <v>6063</v>
       </c>
-      <c r="B313" s="22" t="s">
+      <c r="B313" s="21" t="s">
         <v>6062</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="62" t="s">
+      <c r="A314" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B314" s="63" t="s">
+      <c r="B314" s="59" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" s="20" t="s">
+      <c r="A315" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B315" s="47" t="s">
+      <c r="B315" s="43" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="46" t="s">
+      <c r="A316" s="42" t="s">
         <v>6093</v>
       </c>
-      <c r="B316" s="47" t="s">
-        <v>6303</v>
+      <c r="B316" s="43" t="s">
+        <v>6302</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="47" t="s">
+      <c r="A317" s="43" t="s">
+        <v>6232</v>
+      </c>
+      <c r="B317" s="59" t="s">
         <v>6233</v>
       </c>
-      <c r="B317" s="63" t="s">
-        <v>6234</v>
-      </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="47" t="s">
+      <c r="A318" s="43" t="s">
+        <v>6239</v>
+      </c>
+      <c r="B318" s="59" t="s">
         <v>6240</v>
       </c>
-      <c r="B318" s="63" t="s">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="43" t="s">
         <v>6241</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="47" t="s">
+      <c r="B319" s="59" t="s">
         <v>6242</v>
       </c>
-      <c r="B319" s="63" t="s">
-        <v>6243</v>
-      </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="47" t="s">
+      <c r="A320" s="97" t="s">
+        <v>6375</v>
+      </c>
+      <c r="B320" s="59" t="s">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="43" t="s">
+        <v>6340</v>
+      </c>
+      <c r="B321" s="59" t="s">
         <v>6341</v>
       </c>
-      <c r="B320" s="63" t="s">
-        <v>6342</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="47" t="s">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="43" t="s">
+        <v>6228</v>
+      </c>
+      <c r="B322" s="59" t="s">
         <v>6229</v>
       </c>
-      <c r="B321" s="63" t="s">
-        <v>6230</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="47" t="s">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="43" t="s">
+        <v>6219</v>
+      </c>
+      <c r="B323" s="59" t="s">
         <v>6220</v>
       </c>
-      <c r="B322" s="63" t="s">
-        <v>6221</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="47" t="s">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="43" t="s">
         <v>6093</v>
       </c>
-      <c r="B323" s="63" t="s">
+      <c r="B324" s="59" t="s">
         <v>6094</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="47" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="B324" s="63" t="s">
+      <c r="B325" s="59" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="47" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="B325" s="47" t="s">
+      <c r="B326" s="43" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="19" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B326" s="45" t="s">
+      <c r="B327" s="41" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="21" t="s">
+    <row r="328" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B327" s="24" t="s">
+      <c r="B328" s="23" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="10"/>
-      <c r="B328" s="11"/>
-    </row>
-    <row r="329" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="10"/>
       <c r="B329" s="11"/>
     </row>
     <row r="330" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="91" t="s">
+      <c r="A330" s="10"/>
+      <c r="B330" s="11"/>
+    </row>
+    <row r="331" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="87" t="s">
+        <v>6369</v>
+      </c>
+      <c r="B331" s="73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="75" t="s">
+        <v>6303</v>
+      </c>
+      <c r="B332" s="21" t="s">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="17" t="s">
+        <v>6308</v>
+      </c>
+      <c r="B333" s="41" t="s">
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="63" t="s">
+        <v>6257</v>
+      </c>
+      <c r="B334" s="59" t="s">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="63" t="s">
+        <v>6259</v>
+      </c>
+      <c r="B335" s="59" t="s">
+        <v>6260</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="17" t="s">
+        <v>6327</v>
+      </c>
+      <c r="B336" s="41" t="s">
+        <v>6326</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="17" t="s">
+        <v>6270</v>
+      </c>
+      <c r="B337" s="41" t="s">
+        <v>6271</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="18" t="s">
+        <v>6104</v>
+      </c>
+      <c r="B338" s="41" t="s">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B339" s="41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B340" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B341" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="10"/>
+      <c r="B342" s="11"/>
+    </row>
+    <row r="343" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="87" t="s">
         <v>6370</v>
       </c>
-      <c r="B330" s="77" t="s">
+      <c r="B343" s="73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" s="79" t="s">
-        <v>6304</v>
-      </c>
-      <c r="B331" s="22" t="s">
-        <v>6305</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="18" t="s">
-        <v>6309</v>
-      </c>
-      <c r="B332" s="45" t="s">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B344" s="41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B345" s="41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B346" s="41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B347" s="41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="63" t="s">
+        <v>6166</v>
+      </c>
+      <c r="B348" s="59" t="s">
+        <v>6167</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B349" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="10"/>
+      <c r="B350" s="11"/>
+    </row>
+    <row r="351" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="10"/>
+      <c r="B351" s="11"/>
+    </row>
+    <row r="352" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B352" s="73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B353" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B354" s="41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B355" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="10"/>
+      <c r="B356" s="11"/>
+    </row>
+    <row r="357" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="10"/>
+      <c r="B357" s="11"/>
+    </row>
+    <row r="358" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B358" s="73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B359" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="17" t="s">
+        <v>6170</v>
+      </c>
+      <c r="B360" s="41" t="s">
+        <v>6171</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="17" t="s">
+        <v>6168</v>
+      </c>
+      <c r="B361" s="41" t="s">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="17" t="s">
+        <v>6161</v>
+      </c>
+      <c r="B362" s="41"/>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="17" t="s">
+        <v>6162</v>
+      </c>
+      <c r="B363" s="41" t="s">
+        <v>6165</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="17" t="s">
+        <v>6163</v>
+      </c>
+      <c r="B364" s="41" t="s">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="18" t="s">
+        <v>6098</v>
+      </c>
+      <c r="B365" s="41" t="s">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B366" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B367" s="41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B368" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="371" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="87" t="s">
+        <v>6368</v>
+      </c>
+      <c r="B371" s="73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="75" t="s">
         <v>6310</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="67" t="s">
-        <v>6258</v>
-      </c>
-      <c r="B333" s="63" t="s">
-        <v>6259</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="67" t="s">
-        <v>6260</v>
-      </c>
-      <c r="B334" s="63" t="s">
+      <c r="B372" s="21" t="s">
+        <v>6311</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="17" t="s">
+        <v>6097</v>
+      </c>
+      <c r="B373" s="41" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="17" t="s">
+        <v>6102</v>
+      </c>
+      <c r="B374" s="41" t="s">
+        <v>6344</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="17" t="s">
+        <v>6204</v>
+      </c>
+      <c r="B375" s="41" t="s">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B376" s="41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="17" t="s">
+        <v>6262</v>
+      </c>
+      <c r="B377" s="41" t="s">
         <v>6261</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" s="18" t="s">
-        <v>6328</v>
-      </c>
-      <c r="B335" s="45" t="s">
-        <v>6327</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="18" t="s">
-        <v>6271</v>
-      </c>
-      <c r="B336" s="45" t="s">
-        <v>6272</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="19" t="s">
-        <v>6104</v>
-      </c>
-      <c r="B337" s="45" t="s">
-        <v>6103</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B338" s="45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B339" s="45" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B340" s="24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="10"/>
-      <c r="B341" s="11"/>
-    </row>
-    <row r="342" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="91" t="s">
-        <v>6371</v>
-      </c>
-      <c r="B342" s="77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B343" s="45" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B344" s="45" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B345" s="45" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B346" s="45" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B347" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" s="10"/>
-      <c r="B348" s="11"/>
-    </row>
-    <row r="349" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="10"/>
-      <c r="B349" s="11"/>
-    </row>
-    <row r="350" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="B350" s="77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B351" s="22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B352" s="45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B353" s="24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" s="10"/>
-      <c r="B354" s="11"/>
-    </row>
-    <row r="355" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="10"/>
-      <c r="B355" s="11"/>
-    </row>
-    <row r="356" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B356" s="77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B357" s="22" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" s="18" t="s">
-        <v>6171</v>
-      </c>
-      <c r="B358" s="45" t="s">
-        <v>6172</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="18" t="s">
-        <v>6169</v>
-      </c>
-      <c r="B359" s="45" t="s">
-        <v>6170</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" s="18" t="s">
-        <v>6162</v>
-      </c>
-      <c r="B360" s="45"/>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361" s="18" t="s">
-        <v>6163</v>
-      </c>
-      <c r="B361" s="45" t="s">
-        <v>6166</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" s="18" t="s">
-        <v>6164</v>
-      </c>
-      <c r="B362" s="45" t="s">
-        <v>6165</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" s="19" t="s">
-        <v>6098</v>
-      </c>
-      <c r="B363" s="45" t="s">
-        <v>6099</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B364" s="45" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B365" s="45" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B366" s="24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="369" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="91" t="s">
-        <v>6369</v>
-      </c>
-      <c r="B369" s="77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370" s="79" t="s">
-        <v>6311</v>
-      </c>
-      <c r="B370" s="22" t="s">
-        <v>6312</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371" s="18" t="s">
-        <v>6097</v>
-      </c>
-      <c r="B371" s="45" t="s">
-        <v>6096</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A372" s="18" t="s">
-        <v>6102</v>
-      </c>
-      <c r="B372" s="45" t="s">
-        <v>6345</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A373" s="18" t="s">
-        <v>6205</v>
-      </c>
-      <c r="B373" s="45" t="s">
-        <v>6206</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="B374" s="45" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375" s="18" t="s">
-        <v>6263</v>
-      </c>
-      <c r="B375" s="45" t="s">
-        <v>6262</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A376" s="18" t="s">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="17" t="s">
         <v>6054</v>
       </c>
-      <c r="B376" s="45" t="s">
+      <c r="B378" s="41" t="s">
         <v>6055</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A377" s="18" t="s">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="17" t="s">
+        <v>6214</v>
+      </c>
+      <c r="B379" s="41" t="s">
         <v>6215</v>
-      </c>
-      <c r="B377" s="45" t="s">
-        <v>6216</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A378" s="19" t="s">
-        <v>6102</v>
-      </c>
-      <c r="B378" s="45" t="s">
-        <v>6101</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B379" s="45" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="18" t="s">
+        <v>6102</v>
+      </c>
+      <c r="B380" s="41" t="s">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B381" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="17" t="s">
         <v>4101</v>
       </c>
-      <c r="B380" s="45" t="s">
+      <c r="B382" s="41" t="s">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B383" s="41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="17" t="s">
+        <v>6223</v>
+      </c>
+      <c r="B384" s="41" t="s">
+        <v>6224</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="81" t="s">
+        <v>6133</v>
+      </c>
+      <c r="B385" s="23" t="s">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="90"/>
+      <c r="B386" s="91"/>
+    </row>
+    <row r="387" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="388" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="87" t="s">
+        <v>6371</v>
+      </c>
+      <c r="B388" s="73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="63" t="s">
+        <v>6235</v>
+      </c>
+      <c r="B389" s="59" t="s">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="63" t="s">
+        <v>6253</v>
+      </c>
+      <c r="B390" s="59" t="s">
+        <v>6254</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="B391" s="59" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="B392" s="80" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="395" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="87" t="s">
+        <v>6372</v>
+      </c>
+      <c r="B395" s="73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="17" t="s">
+        <v>6347</v>
+      </c>
+      <c r="B396" s="41" t="s">
+        <v>6348</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="17" t="s">
+        <v>6252</v>
+      </c>
+      <c r="B397" s="41" t="s">
+        <v>6251</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="17" t="s">
+        <v>6255</v>
+      </c>
+      <c r="B398" s="41" t="s">
+        <v>6256</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="17" t="s">
+        <v>6263</v>
+      </c>
+      <c r="B399" s="41" t="s">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="17" t="s">
+        <v>6237</v>
+      </c>
+      <c r="B400" s="41" t="s">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="17" t="s">
+        <v>6208</v>
+      </c>
+      <c r="B401" s="41" t="s">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="17" t="s">
+        <v>6210</v>
+      </c>
+      <c r="B402" s="41" t="s">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="17" t="s">
+        <v>6212</v>
+      </c>
+      <c r="B403" s="41" t="s">
+        <v>6213</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="44" t="s">
+        <v>6217</v>
+      </c>
+      <c r="B404" s="41" t="s">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="17" t="s">
+        <v>6221</v>
+      </c>
+      <c r="B405" s="41" t="s">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="17" t="s">
         <v>6226</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B381" s="45" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382" s="18" t="s">
-        <v>6224</v>
-      </c>
-      <c r="B382" s="45" t="s">
-        <v>6225</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="85" t="s">
-        <v>6133</v>
-      </c>
-      <c r="B383" s="24" t="s">
-        <v>6134</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384" s="94"/>
-      <c r="B384" s="95"/>
-    </row>
-    <row r="385" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="386" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="91" t="s">
-        <v>6372</v>
-      </c>
-      <c r="B386" s="77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387" s="67" t="s">
-        <v>6236</v>
-      </c>
-      <c r="B387" s="63" t="s">
-        <v>6237</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" s="67" t="s">
-        <v>6254</v>
-      </c>
-      <c r="B388" s="63" t="s">
-        <v>6255</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="B389" s="63" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="71" t="s">
-        <v>298</v>
-      </c>
-      <c r="B390" s="84" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="393" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="91" t="s">
-        <v>6373</v>
-      </c>
-      <c r="B393" s="77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394" s="18" t="s">
-        <v>6348</v>
-      </c>
-      <c r="B394" s="45" t="s">
-        <v>6349</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395" s="18" t="s">
-        <v>6253</v>
-      </c>
-      <c r="B395" s="45" t="s">
-        <v>6252</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396" s="18" t="s">
-        <v>6256</v>
-      </c>
-      <c r="B396" s="45" t="s">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" s="18" t="s">
-        <v>6264</v>
-      </c>
-      <c r="B397" s="45" t="s">
-        <v>6265</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" s="18" t="s">
-        <v>6238</v>
-      </c>
-      <c r="B398" s="45" t="s">
-        <v>6239</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" s="18" t="s">
-        <v>6209</v>
-      </c>
-      <c r="B399" s="45" t="s">
-        <v>6210</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" s="18" t="s">
-        <v>6211</v>
-      </c>
-      <c r="B400" s="45" t="s">
-        <v>6212</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" s="18" t="s">
-        <v>6213</v>
-      </c>
-      <c r="B401" s="45" t="s">
-        <v>6214</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402" s="48" t="s">
-        <v>6218</v>
-      </c>
-      <c r="B402" s="45" t="s">
-        <v>6219</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403" s="18" t="s">
-        <v>6222</v>
-      </c>
-      <c r="B403" s="45" t="s">
-        <v>6223</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" s="18" t="s">
+      <c r="B406" s="41" t="s">
         <v>6227</v>
-      </c>
-      <c r="B404" s="45" t="s">
-        <v>6228</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B405" s="45" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406" s="19" t="s">
-        <v>6078</v>
-      </c>
-      <c r="B406" s="45" t="s">
-        <v>6079</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="18" t="s">
-        <v>6308</v>
-      </c>
-      <c r="B407" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B407" s="41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="18" t="s">
+        <v>6078</v>
+      </c>
+      <c r="B408" s="41" t="s">
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="17" t="s">
         <v>6307</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" s="19" t="s">
+      <c r="B409" s="41" t="s">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B408" s="45" t="s">
+      <c r="B410" s="41" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409" s="49" t="s">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="B409" s="69" t="s">
+      <c r="B411" s="65" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" s="62" t="s">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B410" s="63" t="s">
+      <c r="B412" s="59" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="21" t="s">
+    <row r="413" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B411" s="24" t="s">
+      <c r="B413" s="23" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" s="10"/>
-      <c r="B412" s="11"/>
-    </row>
-    <row r="413" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="10"/>
-      <c r="B413" s="11"/>
-    </row>
-    <row r="414" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="91" t="s">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="10"/>
+      <c r="B414" s="11"/>
+    </row>
+    <row r="415" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="10"/>
+      <c r="B415" s="11"/>
+    </row>
+    <row r="416" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="B414" s="77" t="s">
+      <c r="B416" s="73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415" s="17" t="s">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B415" s="22" t="s">
+      <c r="B417" s="21" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="B416" s="45" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" s="18" t="s">
-        <v>6290</v>
-      </c>
-      <c r="B417" s="45" t="s">
-        <v>6291</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B418" s="41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="17" t="s">
+        <v>6289</v>
+      </c>
+      <c r="B419" s="41" t="s">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="17" t="s">
+        <v>6287</v>
+      </c>
+      <c r="B420" s="41" t="s">
         <v>6288</v>
       </c>
-      <c r="B418" s="45" t="s">
-        <v>6289</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" s="18" t="s">
-        <v>6283</v>
-      </c>
-      <c r="B419" s="45" t="s">
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="17" t="s">
+        <v>6282</v>
+      </c>
+      <c r="B421" s="41" t="s">
         <v>6083</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420" s="18" t="s">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="17" t="s">
+        <v>6285</v>
+      </c>
+      <c r="B422" s="41" t="s">
         <v>6286</v>
       </c>
-      <c r="B420" s="45" t="s">
-        <v>6287</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" s="18" t="s">
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="17" t="s">
+        <v>6377</v>
+      </c>
+      <c r="B423" s="41" t="s">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="17" t="s">
+        <v>6280</v>
+      </c>
+      <c r="B424" s="41" t="s">
         <v>6281</v>
       </c>
-      <c r="B421" s="45" t="s">
-        <v>6282</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" s="18" t="s">
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="17" t="s">
+        <v>6298</v>
+      </c>
+      <c r="B425" s="41" t="s">
         <v>6299</v>
       </c>
-      <c r="B422" s="45" t="s">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" s="18" t="s">
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="17" t="s">
         <v>6136</v>
       </c>
-      <c r="B423" s="45" t="s">
+      <c r="B426" s="41" t="s">
         <v>6137</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" s="18" t="s">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="17" t="s">
+        <v>6230</v>
+      </c>
+      <c r="B427" s="41" t="s">
         <v>6231</v>
-      </c>
-      <c r="B424" s="45" t="s">
-        <v>6232</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425" s="19" t="s">
-        <v>6082</v>
-      </c>
-      <c r="B425" s="45" t="s">
-        <v>6083</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="B426" s="45" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" s="19" t="s">
-        <v>6066</v>
-      </c>
-      <c r="B427" s="45" t="s">
-        <v>6067</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="18" t="s">
+        <v>6082</v>
+      </c>
+      <c r="B428" s="41" t="s">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B429" s="41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="18" t="s">
+        <v>6066</v>
+      </c>
+      <c r="B430" s="41" t="s">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="17" t="s">
+        <v>6296</v>
+      </c>
+      <c r="B431" s="41" t="s">
         <v>6297</v>
       </c>
-      <c r="B428" s="45" t="s">
-        <v>6298</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" s="19" t="s">
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="18" t="s">
         <v>6056</v>
       </c>
-      <c r="B429" s="45" t="s">
+      <c r="B432" s="41" t="s">
         <v>6057</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" s="49" t="s">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="45" t="s">
         <v>320</v>
       </c>
-      <c r="B430" s="45" t="s">
+      <c r="B433" s="41" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="86" t="s">
+    <row r="434" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="82" t="s">
         <v>377</v>
       </c>
-      <c r="B431" s="24" t="s">
+      <c r="B434" s="23" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" s="4"/>
-      <c r="B432" s="11"/>
-    </row>
-    <row r="433" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="4"/>
-      <c r="B433" s="11"/>
-    </row>
-    <row r="434" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="91" t="s">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="4"/>
+      <c r="B435" s="11"/>
+    </row>
+    <row r="436" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="4"/>
+      <c r="B436" s="11"/>
+    </row>
+    <row r="437" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="87" t="s">
         <v>392</v>
       </c>
-      <c r="B434" s="77" t="s">
+      <c r="B437" s="73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" s="80" t="s">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="76" t="s">
+        <v>6274</v>
+      </c>
+      <c r="B438" s="79" t="s">
         <v>6275</v>
       </c>
-      <c r="B435" s="83" t="s">
-        <v>6276</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" s="68" t="s">
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="64" t="s">
+        <v>6316</v>
+      </c>
+      <c r="B439" s="59" t="s">
         <v>6317</v>
       </c>
-      <c r="B436" s="63" t="s">
-        <v>6318</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" s="19" t="s">
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B437" s="63" t="s">
+      <c r="B440" s="59" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" s="68" t="s">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="64" t="s">
+        <v>6200</v>
+      </c>
+      <c r="B441" s="59" t="s">
         <v>6201</v>
       </c>
-      <c r="B438" s="63" t="s">
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="64" t="s">
         <v>6202</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" s="68" t="s">
+      <c r="B442" s="59" t="s">
         <v>6203</v>
       </c>
-      <c r="B439" s="63" t="s">
-        <v>6204</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440" s="68" t="s">
-        <v>6200</v>
-      </c>
-      <c r="B440" s="63" t="s">
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="64" t="s">
+        <v>6199</v>
+      </c>
+      <c r="B443" s="59" t="s">
         <v>5167</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A441" s="68" t="s">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="64" t="s">
+        <v>6197</v>
+      </c>
+      <c r="B444" s="59" t="s">
         <v>6198</v>
       </c>
-      <c r="B441" s="63" t="s">
-        <v>6199</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442" s="68" t="s">
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="64" t="s">
+        <v>6195</v>
+      </c>
+      <c r="B445" s="59" t="s">
         <v>6196</v>
       </c>
-      <c r="B442" s="63" t="s">
-        <v>6197</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443" s="67" t="s">
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="63" t="s">
         <v>6046</v>
       </c>
-      <c r="B443" s="63" t="s">
+      <c r="B446" s="59" t="s">
         <v>6047</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444" s="68" t="s">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="64" t="s">
         <v>1882</v>
       </c>
-      <c r="B444" s="63" t="s">
-        <v>6292</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="82" t="s">
+      <c r="B447" s="59" t="s">
+        <v>6291</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="78" t="s">
         <v>4582</v>
       </c>
-      <c r="B445" s="84" t="s">
+      <c r="B448" s="80" t="s">
         <v>6080</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446" s="10"/>
-      <c r="B446" s="11"/>
-    </row>
-    <row r="447" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="10"/>
-      <c r="B447" s="11"/>
-    </row>
-    <row r="448" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="91" t="s">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="10"/>
+      <c r="B449" s="11"/>
+    </row>
+    <row r="450" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="10"/>
+      <c r="B450" s="11"/>
+    </row>
+    <row r="451" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="87" t="s">
         <v>401</v>
       </c>
-      <c r="B448" s="77" t="s">
+      <c r="B451" s="73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" s="59" t="s">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="B449" s="22" t="s">
+      <c r="B452" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" s="49" t="s">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="45" t="s">
         <v>6070</v>
       </c>
-      <c r="B450" s="45" t="s">
+      <c r="B453" s="41" t="s">
         <v>6071</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" s="19" t="s">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="B451" s="45" t="s">
+      <c r="B454" s="41" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" s="19" t="s">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="B452" s="45" t="s">
+      <c r="B455" s="41" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" s="19" t="s">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="B453" s="45" t="s">
+      <c r="B456" s="41" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" s="19" t="s">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="B454" s="45" t="s">
+      <c r="B457" s="41" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="21" t="s">
+    <row r="458" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B455" s="24" t="s">
+      <c r="B458" s="23" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" s="10"/>
-      <c r="B456" s="11"/>
-    </row>
-    <row r="457" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="12"/>
-      <c r="B457" s="11"/>
-    </row>
-    <row r="458" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="91" t="s">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="10"/>
+      <c r="B459" s="11"/>
+    </row>
+    <row r="460" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="12"/>
+      <c r="B460" s="11"/>
+    </row>
+    <row r="461" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="87" t="s">
         <v>6064</v>
       </c>
-      <c r="B458" s="77" t="s">
+      <c r="B461" s="73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" s="79" t="s">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="75" t="s">
         <v>2832</v>
       </c>
-      <c r="B459" s="22" t="s">
+      <c r="B462" s="21" t="s">
         <v>6065</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" s="18" t="s">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="17" t="s">
         <v>3739</v>
       </c>
-      <c r="B460" s="45" t="s">
+      <c r="B463" s="41" t="s">
         <v>6100</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" s="18" t="s">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="17" t="s">
         <v>3224</v>
       </c>
-      <c r="B461" s="45" t="s">
+      <c r="B464" s="41" t="s">
         <v>6081</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="85" t="s">
+    <row r="465" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="81" t="s">
         <v>6076</v>
       </c>
-      <c r="B462" s="24" t="s">
+      <c r="B465" s="23" t="s">
         <v>6077</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463" s="12"/>
-      <c r="B463" s="11"/>
-    </row>
-    <row r="464" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="4"/>
-    </row>
-    <row r="465" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="91" t="s">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="12"/>
+      <c r="B466" s="11"/>
+    </row>
+    <row r="467" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="4"/>
+    </row>
+    <row r="468" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="87" t="s">
         <v>6105</v>
       </c>
-      <c r="B465" s="77" t="s">
+      <c r="B468" s="73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A466" s="79" t="s">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="75" t="s">
         <v>6106</v>
       </c>
-      <c r="B466" s="22" t="s">
+      <c r="B469" s="21" t="s">
         <v>6118</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A467" s="18" t="s">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="17" t="s">
         <v>6107</v>
       </c>
-      <c r="B467" s="45" t="s">
+      <c r="B470" s="41" t="s">
         <v>6117</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" s="18" t="s">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="17" t="s">
         <v>6108</v>
       </c>
-      <c r="B468" s="45"/>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A469" s="18" t="s">
+      <c r="B471" s="41"/>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="17" t="s">
         <v>6109</v>
       </c>
-      <c r="B469" s="45"/>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A470" s="18" t="s">
+      <c r="B472" s="41"/>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="17" t="s">
         <v>6110</v>
       </c>
-      <c r="B470" s="45"/>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A471" s="18" t="s">
+      <c r="B473" s="41"/>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="17" t="s">
         <v>6111</v>
       </c>
-      <c r="B471" s="45" t="s">
+      <c r="B474" s="41" t="s">
         <v>6116</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A472" s="18" t="s">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="17" t="s">
         <v>6112</v>
       </c>
-      <c r="B472" s="45" t="s">
+      <c r="B475" s="41" t="s">
         <v>6115</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A473" s="18" t="s">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="17" t="s">
         <v>6113</v>
       </c>
-      <c r="B473" s="45" t="s">
+      <c r="B476" s="41" t="s">
         <v>6114</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A474" s="18" t="s">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="17" t="s">
         <v>6119</v>
       </c>
-      <c r="B474" s="45"/>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A475" s="18" t="s">
+      <c r="B477" s="41"/>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="17" t="s">
         <v>6141</v>
       </c>
-      <c r="B475" s="45" t="s">
+      <c r="B478" s="41" t="s">
         <v>6140</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A476" s="18" t="s">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="17" t="s">
         <v>6142</v>
       </c>
-      <c r="B476" s="45" t="s">
+      <c r="B479" s="41" t="s">
         <v>6143</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A477" s="18" t="s">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="17" t="s">
         <v>6144</v>
       </c>
-      <c r="B477" s="45" t="s">
+      <c r="B480" s="41" t="s">
         <v>6145</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A478" s="18" t="s">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="17" t="s">
         <v>6146</v>
       </c>
-      <c r="B478" s="45" t="s">
+      <c r="B481" s="41" t="s">
         <v>6147</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A479" s="18" t="s">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="17" t="s">
         <v>6148</v>
       </c>
-      <c r="B479" s="45" t="s">
+      <c r="B482" s="41" t="s">
         <v>6149</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480" s="18" t="s">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="17" t="s">
+        <v>6283</v>
+      </c>
+      <c r="B483" s="41" t="s">
         <v>6284</v>
       </c>
-      <c r="B480" s="45" t="s">
-        <v>6285</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A481" s="18" t="s">
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="17" t="s">
         <v>6150</v>
       </c>
-      <c r="B481" s="45" t="s">
+      <c r="B484" s="41" t="s">
         <v>6151</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482" s="18" t="s">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="17" t="s">
         <v>6152</v>
       </c>
-      <c r="B482" s="45" t="s">
+      <c r="B485" s="41" t="s">
         <v>6153</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" s="19" t="s">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="18" t="s">
         <v>6058</v>
       </c>
-      <c r="B483" s="45" t="s">
+      <c r="B486" s="41" t="s">
         <v>6059</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484" s="45" t="s">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="41" t="s">
+        <v>6336</v>
+      </c>
+      <c r="B487" s="41" t="s">
         <v>6337</v>
       </c>
-      <c r="B484" s="45" t="s">
-        <v>6338</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="24" t="s">
+    </row>
+    <row r="488" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="23" t="s">
+        <v>6345</v>
+      </c>
+      <c r="B488" s="23" t="s">
         <v>6346</v>
       </c>
-      <c r="B485" s="24" t="s">
-        <v>6347</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486" s="13"/>
-    </row>
-    <row r="487" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="13"/>
-    </row>
-    <row r="488" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="91" t="s">
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="13"/>
+    </row>
+    <row r="490" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="13"/>
+    </row>
+    <row r="491" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="87" t="s">
+        <v>6351</v>
+      </c>
+      <c r="B491" s="73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="74" t="s">
         <v>6352</v>
       </c>
-      <c r="B488" s="77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="78" t="s">
+      <c r="B492" s="69" t="s">
         <v>6353</v>
       </c>
-      <c r="B489" s="73" t="s">
-        <v>6354</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A490" s="4"/>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A491" s="4"/>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="4"/>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A21:B411"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A293" r:id="rId1"/>
     <hyperlink ref="A59" r:id="rId2"/>
-    <hyperlink ref="A405" r:id="rId3"/>
-    <hyperlink ref="A345" r:id="rId4"/>
-    <hyperlink ref="A389" r:id="rId5" display="https://github.com/UKHO/ADM-PSmodule"/>
-    <hyperlink ref="A408" r:id="rId6"/>
-    <hyperlink ref="A379" r:id="rId7"/>
-    <hyperlink ref="A346" r:id="rId8"/>
-    <hyperlink ref="A410" r:id="rId9"/>
-    <hyperlink ref="A411" r:id="rId10"/>
-    <hyperlink ref="A381" r:id="rId11"/>
+    <hyperlink ref="A407" r:id="rId3"/>
+    <hyperlink ref="A346" r:id="rId4"/>
+    <hyperlink ref="A391" r:id="rId5" display="https://github.com/UKHO/ADM-PSmodule"/>
+    <hyperlink ref="A410" r:id="rId6"/>
+    <hyperlink ref="A381" r:id="rId7"/>
+    <hyperlink ref="A347" r:id="rId8"/>
+    <hyperlink ref="A412" r:id="rId9"/>
+    <hyperlink ref="A413" r:id="rId10"/>
+    <hyperlink ref="A383" r:id="rId11"/>
     <hyperlink ref="A58" r:id="rId12"/>
-    <hyperlink ref="A5" r:id="rId13"/>
-    <hyperlink ref="A12" r:id="rId14"/>
-    <hyperlink ref="A13" r:id="rId15"/>
-    <hyperlink ref="A366" r:id="rId16"/>
-    <hyperlink ref="A365" r:id="rId17"/>
-    <hyperlink ref="A364" r:id="rId18"/>
-    <hyperlink ref="A357" r:id="rId19"/>
-    <hyperlink ref="A353" r:id="rId20"/>
-    <hyperlink ref="A352" r:id="rId21"/>
-    <hyperlink ref="A351" r:id="rId22"/>
-    <hyperlink ref="A339" r:id="rId23"/>
-    <hyperlink ref="A340" r:id="rId24"/>
-    <hyperlink ref="A338" r:id="rId25"/>
-    <hyperlink ref="A344" r:id="rId26"/>
-    <hyperlink ref="A343" r:id="rId27"/>
-    <hyperlink ref="A326" r:id="rId28"/>
-    <hyperlink ref="A327" r:id="rId29"/>
+    <hyperlink ref="A6" r:id="rId13"/>
+    <hyperlink ref="A13" r:id="rId14"/>
+    <hyperlink ref="A14" r:id="rId15"/>
+    <hyperlink ref="A368" r:id="rId16"/>
+    <hyperlink ref="A367" r:id="rId17"/>
+    <hyperlink ref="A366" r:id="rId18"/>
+    <hyperlink ref="A359" r:id="rId19"/>
+    <hyperlink ref="A355" r:id="rId20"/>
+    <hyperlink ref="A354" r:id="rId21"/>
+    <hyperlink ref="A353" r:id="rId22"/>
+    <hyperlink ref="A340" r:id="rId23"/>
+    <hyperlink ref="A341" r:id="rId24"/>
+    <hyperlink ref="A339" r:id="rId25"/>
+    <hyperlink ref="A345" r:id="rId26"/>
+    <hyperlink ref="A344" r:id="rId27"/>
+    <hyperlink ref="A327" r:id="rId28"/>
+    <hyperlink ref="A328" r:id="rId29"/>
     <hyperlink ref="A309" r:id="rId30"/>
     <hyperlink ref="A305" r:id="rId31"/>
     <hyperlink ref="A304" r:id="rId32"/>
@@ -23669,7 +23770,7 @@
     <hyperlink ref="A289" r:id="rId38"/>
     <hyperlink ref="A288" r:id="rId39"/>
     <hyperlink ref="A287" r:id="rId40"/>
-    <hyperlink ref="A415" r:id="rId41"/>
+    <hyperlink ref="A417" r:id="rId41"/>
     <hyperlink ref="A283" r:id="rId42"/>
     <hyperlink ref="A278" r:id="rId43"/>
     <hyperlink ref="A274" r:id="rId44"/>
@@ -23677,7 +23778,7 @@
     <hyperlink ref="A268" r:id="rId46"/>
     <hyperlink ref="A267" r:id="rId47"/>
     <hyperlink ref="A266" r:id="rId48"/>
-    <hyperlink ref="A26" r:id="rId49"/>
+    <hyperlink ref="A24" r:id="rId49"/>
     <hyperlink ref="A33" r:id="rId50"/>
     <hyperlink ref="A35" r:id="rId51"/>
     <hyperlink ref="A36" r:id="rId52"/>
@@ -23686,15 +23787,15 @@
     <hyperlink ref="A44" r:id="rId55"/>
     <hyperlink ref="A46" r:id="rId56"/>
     <hyperlink ref="A315" r:id="rId57"/>
-    <hyperlink ref="A160" r:id="rId58"/>
-    <hyperlink ref="A163" r:id="rId59"/>
-    <hyperlink ref="A165" r:id="rId60"/>
-    <hyperlink ref="A166" r:id="rId61"/>
-    <hyperlink ref="A167" r:id="rId62"/>
-    <hyperlink ref="A148" r:id="rId63"/>
-    <hyperlink ref="A147" r:id="rId64"/>
-    <hyperlink ref="A142" r:id="rId65"/>
-    <hyperlink ref="A252" r:id="rId66"/>
+    <hyperlink ref="A159" r:id="rId58"/>
+    <hyperlink ref="A162" r:id="rId59"/>
+    <hyperlink ref="A164" r:id="rId60"/>
+    <hyperlink ref="A165" r:id="rId61"/>
+    <hyperlink ref="A166" r:id="rId62"/>
+    <hyperlink ref="A147" r:id="rId63"/>
+    <hyperlink ref="A146" r:id="rId64"/>
+    <hyperlink ref="A141" r:id="rId65"/>
+    <hyperlink ref="A251" r:id="rId66"/>
     <hyperlink ref="A255" r:id="rId67"/>
     <hyperlink ref="A256" r:id="rId68"/>
     <hyperlink ref="A261" r:id="rId69"/>
@@ -23702,102 +23803,102 @@
     <hyperlink ref="A57" r:id="rId71"/>
     <hyperlink ref="A60" r:id="rId72"/>
     <hyperlink ref="A61" r:id="rId73"/>
-    <hyperlink ref="A247" r:id="rId74"/>
-    <hyperlink ref="A248" r:id="rId75"/>
+    <hyperlink ref="A246" r:id="rId74"/>
+    <hyperlink ref="A247" r:id="rId75"/>
     <hyperlink ref="A243" r:id="rId76"/>
     <hyperlink ref="A239" r:id="rId77"/>
     <hyperlink ref="A235" r:id="rId78"/>
     <hyperlink ref="A233" r:id="rId79"/>
     <hyperlink ref="A65" r:id="rId80"/>
-    <hyperlink ref="A85" r:id="rId81"/>
-    <hyperlink ref="A92" r:id="rId82"/>
+    <hyperlink ref="A83" r:id="rId81"/>
+    <hyperlink ref="A90" r:id="rId82"/>
     <hyperlink ref="A314" r:id="rId83"/>
-    <hyperlink ref="A94" r:id="rId84"/>
-    <hyperlink ref="A93" r:id="rId85"/>
-    <hyperlink ref="A95" r:id="rId86"/>
-    <hyperlink ref="A226" r:id="rId87"/>
-    <hyperlink ref="A228" r:id="rId88"/>
-    <hyperlink ref="A227" r:id="rId89"/>
-    <hyperlink ref="A229" r:id="rId90"/>
-    <hyperlink ref="A230" r:id="rId91"/>
-    <hyperlink ref="A225" r:id="rId92"/>
-    <hyperlink ref="A224" r:id="rId93"/>
-    <hyperlink ref="A223" r:id="rId94"/>
-    <hyperlink ref="A217" r:id="rId95"/>
-    <hyperlink ref="A216" r:id="rId96"/>
-    <hyperlink ref="A108" r:id="rId97"/>
-    <hyperlink ref="A109" r:id="rId98"/>
-    <hyperlink ref="A110" r:id="rId99"/>
-    <hyperlink ref="A111" r:id="rId100"/>
-    <hyperlink ref="A112" r:id="rId101"/>
-    <hyperlink ref="A114" r:id="rId102"/>
-    <hyperlink ref="A118" r:id="rId103"/>
-    <hyperlink ref="A125" r:id="rId104"/>
-    <hyperlink ref="A127" r:id="rId105"/>
-    <hyperlink ref="A113" r:id="rId106"/>
-    <hyperlink ref="A128" r:id="rId107"/>
-    <hyperlink ref="A129" r:id="rId108"/>
-    <hyperlink ref="A130" r:id="rId109"/>
-    <hyperlink ref="A156" r:id="rId110"/>
-    <hyperlink ref="A155" r:id="rId111"/>
-    <hyperlink ref="A152" r:id="rId112"/>
-    <hyperlink ref="A168" r:id="rId113"/>
-    <hyperlink ref="A169" r:id="rId114"/>
-    <hyperlink ref="A170" r:id="rId115"/>
-    <hyperlink ref="A134" r:id="rId116"/>
-    <hyperlink ref="A141" r:id="rId117"/>
-    <hyperlink ref="A143" r:id="rId118"/>
-    <hyperlink ref="A144" r:id="rId119"/>
-    <hyperlink ref="A99" r:id="rId120"/>
-    <hyperlink ref="A102" r:id="rId121"/>
-    <hyperlink ref="A103" r:id="rId122"/>
-    <hyperlink ref="A104" r:id="rId123"/>
-    <hyperlink ref="A174" r:id="rId124"/>
-    <hyperlink ref="A184" r:id="rId125"/>
-    <hyperlink ref="A195" r:id="rId126"/>
-    <hyperlink ref="A199" r:id="rId127"/>
-    <hyperlink ref="A203" r:id="rId128"/>
-    <hyperlink ref="A206" r:id="rId129"/>
-    <hyperlink ref="A207" r:id="rId130"/>
-    <hyperlink ref="A208" r:id="rId131"/>
-    <hyperlink ref="A209" r:id="rId132"/>
-    <hyperlink ref="A210" r:id="rId133"/>
-    <hyperlink ref="A211" r:id="rId134"/>
-    <hyperlink ref="A212" r:id="rId135"/>
-    <hyperlink ref="A416" r:id="rId136"/>
+    <hyperlink ref="A92" r:id="rId84"/>
+    <hyperlink ref="A91" r:id="rId85"/>
+    <hyperlink ref="A93" r:id="rId86"/>
+    <hyperlink ref="A223" r:id="rId87"/>
+    <hyperlink ref="A226" r:id="rId88"/>
+    <hyperlink ref="A225" r:id="rId89"/>
+    <hyperlink ref="A224" r:id="rId90"/>
+    <hyperlink ref="A228" r:id="rId91"/>
+    <hyperlink ref="A222" r:id="rId92"/>
+    <hyperlink ref="A221" r:id="rId93"/>
+    <hyperlink ref="A220" r:id="rId94"/>
+    <hyperlink ref="A216" r:id="rId95"/>
+    <hyperlink ref="A215" r:id="rId96"/>
+    <hyperlink ref="A106" r:id="rId97"/>
+    <hyperlink ref="A107" r:id="rId98"/>
+    <hyperlink ref="A108" r:id="rId99"/>
+    <hyperlink ref="A109" r:id="rId100"/>
+    <hyperlink ref="A110" r:id="rId101"/>
+    <hyperlink ref="A112" r:id="rId102"/>
+    <hyperlink ref="A116" r:id="rId103"/>
+    <hyperlink ref="A123" r:id="rId104"/>
+    <hyperlink ref="A125" r:id="rId105"/>
+    <hyperlink ref="A111" r:id="rId106"/>
+    <hyperlink ref="A126" r:id="rId107"/>
+    <hyperlink ref="A127" r:id="rId108"/>
+    <hyperlink ref="A128" r:id="rId109"/>
+    <hyperlink ref="A155" r:id="rId110"/>
+    <hyperlink ref="A154" r:id="rId111"/>
+    <hyperlink ref="A151" r:id="rId112"/>
+    <hyperlink ref="A167" r:id="rId113"/>
+    <hyperlink ref="A168" r:id="rId114"/>
+    <hyperlink ref="A169" r:id="rId115"/>
+    <hyperlink ref="A132" r:id="rId116"/>
+    <hyperlink ref="A140" r:id="rId117"/>
+    <hyperlink ref="A142" r:id="rId118"/>
+    <hyperlink ref="A143" r:id="rId119"/>
+    <hyperlink ref="A97" r:id="rId120"/>
+    <hyperlink ref="A100" r:id="rId121"/>
+    <hyperlink ref="A101" r:id="rId122"/>
+    <hyperlink ref="A102" r:id="rId123"/>
+    <hyperlink ref="A173" r:id="rId124"/>
+    <hyperlink ref="A183" r:id="rId125"/>
+    <hyperlink ref="A194" r:id="rId126"/>
+    <hyperlink ref="A198" r:id="rId127"/>
+    <hyperlink ref="A202" r:id="rId128"/>
+    <hyperlink ref="A205" r:id="rId129"/>
+    <hyperlink ref="A206" r:id="rId130"/>
+    <hyperlink ref="A207" r:id="rId131"/>
+    <hyperlink ref="A208" r:id="rId132"/>
+    <hyperlink ref="A209" r:id="rId133"/>
+    <hyperlink ref="A210" r:id="rId134"/>
+    <hyperlink ref="A211" r:id="rId135"/>
+    <hyperlink ref="A418" r:id="rId136"/>
     <hyperlink ref="A80" r:id="rId137"/>
-    <hyperlink ref="A124" r:id="rId138"/>
-    <hyperlink ref="A176" r:id="rId139"/>
-    <hyperlink ref="A390" r:id="rId140"/>
-    <hyperlink ref="A409" r:id="rId141"/>
-    <hyperlink ref="A101" r:id="rId142"/>
-    <hyperlink ref="A88" r:id="rId143"/>
-    <hyperlink ref="A324" r:id="rId144"/>
-    <hyperlink ref="A426" r:id="rId145"/>
+    <hyperlink ref="A122" r:id="rId138"/>
+    <hyperlink ref="A175" r:id="rId139"/>
+    <hyperlink ref="A392" r:id="rId140"/>
+    <hyperlink ref="A411" r:id="rId141"/>
+    <hyperlink ref="A99" r:id="rId142"/>
+    <hyperlink ref="A86" r:id="rId143"/>
+    <hyperlink ref="A325" r:id="rId144"/>
+    <hyperlink ref="A429" r:id="rId145"/>
     <hyperlink ref="A260" r:id="rId146"/>
-    <hyperlink ref="A89" r:id="rId147"/>
+    <hyperlink ref="A87" r:id="rId147"/>
     <hyperlink ref="A34" r:id="rId148"/>
     <hyperlink ref="A234" r:id="rId149"/>
     <hyperlink ref="A31" r:id="rId150" display="SubEvil:"/>
-    <hyperlink ref="A430" r:id="rId151"/>
-    <hyperlink ref="A140" r:id="rId152"/>
-    <hyperlink ref="A11" r:id="rId153"/>
+    <hyperlink ref="A433" r:id="rId151"/>
+    <hyperlink ref="A139" r:id="rId152"/>
+    <hyperlink ref="A12" r:id="rId153"/>
     <hyperlink ref="A294" r:id="rId154"/>
-    <hyperlink ref="A90" r:id="rId155"/>
-    <hyperlink ref="A221" r:id="rId156"/>
+    <hyperlink ref="A88" r:id="rId155"/>
+    <hyperlink ref="A218" r:id="rId156"/>
     <hyperlink ref="A45" r:id="rId157" display="https://github.com/absolomb/WindowsEnum"/>
     <hyperlink ref="A42" r:id="rId158"/>
-    <hyperlink ref="A126" r:id="rId159"/>
+    <hyperlink ref="A124" r:id="rId159"/>
     <hyperlink ref="A265" r:id="rId160"/>
-    <hyperlink ref="A87" r:id="rId161"/>
-    <hyperlink ref="A164" r:id="rId162"/>
+    <hyperlink ref="A85" r:id="rId161"/>
+    <hyperlink ref="A163" r:id="rId162"/>
     <hyperlink ref="A254" r:id="rId163"/>
-    <hyperlink ref="A180" r:id="rId164"/>
-    <hyperlink ref="A182" r:id="rId165"/>
-    <hyperlink ref="A181" r:id="rId166"/>
-    <hyperlink ref="A136" r:id="rId167"/>
-    <hyperlink ref="A177" r:id="rId168"/>
-    <hyperlink ref="A179" r:id="rId169"/>
+    <hyperlink ref="A179" r:id="rId164"/>
+    <hyperlink ref="A181" r:id="rId165"/>
+    <hyperlink ref="A180" r:id="rId166"/>
+    <hyperlink ref="A134" r:id="rId167"/>
+    <hyperlink ref="A176" r:id="rId168"/>
+    <hyperlink ref="A178" r:id="rId169"/>
     <hyperlink ref="A303" r:id="rId170"/>
     <hyperlink ref="A302" r:id="rId171"/>
     <hyperlink ref="A301" r:id="rId172"/>
@@ -23805,202 +23906,208 @@
     <hyperlink ref="A281" r:id="rId174"/>
     <hyperlink ref="A280" r:id="rId175"/>
     <hyperlink ref="A56" r:id="rId176"/>
-    <hyperlink ref="A431" r:id="rId177"/>
+    <hyperlink ref="A434" r:id="rId177"/>
     <hyperlink ref="A52" r:id="rId178"/>
-    <hyperlink ref="A219" r:id="rId179"/>
-    <hyperlink ref="A220" r:id="rId180"/>
-    <hyperlink ref="A222" r:id="rId181"/>
+    <hyperlink ref="A229" r:id="rId179"/>
+    <hyperlink ref="A230" r:id="rId180"/>
+    <hyperlink ref="A219" r:id="rId181"/>
     <hyperlink ref="A53" r:id="rId182"/>
     <hyperlink ref="A32" r:id="rId183"/>
-    <hyperlink ref="A437" r:id="rId184"/>
+    <hyperlink ref="A440" r:id="rId184"/>
     <hyperlink ref="A30" r:id="rId185"/>
-    <hyperlink ref="A449" r:id="rId186"/>
-    <hyperlink ref="A451" r:id="rId187"/>
-    <hyperlink ref="A452" r:id="rId188"/>
-    <hyperlink ref="A453" r:id="rId189"/>
-    <hyperlink ref="A454" r:id="rId190"/>
-    <hyperlink ref="A455" r:id="rId191"/>
-    <hyperlink ref="A325" r:id="rId192"/>
-    <hyperlink ref="A138" r:id="rId193"/>
-    <hyperlink ref="A137" r:id="rId194"/>
+    <hyperlink ref="A452" r:id="rId186"/>
+    <hyperlink ref="A454" r:id="rId187"/>
+    <hyperlink ref="A455" r:id="rId188"/>
+    <hyperlink ref="A456" r:id="rId189"/>
+    <hyperlink ref="A457" r:id="rId190"/>
+    <hyperlink ref="A458" r:id="rId191"/>
+    <hyperlink ref="A326" r:id="rId192"/>
+    <hyperlink ref="A136" r:id="rId193"/>
+    <hyperlink ref="A135" r:id="rId194"/>
     <hyperlink ref="A55" r:id="rId195"/>
-    <hyperlink ref="A443" r:id="rId196"/>
-    <hyperlink ref="A121" r:id="rId197" display="https://github.com/urbanadventurer/Android-PIN-Bruteforce"/>
-    <hyperlink ref="A122" r:id="rId198"/>
-    <hyperlink ref="A91" r:id="rId199"/>
-    <hyperlink ref="A429" r:id="rId200"/>
-    <hyperlink ref="A483" r:id="rId201"/>
-    <hyperlink ref="A27" r:id="rId202"/>
+    <hyperlink ref="A446" r:id="rId196"/>
+    <hyperlink ref="A119" r:id="rId197" display="https://github.com/urbanadventurer/Android-PIN-Bruteforce"/>
+    <hyperlink ref="A120" r:id="rId198"/>
+    <hyperlink ref="A89" r:id="rId199"/>
+    <hyperlink ref="A432" r:id="rId200"/>
+    <hyperlink ref="A486" r:id="rId201"/>
+    <hyperlink ref="A25" r:id="rId202"/>
     <hyperlink ref="A313" r:id="rId203"/>
-    <hyperlink ref="A162" r:id="rId204"/>
-    <hyperlink ref="A459" r:id="rId205"/>
-    <hyperlink ref="A427" r:id="rId206"/>
-    <hyperlink ref="A154" r:id="rId207"/>
-    <hyperlink ref="A450" r:id="rId208"/>
-    <hyperlink ref="A123" r:id="rId209"/>
-    <hyperlink ref="A28" r:id="rId210"/>
-    <hyperlink ref="A462" r:id="rId211" display="https://github.com/cipher387/Dorks-collections-list"/>
-    <hyperlink ref="A406" r:id="rId212"/>
-    <hyperlink ref="A445" r:id="rId213"/>
-    <hyperlink ref="A461" r:id="rId214"/>
-    <hyperlink ref="A425" r:id="rId215"/>
-    <hyperlink ref="A178" r:id="rId216"/>
-    <hyperlink ref="A86" r:id="rId217"/>
-    <hyperlink ref="A82" r:id="rId218"/>
-    <hyperlink ref="A279" r:id="rId219"/>
-    <hyperlink ref="A79" r:id="rId220"/>
-    <hyperlink ref="A84" r:id="rId221"/>
-    <hyperlink ref="A323" r:id="rId222"/>
-    <hyperlink ref="A244" r:id="rId223"/>
-    <hyperlink ref="A371" r:id="rId224"/>
-    <hyperlink ref="A363" r:id="rId225"/>
-    <hyperlink ref="A460" r:id="rId226"/>
-    <hyperlink ref="A378" r:id="rId227"/>
-    <hyperlink ref="A337" r:id="rId228"/>
-    <hyperlink ref="A473" r:id="rId229"/>
-    <hyperlink ref="A472" r:id="rId230"/>
-    <hyperlink ref="A471" r:id="rId231"/>
-    <hyperlink ref="A467" r:id="rId232"/>
-    <hyperlink ref="A466" r:id="rId233"/>
-    <hyperlink ref="A468" r:id="rId234"/>
-    <hyperlink ref="A469" r:id="rId235"/>
-    <hyperlink ref="A470" r:id="rId236"/>
-    <hyperlink ref="A474" r:id="rId237"/>
-    <hyperlink ref="A83" r:id="rId238"/>
-    <hyperlink ref="A78" r:id="rId239"/>
-    <hyperlink ref="A76" r:id="rId240"/>
-    <hyperlink ref="A77" r:id="rId241"/>
-    <hyperlink ref="A67" r:id="rId242"/>
-    <hyperlink ref="A68" r:id="rId243"/>
-    <hyperlink ref="A75" r:id="rId244"/>
-    <hyperlink ref="A383" r:id="rId245"/>
-    <hyperlink ref="A232" r:id="rId246"/>
-    <hyperlink ref="A423" r:id="rId247"/>
-    <hyperlink ref="A246" r:id="rId248"/>
-    <hyperlink ref="A475" r:id="rId249"/>
-    <hyperlink ref="A476" r:id="rId250"/>
-    <hyperlink ref="A477" r:id="rId251"/>
-    <hyperlink ref="A478" r:id="rId252"/>
-    <hyperlink ref="A479" r:id="rId253"/>
-    <hyperlink ref="A481" r:id="rId254"/>
-    <hyperlink ref="A482" r:id="rId255"/>
-    <hyperlink ref="A18" r:id="rId256"/>
-    <hyperlink ref="A9" r:id="rId257"/>
-    <hyperlink ref="A14" r:id="rId258"/>
-    <hyperlink ref="A15" r:id="rId259"/>
-    <hyperlink ref="A245" r:id="rId260"/>
-    <hyperlink ref="A362" r:id="rId261"/>
-    <hyperlink ref="A361" r:id="rId262"/>
-    <hyperlink ref="A360" r:id="rId263"/>
-    <hyperlink ref="A359" r:id="rId264"/>
-    <hyperlink ref="A358" r:id="rId265"/>
-    <hyperlink ref="A145" r:id="rId266"/>
+    <hyperlink ref="A161" r:id="rId204"/>
+    <hyperlink ref="A462" r:id="rId205"/>
+    <hyperlink ref="A430" r:id="rId206"/>
+    <hyperlink ref="A153" r:id="rId207"/>
+    <hyperlink ref="A453" r:id="rId208"/>
+    <hyperlink ref="A121" r:id="rId209"/>
+    <hyperlink ref="A26" r:id="rId210"/>
+    <hyperlink ref="A465" r:id="rId211" display="https://github.com/cipher387/Dorks-collections-list"/>
+    <hyperlink ref="A408" r:id="rId212"/>
+    <hyperlink ref="A448" r:id="rId213"/>
+    <hyperlink ref="A464" r:id="rId214"/>
+    <hyperlink ref="A428" r:id="rId215"/>
+    <hyperlink ref="A177" r:id="rId216"/>
+    <hyperlink ref="A84" r:id="rId217"/>
+    <hyperlink ref="A279" r:id="rId218"/>
+    <hyperlink ref="A79" r:id="rId219"/>
+    <hyperlink ref="A82" r:id="rId220"/>
+    <hyperlink ref="A324" r:id="rId221"/>
+    <hyperlink ref="A244" r:id="rId222"/>
+    <hyperlink ref="A373" r:id="rId223"/>
+    <hyperlink ref="A365" r:id="rId224"/>
+    <hyperlink ref="A463" r:id="rId225"/>
+    <hyperlink ref="A380" r:id="rId226"/>
+    <hyperlink ref="A338" r:id="rId227"/>
+    <hyperlink ref="A476" r:id="rId228"/>
+    <hyperlink ref="A475" r:id="rId229"/>
+    <hyperlink ref="A474" r:id="rId230"/>
+    <hyperlink ref="A470" r:id="rId231"/>
+    <hyperlink ref="A469" r:id="rId232"/>
+    <hyperlink ref="A471" r:id="rId233"/>
+    <hyperlink ref="A472" r:id="rId234"/>
+    <hyperlink ref="A473" r:id="rId235"/>
+    <hyperlink ref="A477" r:id="rId236"/>
+    <hyperlink ref="A81" r:id="rId237"/>
+    <hyperlink ref="A78" r:id="rId238"/>
+    <hyperlink ref="A76" r:id="rId239"/>
+    <hyperlink ref="A77" r:id="rId240"/>
+    <hyperlink ref="A67" r:id="rId241"/>
+    <hyperlink ref="A68" r:id="rId242"/>
+    <hyperlink ref="A75" r:id="rId243"/>
+    <hyperlink ref="A385" r:id="rId244"/>
+    <hyperlink ref="A232" r:id="rId245"/>
+    <hyperlink ref="A426" r:id="rId246"/>
+    <hyperlink ref="A245" r:id="rId247"/>
+    <hyperlink ref="A478" r:id="rId248"/>
+    <hyperlink ref="A479" r:id="rId249"/>
+    <hyperlink ref="A480" r:id="rId250"/>
+    <hyperlink ref="A481" r:id="rId251"/>
+    <hyperlink ref="A482" r:id="rId252"/>
+    <hyperlink ref="A484" r:id="rId253"/>
+    <hyperlink ref="A485" r:id="rId254"/>
+    <hyperlink ref="A20" r:id="rId255"/>
+    <hyperlink ref="A10" r:id="rId256"/>
+    <hyperlink ref="A15" r:id="rId257"/>
+    <hyperlink ref="A16" r:id="rId258"/>
+    <hyperlink ref="A348" r:id="rId259"/>
+    <hyperlink ref="A364" r:id="rId260"/>
+    <hyperlink ref="A363" r:id="rId261"/>
+    <hyperlink ref="A362" r:id="rId262"/>
+    <hyperlink ref="A361" r:id="rId263"/>
+    <hyperlink ref="A360" r:id="rId264"/>
+    <hyperlink ref="A144" r:id="rId265"/>
+    <hyperlink ref="A184" r:id="rId266"/>
     <hyperlink ref="A185" r:id="rId267"/>
     <hyperlink ref="A186" r:id="rId268"/>
     <hyperlink ref="A187" r:id="rId269"/>
     <hyperlink ref="A188" r:id="rId270"/>
-    <hyperlink ref="A189" r:id="rId271"/>
-    <hyperlink ref="A192" r:id="rId272"/>
+    <hyperlink ref="A191" r:id="rId271"/>
+    <hyperlink ref="A189" r:id="rId272"/>
     <hyperlink ref="A190" r:id="rId273"/>
-    <hyperlink ref="A191" r:id="rId274"/>
+    <hyperlink ref="A192" r:id="rId274"/>
     <hyperlink ref="A193" r:id="rId275"/>
-    <hyperlink ref="A194" r:id="rId276"/>
-    <hyperlink ref="A119" r:id="rId277"/>
-    <hyperlink ref="A442" r:id="rId278"/>
-    <hyperlink ref="A441" r:id="rId279"/>
-    <hyperlink ref="A440" r:id="rId280"/>
-    <hyperlink ref="A438" r:id="rId281"/>
-    <hyperlink ref="A439" r:id="rId282"/>
-    <hyperlink ref="A400" r:id="rId283"/>
-    <hyperlink ref="A373" r:id="rId284"/>
-    <hyperlink ref="A17" r:id="rId285"/>
-    <hyperlink ref="A399" r:id="rId286"/>
-    <hyperlink ref="A401" r:id="rId287"/>
-    <hyperlink ref="A377" r:id="rId288"/>
-    <hyperlink ref="A16" r:id="rId289"/>
-    <hyperlink ref="A402" r:id="rId290" display="https://support.microsoft.com/en-us/help/2693643/remote-server-administration-tools-rsat-for-windows-operating-systems"/>
-    <hyperlink ref="A322" r:id="rId291"/>
-    <hyperlink ref="A403" r:id="rId292"/>
+    <hyperlink ref="A117" r:id="rId276"/>
+    <hyperlink ref="A445" r:id="rId277"/>
+    <hyperlink ref="A444" r:id="rId278"/>
+    <hyperlink ref="A443" r:id="rId279"/>
+    <hyperlink ref="A441" r:id="rId280"/>
+    <hyperlink ref="A442" r:id="rId281"/>
+    <hyperlink ref="A402" r:id="rId282"/>
+    <hyperlink ref="A375" r:id="rId283"/>
+    <hyperlink ref="A18" r:id="rId284"/>
+    <hyperlink ref="A401" r:id="rId285"/>
+    <hyperlink ref="A403" r:id="rId286"/>
+    <hyperlink ref="A379" r:id="rId287"/>
+    <hyperlink ref="A17" r:id="rId288"/>
+    <hyperlink ref="A404" r:id="rId289" display="https://support.microsoft.com/en-us/help/2693643/remote-server-administration-tools-rsat-for-windows-operating-systems"/>
+    <hyperlink ref="A323" r:id="rId290"/>
+    <hyperlink ref="A405" r:id="rId291"/>
+    <hyperlink ref="A384" r:id="rId292"/>
     <hyperlink ref="A382" r:id="rId293"/>
-    <hyperlink ref="A380" r:id="rId294"/>
-    <hyperlink ref="A404" r:id="rId295"/>
-    <hyperlink ref="A321" r:id="rId296"/>
-    <hyperlink ref="A424" r:id="rId297"/>
-    <hyperlink ref="A317" r:id="rId298"/>
-    <hyperlink ref="A146" r:id="rId299"/>
-    <hyperlink ref="A387" r:id="rId300"/>
-    <hyperlink ref="A398" r:id="rId301"/>
-    <hyperlink ref="A374" r:id="rId302"/>
-    <hyperlink ref="A318" r:id="rId303"/>
-    <hyperlink ref="A319" r:id="rId304"/>
-    <hyperlink ref="A10" r:id="rId305"/>
-    <hyperlink ref="A66" r:id="rId306"/>
-    <hyperlink ref="A253" r:id="rId307"/>
-    <hyperlink ref="A29" r:id="rId308"/>
-    <hyperlink ref="A395" r:id="rId309"/>
-    <hyperlink ref="A388" r:id="rId310"/>
-    <hyperlink ref="A396" r:id="rId311"/>
-    <hyperlink ref="A333" r:id="rId312"/>
-    <hyperlink ref="A334" r:id="rId313"/>
-    <hyperlink ref="A375" r:id="rId314"/>
-    <hyperlink ref="A397" r:id="rId315"/>
-    <hyperlink ref="A54" r:id="rId316"/>
-    <hyperlink ref="A153" r:id="rId317"/>
-    <hyperlink ref="A296" r:id="rId318"/>
-    <hyperlink ref="A205" r:id="rId319"/>
-    <hyperlink ref="A336" r:id="rId320"/>
-    <hyperlink ref="A376" r:id="rId321"/>
-    <hyperlink ref="A218" r:id="rId322"/>
-    <hyperlink ref="A435" r:id="rId323" location="how-it-works"/>
-    <hyperlink ref="A204" r:id="rId324"/>
-    <hyperlink ref="A298" r:id="rId325"/>
+    <hyperlink ref="A406" r:id="rId294"/>
+    <hyperlink ref="A322" r:id="rId295"/>
+    <hyperlink ref="A427" r:id="rId296"/>
+    <hyperlink ref="A317" r:id="rId297"/>
+    <hyperlink ref="A145" r:id="rId298"/>
+    <hyperlink ref="A389" r:id="rId299"/>
+    <hyperlink ref="A400" r:id="rId300"/>
+    <hyperlink ref="A376" r:id="rId301"/>
+    <hyperlink ref="A318" r:id="rId302"/>
+    <hyperlink ref="A319" r:id="rId303"/>
+    <hyperlink ref="A11" r:id="rId304"/>
+    <hyperlink ref="A66" r:id="rId305"/>
+    <hyperlink ref="A252" r:id="rId306"/>
+    <hyperlink ref="A27" r:id="rId307"/>
+    <hyperlink ref="A397" r:id="rId308"/>
+    <hyperlink ref="A390" r:id="rId309"/>
+    <hyperlink ref="A398" r:id="rId310"/>
+    <hyperlink ref="A334" r:id="rId311"/>
+    <hyperlink ref="A335" r:id="rId312"/>
+    <hyperlink ref="A377" r:id="rId313"/>
+    <hyperlink ref="A399" r:id="rId314"/>
+    <hyperlink ref="A54" r:id="rId315"/>
+    <hyperlink ref="A152" r:id="rId316"/>
+    <hyperlink ref="A296" r:id="rId317"/>
+    <hyperlink ref="A204" r:id="rId318"/>
+    <hyperlink ref="A337" r:id="rId319"/>
+    <hyperlink ref="A378" r:id="rId320"/>
+    <hyperlink ref="A217" r:id="rId321"/>
+    <hyperlink ref="A438" r:id="rId322" location="how-it-works"/>
+    <hyperlink ref="A203" r:id="rId323"/>
+    <hyperlink ref="A298" r:id="rId324"/>
+    <hyperlink ref="A424" r:id="rId325"/>
     <hyperlink ref="A421" r:id="rId326"/>
-    <hyperlink ref="A419" r:id="rId327"/>
-    <hyperlink ref="A480" r:id="rId328"/>
+    <hyperlink ref="A483" r:id="rId327"/>
+    <hyperlink ref="A422" r:id="rId328"/>
     <hyperlink ref="A420" r:id="rId329"/>
-    <hyperlink ref="A418" r:id="rId330"/>
-    <hyperlink ref="A417" r:id="rId331"/>
-    <hyperlink ref="A444" r:id="rId332"/>
-    <hyperlink ref="A22" r:id="rId333"/>
-    <hyperlink ref="A428" r:id="rId334"/>
-    <hyperlink ref="A422" r:id="rId335"/>
-    <hyperlink ref="A139" r:id="rId336"/>
-    <hyperlink ref="A316" r:id="rId337"/>
-    <hyperlink ref="A331" r:id="rId338"/>
-    <hyperlink ref="A74" r:id="rId339"/>
-    <hyperlink ref="A407" r:id="rId340"/>
-    <hyperlink ref="A332" r:id="rId341"/>
-    <hyperlink ref="A370" r:id="rId342"/>
-    <hyperlink ref="A7" r:id="rId343"/>
-    <hyperlink ref="A100" r:id="rId344"/>
-    <hyperlink ref="A436" r:id="rId345"/>
-    <hyperlink ref="A231" r:id="rId346"/>
+    <hyperlink ref="A419" r:id="rId330"/>
+    <hyperlink ref="A447" r:id="rId331"/>
+    <hyperlink ref="A19" r:id="rId332"/>
+    <hyperlink ref="A431" r:id="rId333"/>
+    <hyperlink ref="A425" r:id="rId334"/>
+    <hyperlink ref="A138" r:id="rId335"/>
+    <hyperlink ref="A316" r:id="rId336"/>
+    <hyperlink ref="A332" r:id="rId337"/>
+    <hyperlink ref="A74" r:id="rId338"/>
+    <hyperlink ref="A409" r:id="rId339"/>
+    <hyperlink ref="A333" r:id="rId340"/>
+    <hyperlink ref="A372" r:id="rId341"/>
+    <hyperlink ref="A8" r:id="rId342"/>
+    <hyperlink ref="A98" r:id="rId343"/>
+    <hyperlink ref="A439" r:id="rId344"/>
+    <hyperlink ref="A231" r:id="rId345"/>
+    <hyperlink ref="A200" r:id="rId346"/>
     <hyperlink ref="A201" r:id="rId347"/>
-    <hyperlink ref="A202" r:id="rId348"/>
-    <hyperlink ref="A269" r:id="rId349"/>
-    <hyperlink ref="A200" r:id="rId350"/>
-    <hyperlink ref="A335" r:id="rId351"/>
-    <hyperlink ref="A161" r:id="rId352"/>
-    <hyperlink ref="A73" r:id="rId353"/>
-    <hyperlink ref="A41" r:id="rId354"/>
-    <hyperlink ref="A51" r:id="rId355"/>
-    <hyperlink ref="A120" r:id="rId356"/>
-    <hyperlink ref="A484" r:id="rId357"/>
-    <hyperlink ref="A6" r:id="rId358"/>
-    <hyperlink ref="A320" r:id="rId359"/>
-    <hyperlink ref="A175" r:id="rId360"/>
-    <hyperlink ref="A372" r:id="rId361"/>
-    <hyperlink ref="A485" r:id="rId362"/>
-    <hyperlink ref="A394" r:id="rId363"/>
-    <hyperlink ref="A8" r:id="rId364"/>
-    <hyperlink ref="A489" r:id="rId365"/>
-    <hyperlink ref="A69" r:id="rId366"/>
-    <hyperlink ref="A71" r:id="rId367"/>
-    <hyperlink ref="A295" r:id="rId368"/>
-    <hyperlink ref="A70" r:id="rId369"/>
+    <hyperlink ref="A269" r:id="rId348"/>
+    <hyperlink ref="A199" r:id="rId349"/>
+    <hyperlink ref="A336" r:id="rId350"/>
+    <hyperlink ref="A160" r:id="rId351"/>
+    <hyperlink ref="A73" r:id="rId352"/>
+    <hyperlink ref="A41" r:id="rId353"/>
+    <hyperlink ref="A51" r:id="rId354"/>
+    <hyperlink ref="A118" r:id="rId355"/>
+    <hyperlink ref="A487" r:id="rId356"/>
+    <hyperlink ref="A7" r:id="rId357"/>
+    <hyperlink ref="A321" r:id="rId358"/>
+    <hyperlink ref="A174" r:id="rId359"/>
+    <hyperlink ref="A374" r:id="rId360"/>
+    <hyperlink ref="A488" r:id="rId361"/>
+    <hyperlink ref="A396" r:id="rId362"/>
+    <hyperlink ref="A9" r:id="rId363"/>
+    <hyperlink ref="A492" r:id="rId364"/>
+    <hyperlink ref="A69" r:id="rId365"/>
+    <hyperlink ref="A71" r:id="rId366"/>
+    <hyperlink ref="A295" r:id="rId367"/>
+    <hyperlink ref="A70" r:id="rId368"/>
+    <hyperlink ref="A320" r:id="rId369"/>
+    <hyperlink ref="A423" r:id="rId370"/>
+    <hyperlink ref="A227" r:id="rId371"/>
+    <hyperlink ref="A29" r:id="rId372"/>
+    <hyperlink ref="A137" r:id="rId373"/>
+    <hyperlink ref="A28" r:id="rId374"/>
+    <hyperlink ref="A253" r:id="rId375"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId370"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId376"/>
 </worksheet>
 </file>
 
